--- a/Arkansas_Data/Data/All_MI_measurements_empty.xlsx
+++ b/Arkansas_Data/Data/All_MI_measurements_empty.xlsx
@@ -1,98 +1,706 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\Methane_Insight\Arkansas_Data\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFD494-48B5-4877-9395-C3F2F90C5621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replicate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brown South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rep1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rep2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Way 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Way 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8 Mitchell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15 Keaton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H 10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="227">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Collar</t>
+  </si>
+  <si>
+    <t>Replicate</t>
+  </si>
+  <si>
+    <t>MI_slope</t>
+  </si>
+  <si>
+    <t>Brown South</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>Rep1</t>
+  </si>
+  <si>
+    <t>Rep2</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Way 4</t>
+  </si>
+  <si>
+    <t>Way 3</t>
+  </si>
+  <si>
+    <t>R8 Mitchell</t>
+  </si>
+  <si>
+    <t>R15 Keaton</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>South 0</t>
+  </si>
+  <si>
+    <t>J 4</t>
+  </si>
+  <si>
+    <t>H 10</t>
+  </si>
+  <si>
+    <t>10.61 </t>
+  </si>
+  <si>
+    <t>10.01 </t>
+  </si>
+  <si>
+    <t>3.97 </t>
+  </si>
+  <si>
+    <t>8.32 </t>
+  </si>
+  <si>
+    <t>8.96 </t>
+  </si>
+  <si>
+    <t>12.37 </t>
+  </si>
+  <si>
+    <t>14.62 </t>
+  </si>
+  <si>
+    <t>12.05 </t>
+  </si>
+  <si>
+    <t>8.38 </t>
+  </si>
+  <si>
+    <t>9.4 </t>
+  </si>
+  <si>
+    <t>10.38 </t>
+  </si>
+  <si>
+    <t>20.74 </t>
+  </si>
+  <si>
+    <t>19.66 </t>
+  </si>
+  <si>
+    <t>11 </t>
+  </si>
+  <si>
+    <t>18.99 </t>
+  </si>
+  <si>
+    <t>32.86 </t>
+  </si>
+  <si>
+    <t>10.22 </t>
+  </si>
+  <si>
+    <t>18.25 </t>
+  </si>
+  <si>
+    <t>13.77 </t>
+  </si>
+  <si>
+    <t>8.5 </t>
+  </si>
+  <si>
+    <t>9.67 </t>
+  </si>
+  <si>
+    <t>8.55 </t>
+  </si>
+  <si>
+    <t>16.36 </t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>5.79 </t>
+  </si>
+  <si>
+    <t>15.6 </t>
+  </si>
+  <si>
+    <t>9.35 </t>
+  </si>
+  <si>
+    <t>6.67 </t>
+  </si>
+  <si>
+    <t>7.31 </t>
+  </si>
+  <si>
+    <t>7.82 </t>
+  </si>
+  <si>
+    <t>7.16 </t>
+  </si>
+  <si>
+    <t>3.01 </t>
+  </si>
+  <si>
+    <t>2.67 </t>
+  </si>
+  <si>
+    <t>9.41 </t>
+  </si>
+  <si>
+    <t>7.35 </t>
+  </si>
+  <si>
+    <t>6.21 </t>
+  </si>
+  <si>
+    <t>3.9 </t>
+  </si>
+  <si>
+    <t>3.6 </t>
+  </si>
+  <si>
+    <t>6.58 </t>
+  </si>
+  <si>
+    <t>1.97 </t>
+  </si>
+  <si>
+    <t>3.13 </t>
+  </si>
+  <si>
+    <t>2.36 </t>
+  </si>
+  <si>
+    <t>5.28 </t>
+  </si>
+  <si>
+    <t>3.45 </t>
+  </si>
+  <si>
+    <t>2.77 </t>
+  </si>
+  <si>
+    <t>3.64 </t>
+  </si>
+  <si>
+    <t>7.28 </t>
+  </si>
+  <si>
+    <t>4.37 </t>
+  </si>
+  <si>
+    <t>6.44 </t>
+  </si>
+  <si>
+    <t>4.48 </t>
+  </si>
+  <si>
+    <t>5.2 </t>
+  </si>
+  <si>
+    <t>16.98 </t>
+  </si>
+  <si>
+    <t>10.63 </t>
+  </si>
+  <si>
+    <t>11.6 </t>
+  </si>
+  <si>
+    <t>5.77 </t>
+  </si>
+  <si>
+    <t>9.47 </t>
+  </si>
+  <si>
+    <t>37.97 </t>
+  </si>
+  <si>
+    <t>3.36 </t>
+  </si>
+  <si>
+    <t>6.99 </t>
+  </si>
+  <si>
+    <t>6.97 </t>
+  </si>
+  <si>
+    <t>8.56 </t>
+  </si>
+  <si>
+    <t>11.53 </t>
+  </si>
+  <si>
+    <t>6.14 </t>
+  </si>
+  <si>
+    <t>38.25 </t>
+  </si>
+  <si>
+    <t>31.54 </t>
+  </si>
+  <si>
+    <t>22 </t>
+  </si>
+  <si>
+    <t>30.78 </t>
+  </si>
+  <si>
+    <t>25.53 </t>
+  </si>
+  <si>
+    <t>17.8 </t>
+  </si>
+  <si>
+    <t>22.67 </t>
+  </si>
+  <si>
+    <t>14.13 </t>
+  </si>
+  <si>
+    <t>16.91 </t>
+  </si>
+  <si>
+    <t>14.24 </t>
+  </si>
+  <si>
+    <t>10.27 </t>
+  </si>
+  <si>
+    <t>15.71 </t>
+  </si>
+  <si>
+    <t>-3.85 </t>
+  </si>
+  <si>
+    <t>1.22 </t>
+  </si>
+  <si>
+    <t>3.41 </t>
+  </si>
+  <si>
+    <t>4.09 </t>
+  </si>
+  <si>
+    <t>5.51 </t>
+  </si>
+  <si>
+    <t>5.27 </t>
+  </si>
+  <si>
+    <t>5.13 </t>
+  </si>
+  <si>
+    <t>9.16 </t>
+  </si>
+  <si>
+    <t>5.22 </t>
+  </si>
+  <si>
+    <t>2.66 </t>
+  </si>
+  <si>
+    <t>11.08 </t>
+  </si>
+  <si>
+    <t>7.18 </t>
+  </si>
+  <si>
+    <t>5.01 </t>
+  </si>
+  <si>
+    <t>8.95 </t>
+  </si>
+  <si>
+    <t>6.43 </t>
+  </si>
+  <si>
+    <t>2.28 </t>
+  </si>
+  <si>
+    <t>5.21 </t>
+  </si>
+  <si>
+    <t>4.71 </t>
+  </si>
+  <si>
+    <t>5.02 </t>
+  </si>
+  <si>
+    <t>4.38 </t>
+  </si>
+  <si>
+    <t>2.94 </t>
+  </si>
+  <si>
+    <t>5.37 </t>
+  </si>
+  <si>
+    <t>14.04 </t>
+  </si>
+  <si>
+    <t>13.95 </t>
+  </si>
+  <si>
+    <t>15.15 </t>
+  </si>
+  <si>
+    <t>5.72 </t>
+  </si>
+  <si>
+    <t>12.26 </t>
+  </si>
+  <si>
+    <t>5.83 </t>
+  </si>
+  <si>
+    <t>8.09 </t>
+  </si>
+  <si>
+    <t>7.92 </t>
+  </si>
+  <si>
+    <t>7.63 </t>
+  </si>
+  <si>
+    <t>6.49 </t>
+  </si>
+  <si>
+    <t>9.63 </t>
+  </si>
+  <si>
+    <t>3.05 </t>
+  </si>
+  <si>
+    <t>4.25 </t>
+  </si>
+  <si>
+    <t>5.69 </t>
+  </si>
+  <si>
+    <t>5.24 </t>
+  </si>
+  <si>
+    <t>2.93 </t>
+  </si>
+  <si>
+    <t>8.14 </t>
+  </si>
+  <si>
+    <t>5.45 </t>
+  </si>
+  <si>
+    <t>8.26 </t>
+  </si>
+  <si>
+    <t>8.68 </t>
+  </si>
+  <si>
+    <t>10.09 </t>
+  </si>
+  <si>
+    <t>7.52 </t>
+  </si>
+  <si>
+    <t>3.99 </t>
+  </si>
+  <si>
+    <t>4.9 </t>
+  </si>
+  <si>
+    <t>2.02 </t>
+  </si>
+  <si>
+    <t>2.65 </t>
+  </si>
+  <si>
+    <t>9.37 </t>
+  </si>
+  <si>
+    <t>6.69 </t>
+  </si>
+  <si>
+    <t>6.83 </t>
+  </si>
+  <si>
+    <t>6.52 </t>
+  </si>
+  <si>
+    <t>5.11 </t>
+  </si>
+  <si>
+    <t>6.09 </t>
+  </si>
+  <si>
+    <t>4.11 </t>
+  </si>
+  <si>
+    <t>6.61 </t>
+  </si>
+  <si>
+    <t>6.13 </t>
+  </si>
+  <si>
+    <t>7.61 </t>
+  </si>
+  <si>
+    <t>3.85 </t>
+  </si>
+  <si>
+    <t>23.98 </t>
+  </si>
+  <si>
+    <t>15.62 </t>
+  </si>
+  <si>
+    <t>18.86 </t>
+  </si>
+  <si>
+    <t>22.5 </t>
+  </si>
+  <si>
+    <t>20.69 </t>
+  </si>
+  <si>
+    <t>16.54 </t>
+  </si>
+  <si>
+    <t>1.09 </t>
+  </si>
+  <si>
+    <t>5.23 </t>
+  </si>
+  <si>
+    <t>7.93 </t>
+  </si>
+  <si>
+    <t>4.54 </t>
+  </si>
+  <si>
+    <t>7.11 </t>
+  </si>
+  <si>
+    <t>2.71 </t>
+  </si>
+  <si>
+    <t>5.06 </t>
+  </si>
+  <si>
+    <t>0.3 </t>
+  </si>
+  <si>
+    <t>0.32 </t>
+  </si>
+  <si>
+    <t>0.55 </t>
+  </si>
+  <si>
+    <t>0.78 </t>
+  </si>
+  <si>
+    <t>0.38 </t>
+  </si>
+  <si>
+    <t>5.17 </t>
+  </si>
+  <si>
+    <t>3.19 </t>
+  </si>
+  <si>
+    <t>7.83 </t>
+  </si>
+  <si>
+    <t>4.41 </t>
+  </si>
+  <si>
+    <t>9.93 </t>
+  </si>
+  <si>
+    <t>14.45 </t>
+  </si>
+  <si>
+    <t>15.84 </t>
+  </si>
+  <si>
+    <t>11.12 </t>
+  </si>
+  <si>
+    <t>14.01 </t>
+  </si>
+  <si>
+    <t>13.06 </t>
+  </si>
+  <si>
+    <t>11.35 </t>
+  </si>
+  <si>
+    <t>7.65 </t>
+  </si>
+  <si>
+    <t>8.88 </t>
+  </si>
+  <si>
+    <t>4.86 </t>
+  </si>
+  <si>
+    <t>5.91 </t>
+  </si>
+  <si>
+    <t>5.63 </t>
+  </si>
+  <si>
+    <t>4.08 </t>
+  </si>
+  <si>
+    <t>8.43 </t>
+  </si>
+  <si>
+    <t>4.91 </t>
+  </si>
+  <si>
+    <t>6.26 </t>
+  </si>
+  <si>
+    <t>8.84 </t>
+  </si>
+  <si>
+    <t>4.99 </t>
+  </si>
+  <si>
+    <t>4.44 </t>
+  </si>
+  <si>
+    <t>5.35 </t>
+  </si>
+  <si>
+    <t>0.16 </t>
+  </si>
+  <si>
+    <t>21.6 </t>
+  </si>
+  <si>
+    <t>-7.21 </t>
+  </si>
+  <si>
+    <t>5.85 </t>
+  </si>
+  <si>
+    <t>1.76 </t>
+  </si>
+  <si>
+    <t>6.53 </t>
+  </si>
+  <si>
+    <t>7.4 </t>
+  </si>
+  <si>
+    <t>9.8 </t>
+  </si>
+  <si>
+    <t>4.13 </t>
+  </si>
+  <si>
+    <t>3.59 </t>
+  </si>
+  <si>
+    <t>5.34 </t>
+  </si>
+  <si>
+    <t>6.1 </t>
+  </si>
+  <si>
+    <t>4.15 </t>
+  </si>
+  <si>
+    <t>3.11 </t>
+  </si>
+  <si>
+    <t>0.02 </t>
+  </si>
+  <si>
+    <t>4.82 </t>
+  </si>
+  <si>
+    <t>8.42 </t>
+  </si>
+  <si>
+    <t>11.14 </t>
+  </si>
+  <si>
+    <t>9.81 </t>
+  </si>
+  <si>
+    <t>8.16 </t>
+  </si>
+  <si>
+    <t>7.9 </t>
+  </si>
+  <si>
+    <t>8.52 </t>
+  </si>
+  <si>
+    <t>14.6 </t>
+  </si>
+  <si>
+    <t>7.22 </t>
   </si>
 </sst>
 </file>
@@ -100,9 +708,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,12 +746,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,14 +1042,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F558"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +1073,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45503</v>
       </c>
       <c r="B2" t="s">
@@ -462,10 +1086,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45503</v>
       </c>
       <c r="B3" t="s">
@@ -477,10 +1103,12 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="F3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45503</v>
       </c>
       <c r="B4" t="s">
@@ -492,10 +1120,12 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="F4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45503</v>
       </c>
       <c r="B5" t="s">
@@ -507,10 +1137,12 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45503</v>
       </c>
       <c r="B6" t="s">
@@ -522,10 +1154,12 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="F6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45503</v>
       </c>
       <c r="B7" t="s">
@@ -537,10 +1171,12 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45503</v>
       </c>
       <c r="B8" t="s">
@@ -552,10 +1188,12 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="F8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45503</v>
       </c>
       <c r="B9" t="s">
@@ -567,10 +1205,12 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="F9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45503</v>
       </c>
       <c r="B10" t="s">
@@ -582,10 +1222,12 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="F10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45503</v>
       </c>
       <c r="B11" t="s">
@@ -597,10 +1239,12 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45503</v>
       </c>
       <c r="B12" t="s">
@@ -612,10 +1256,12 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="F12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45503</v>
       </c>
       <c r="B13" t="s">
@@ -627,10 +1273,12 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="F13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45503</v>
       </c>
       <c r="B14" t="s">
@@ -642,10 +1290,12 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="F14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45503</v>
       </c>
       <c r="B15" t="s">
@@ -657,10 +1307,12 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="F15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45503</v>
       </c>
       <c r="B16" t="s">
@@ -672,10 +1324,12 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="F16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45503</v>
       </c>
       <c r="B17" t="s">
@@ -687,10 +1341,12 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="F17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45503</v>
       </c>
       <c r="B18" t="s">
@@ -702,10 +1358,12 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="F18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45503</v>
       </c>
       <c r="B19" t="s">
@@ -717,10 +1375,12 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="F19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45503</v>
       </c>
       <c r="B20" t="s">
@@ -732,10 +1392,12 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="F20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45503</v>
       </c>
       <c r="B21" t="s">
@@ -747,10 +1409,12 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="F21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45503</v>
       </c>
       <c r="B22" t="s">
@@ -762,10 +1426,12 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E22"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45503</v>
       </c>
       <c r="B23" t="s">
@@ -777,10 +1443,12 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45503</v>
       </c>
       <c r="B24" t="s">
@@ -792,10 +1460,12 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45503</v>
       </c>
       <c r="B25" t="s">
@@ -807,10 +1477,12 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45503</v>
       </c>
       <c r="B26" t="s">
@@ -822,10 +1494,9 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E26"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45503</v>
       </c>
       <c r="B27" t="s">
@@ -837,10 +1508,9 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45503</v>
       </c>
       <c r="B28" t="s">
@@ -852,10 +1522,9 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="E28"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45503</v>
       </c>
       <c r="B29" t="s">
@@ -867,10 +1536,9 @@
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45503</v>
       </c>
       <c r="B30" t="s">
@@ -882,10 +1550,9 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="E30"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45503</v>
       </c>
       <c r="B31" t="s">
@@ -897,10 +1564,9 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="E31"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45503</v>
       </c>
       <c r="B32" t="s">
@@ -912,10 +1578,9 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E32"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>45503</v>
       </c>
       <c r="B33" t="s">
@@ -927,10 +1592,9 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>45503</v>
       </c>
       <c r="B34" t="s">
@@ -942,10 +1606,9 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>45503</v>
       </c>
       <c r="B35" t="s">
@@ -957,10 +1620,9 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>45503</v>
       </c>
       <c r="B36" t="s">
@@ -972,10 +1634,9 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>45503</v>
       </c>
       <c r="B37" t="s">
@@ -987,10 +1648,9 @@
       <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>45504</v>
       </c>
       <c r="B38" t="s">
@@ -1002,10 +1662,9 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-      <c r="E38"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>45504</v>
       </c>
       <c r="B39" t="s">
@@ -1017,10 +1676,9 @@
       <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="E39"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>45504</v>
       </c>
       <c r="B40" t="s">
@@ -1032,10 +1690,9 @@
       <c r="D40" t="s">
         <v>7</v>
       </c>
-      <c r="E40"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>45504</v>
       </c>
       <c r="B41" t="s">
@@ -1047,10 +1704,9 @@
       <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="E41"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>45504</v>
       </c>
       <c r="B42" t="s">
@@ -1062,10 +1718,9 @@
       <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="E42"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>45504</v>
       </c>
       <c r="B43" t="s">
@@ -1077,10 +1732,9 @@
       <c r="D43" t="s">
         <v>8</v>
       </c>
-      <c r="E43"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>45504</v>
       </c>
       <c r="B44" t="s">
@@ -1092,10 +1746,9 @@
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="E44"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>45504</v>
       </c>
       <c r="B45" t="s">
@@ -1107,10 +1760,9 @@
       <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="E45"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45504</v>
       </c>
       <c r="B46" t="s">
@@ -1122,10 +1774,9 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E46"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45504</v>
       </c>
       <c r="B47" t="s">
@@ -1137,10 +1788,9 @@
       <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="E47"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>45504</v>
       </c>
       <c r="B48" t="s">
@@ -1152,10 +1802,9 @@
       <c r="D48" t="s">
         <v>7</v>
       </c>
-      <c r="E48"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>45504</v>
       </c>
       <c r="B49" t="s">
@@ -1167,10 +1816,9 @@
       <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>45505</v>
       </c>
       <c r="B50" t="s">
@@ -1182,10 +1830,9 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-      <c r="E50"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>45505</v>
       </c>
       <c r="B51" t="s">
@@ -1197,10 +1844,9 @@
       <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="E51"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>45505</v>
       </c>
       <c r="B52" t="s">
@@ -1212,10 +1858,9 @@
       <c r="D52" t="s">
         <v>7</v>
       </c>
-      <c r="E52"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>45505</v>
       </c>
       <c r="B53" t="s">
@@ -1227,10 +1872,9 @@
       <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>45505</v>
       </c>
       <c r="B54" t="s">
@@ -1242,10 +1886,9 @@
       <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="E54"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>45505</v>
       </c>
       <c r="B55" t="s">
@@ -1257,10 +1900,9 @@
       <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E55"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>45505</v>
       </c>
       <c r="B56" t="s">
@@ -1272,10 +1914,9 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>45505</v>
       </c>
       <c r="B57" t="s">
@@ -1287,10 +1928,9 @@
       <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>45505</v>
       </c>
       <c r="B58" t="s">
@@ -1302,10 +1942,9 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
-      <c r="E58"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>45505</v>
       </c>
       <c r="B59" t="s">
@@ -1317,10 +1956,9 @@
       <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>45505</v>
       </c>
       <c r="B60" t="s">
@@ -1332,10 +1970,9 @@
       <c r="D60" t="s">
         <v>7</v>
       </c>
-      <c r="E60"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>45505</v>
       </c>
       <c r="B61" t="s">
@@ -1347,10 +1984,9 @@
       <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E61"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>45510</v>
       </c>
       <c r="B62" t="s">
@@ -1362,10 +1998,9 @@
       <c r="D62" t="s">
         <v>7</v>
       </c>
-      <c r="E62"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>45510</v>
       </c>
       <c r="B63" t="s">
@@ -1377,10 +2012,9 @@
       <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="E63"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>45510</v>
       </c>
       <c r="B64" t="s">
@@ -1392,10 +2026,9 @@
       <c r="D64" t="s">
         <v>7</v>
       </c>
-      <c r="E64"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>45510</v>
       </c>
       <c r="B65" t="s">
@@ -1407,10 +2040,9 @@
       <c r="D65" t="s">
         <v>8</v>
       </c>
-      <c r="E65"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>45510</v>
       </c>
       <c r="B66" t="s">
@@ -1422,10 +2054,9 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="E66"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>45510</v>
       </c>
       <c r="B67" t="s">
@@ -1437,10 +2068,9 @@
       <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>45510</v>
       </c>
       <c r="B68" t="s">
@@ -1452,10 +2082,9 @@
       <c r="D68" t="s">
         <v>7</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>45510</v>
       </c>
       <c r="B69" t="s">
@@ -1467,10 +2096,9 @@
       <c r="D69" t="s">
         <v>8</v>
       </c>
-      <c r="E69"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>45510</v>
       </c>
       <c r="B70" t="s">
@@ -1482,10 +2110,9 @@
       <c r="D70" t="s">
         <v>7</v>
       </c>
-      <c r="E70"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>45510</v>
       </c>
       <c r="B71" t="s">
@@ -1497,10 +2124,9 @@
       <c r="D71" t="s">
         <v>8</v>
       </c>
-      <c r="E71"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>45510</v>
       </c>
       <c r="B72" t="s">
@@ -1512,10 +2138,9 @@
       <c r="D72" t="s">
         <v>7</v>
       </c>
-      <c r="E72"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>45510</v>
       </c>
       <c r="B73" t="s">
@@ -1527,10 +2152,9 @@
       <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="E73"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>45510</v>
       </c>
       <c r="B74" t="s">
@@ -1542,10 +2166,9 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-      <c r="E74"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>45510</v>
       </c>
       <c r="B75" t="s">
@@ -1557,10 +2180,9 @@
       <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="E75"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>45510</v>
       </c>
       <c r="B76" t="s">
@@ -1572,10 +2194,9 @@
       <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>45510</v>
       </c>
       <c r="B77" t="s">
@@ -1587,10 +2208,9 @@
       <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>45510</v>
       </c>
       <c r="B78" t="s">
@@ -1602,10 +2222,9 @@
       <c r="D78" t="s">
         <v>7</v>
       </c>
-      <c r="E78"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>45510</v>
       </c>
       <c r="B79" t="s">
@@ -1617,10 +2236,9 @@
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>45510</v>
       </c>
       <c r="B80" t="s">
@@ -1632,10 +2250,9 @@
       <c r="D80" t="s">
         <v>7</v>
       </c>
-      <c r="E80"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>45510</v>
       </c>
       <c r="B81" t="s">
@@ -1647,10 +2264,9 @@
       <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="E81"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>45510</v>
       </c>
       <c r="B82" t="s">
@@ -1662,10 +2278,9 @@
       <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="E82"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>45510</v>
       </c>
       <c r="B83" t="s">
@@ -1677,10 +2292,9 @@
       <c r="D83" t="s">
         <v>8</v>
       </c>
-      <c r="E83"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>45510</v>
       </c>
       <c r="B84" t="s">
@@ -1692,10 +2306,9 @@
       <c r="D84" t="s">
         <v>7</v>
       </c>
-      <c r="E84"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>45510</v>
       </c>
       <c r="B85" t="s">
@@ -1707,10 +2320,9 @@
       <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="E85"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>45510</v>
       </c>
       <c r="B86" t="s">
@@ -1722,10 +2334,9 @@
       <c r="D86" t="s">
         <v>7</v>
       </c>
-      <c r="E86"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>45510</v>
       </c>
       <c r="B87" t="s">
@@ -1737,10 +2348,9 @@
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>45510</v>
       </c>
       <c r="B88" t="s">
@@ -1752,10 +2362,9 @@
       <c r="D88" t="s">
         <v>7</v>
       </c>
-      <c r="E88"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>45510</v>
       </c>
       <c r="B89" t="s">
@@ -1767,10 +2376,9 @@
       <c r="D89" t="s">
         <v>8</v>
       </c>
-      <c r="E89"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>45510</v>
       </c>
       <c r="B90" t="s">
@@ -1782,10 +2390,9 @@
       <c r="D90" t="s">
         <v>7</v>
       </c>
-      <c r="E90"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>45510</v>
       </c>
       <c r="B91" t="s">
@@ -1797,10 +2404,9 @@
       <c r="D91" t="s">
         <v>8</v>
       </c>
-      <c r="E91"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>45510</v>
       </c>
       <c r="B92" t="s">
@@ -1812,10 +2418,9 @@
       <c r="D92" t="s">
         <v>7</v>
       </c>
-      <c r="E92"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>45510</v>
       </c>
       <c r="B93" t="s">
@@ -1827,10 +2432,9 @@
       <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="E93"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>45510</v>
       </c>
       <c r="B94" t="s">
@@ -1842,10 +2446,9 @@
       <c r="D94" t="s">
         <v>7</v>
       </c>
-      <c r="E94"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>45510</v>
       </c>
       <c r="B95" t="s">
@@ -1857,10 +2460,9 @@
       <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>45510</v>
       </c>
       <c r="B96" t="s">
@@ -1872,10 +2474,9 @@
       <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="E96"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>45510</v>
       </c>
       <c r="B97" t="s">
@@ -1887,10 +2488,9 @@
       <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="E97"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>45512</v>
       </c>
       <c r="B98" t="s">
@@ -1902,10 +2502,9 @@
       <c r="D98" t="s">
         <v>7</v>
       </c>
-      <c r="E98"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>45512</v>
       </c>
       <c r="B99" t="s">
@@ -1917,10 +2516,9 @@
       <c r="D99" t="s">
         <v>8</v>
       </c>
-      <c r="E99"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>45512</v>
       </c>
       <c r="B100" t="s">
@@ -1932,10 +2530,9 @@
       <c r="D100" t="s">
         <v>7</v>
       </c>
-      <c r="E100"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>45512</v>
       </c>
       <c r="B101" t="s">
@@ -1947,10 +2544,9 @@
       <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="E101"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>45512</v>
       </c>
       <c r="B102" t="s">
@@ -1962,10 +2558,9 @@
       <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>45512</v>
       </c>
       <c r="B103" t="s">
@@ -1977,10 +2572,9 @@
       <c r="D103" t="s">
         <v>8</v>
       </c>
-      <c r="E103"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>45512</v>
       </c>
       <c r="B104" t="s">
@@ -1992,10 +2586,9 @@
       <c r="D104" t="s">
         <v>7</v>
       </c>
-      <c r="E104"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>45512</v>
       </c>
       <c r="B105" t="s">
@@ -2007,10 +2600,9 @@
       <c r="D105" t="s">
         <v>8</v>
       </c>
-      <c r="E105"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>45512</v>
       </c>
       <c r="B106" t="s">
@@ -2022,10 +2614,9 @@
       <c r="D106" t="s">
         <v>7</v>
       </c>
-      <c r="E106"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>45512</v>
       </c>
       <c r="B107" t="s">
@@ -2037,10 +2628,9 @@
       <c r="D107" t="s">
         <v>8</v>
       </c>
-      <c r="E107"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>45512</v>
       </c>
       <c r="B108" t="s">
@@ -2052,10 +2642,9 @@
       <c r="D108" t="s">
         <v>7</v>
       </c>
-      <c r="E108"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>45512</v>
       </c>
       <c r="B109" t="s">
@@ -2067,10 +2656,9 @@
       <c r="D109" t="s">
         <v>8</v>
       </c>
-      <c r="E109"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>45512</v>
       </c>
       <c r="B110" t="s">
@@ -2082,10 +2670,9 @@
       <c r="D110" t="s">
         <v>7</v>
       </c>
-      <c r="E110"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>45512</v>
       </c>
       <c r="B111" t="s">
@@ -2097,10 +2684,9 @@
       <c r="D111" t="s">
         <v>8</v>
       </c>
-      <c r="E111"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>45512</v>
       </c>
       <c r="B112" t="s">
@@ -2112,10 +2698,9 @@
       <c r="D112" t="s">
         <v>7</v>
       </c>
-      <c r="E112"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>45512</v>
       </c>
       <c r="B113" t="s">
@@ -2127,10 +2712,9 @@
       <c r="D113" t="s">
         <v>8</v>
       </c>
-      <c r="E113"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>45512</v>
       </c>
       <c r="B114" t="s">
@@ -2142,10 +2726,9 @@
       <c r="D114" t="s">
         <v>7</v>
       </c>
-      <c r="E114"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>45512</v>
       </c>
       <c r="B115" t="s">
@@ -2157,10 +2740,9 @@
       <c r="D115" t="s">
         <v>8</v>
       </c>
-      <c r="E115"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>45512</v>
       </c>
       <c r="B116" t="s">
@@ -2172,10 +2754,9 @@
       <c r="D116" t="s">
         <v>7</v>
       </c>
-      <c r="E116"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>45512</v>
       </c>
       <c r="B117" t="s">
@@ -2187,10 +2768,9 @@
       <c r="D117" t="s">
         <v>8</v>
       </c>
-      <c r="E117"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>45512</v>
       </c>
       <c r="B118" t="s">
@@ -2202,10 +2782,9 @@
       <c r="D118" t="s">
         <v>7</v>
       </c>
-      <c r="E118"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>45512</v>
       </c>
       <c r="B119" t="s">
@@ -2217,10 +2796,9 @@
       <c r="D119" t="s">
         <v>8</v>
       </c>
-      <c r="E119"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>45512</v>
       </c>
       <c r="B120" t="s">
@@ -2232,10 +2810,9 @@
       <c r="D120" t="s">
         <v>7</v>
       </c>
-      <c r="E120"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>45512</v>
       </c>
       <c r="B121" t="s">
@@ -2247,10 +2824,9 @@
       <c r="D121" t="s">
         <v>8</v>
       </c>
-      <c r="E121"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>45517</v>
       </c>
       <c r="B122" t="s">
@@ -2262,10 +2838,9 @@
       <c r="D122" t="s">
         <v>7</v>
       </c>
-      <c r="E122"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>45517</v>
       </c>
       <c r="B123" t="s">
@@ -2277,10 +2852,9 @@
       <c r="D123" t="s">
         <v>8</v>
       </c>
-      <c r="E123"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>45517</v>
       </c>
       <c r="B124" t="s">
@@ -2292,10 +2866,9 @@
       <c r="D124" t="s">
         <v>7</v>
       </c>
-      <c r="E124"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>45517</v>
       </c>
       <c r="B125" t="s">
@@ -2307,10 +2880,9 @@
       <c r="D125" t="s">
         <v>8</v>
       </c>
-      <c r="E125"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>45517</v>
       </c>
       <c r="B126" t="s">
@@ -2322,10 +2894,9 @@
       <c r="D126" t="s">
         <v>7</v>
       </c>
-      <c r="E126"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>45517</v>
       </c>
       <c r="B127" t="s">
@@ -2337,10 +2908,9 @@
       <c r="D127" t="s">
         <v>8</v>
       </c>
-      <c r="E127"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>45517</v>
       </c>
       <c r="B128" t="s">
@@ -2352,10 +2922,9 @@
       <c r="D128" t="s">
         <v>7</v>
       </c>
-      <c r="E128"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>45517</v>
       </c>
       <c r="B129" t="s">
@@ -2367,10 +2936,9 @@
       <c r="D129" t="s">
         <v>8</v>
       </c>
-      <c r="E129"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>45517</v>
       </c>
       <c r="B130" t="s">
@@ -2382,10 +2950,9 @@
       <c r="D130" t="s">
         <v>7</v>
       </c>
-      <c r="E130"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>45517</v>
       </c>
       <c r="B131" t="s">
@@ -2397,10 +2964,9 @@
       <c r="D131" t="s">
         <v>8</v>
       </c>
-      <c r="E131"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>45517</v>
       </c>
       <c r="B132" t="s">
@@ -2412,10 +2978,9 @@
       <c r="D132" t="s">
         <v>7</v>
       </c>
-      <c r="E132"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>45517</v>
       </c>
       <c r="B133" t="s">
@@ -2427,10 +2992,9 @@
       <c r="D133" t="s">
         <v>8</v>
       </c>
-      <c r="E133"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>45517</v>
       </c>
       <c r="B134" t="s">
@@ -2442,10 +3006,9 @@
       <c r="D134" t="s">
         <v>7</v>
       </c>
-      <c r="E134"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>45517</v>
       </c>
       <c r="B135" t="s">
@@ -2457,10 +3020,9 @@
       <c r="D135" t="s">
         <v>8</v>
       </c>
-      <c r="E135"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>45517</v>
       </c>
       <c r="B136" t="s">
@@ -2472,10 +3034,9 @@
       <c r="D136" t="s">
         <v>7</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>45517</v>
       </c>
       <c r="B137" t="s">
@@ -2487,10 +3048,9 @@
       <c r="D137" t="s">
         <v>8</v>
       </c>
-      <c r="E137"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>45517</v>
       </c>
       <c r="B138" t="s">
@@ -2502,10 +3062,9 @@
       <c r="D138" t="s">
         <v>7</v>
       </c>
-      <c r="E138"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>45517</v>
       </c>
       <c r="B139" t="s">
@@ -2517,10 +3076,9 @@
       <c r="D139" t="s">
         <v>8</v>
       </c>
-      <c r="E139"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>45517</v>
       </c>
       <c r="B140" t="s">
@@ -2532,10 +3090,9 @@
       <c r="D140" t="s">
         <v>7</v>
       </c>
-      <c r="E140"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>45517</v>
       </c>
       <c r="B141" t="s">
@@ -2547,10 +3104,9 @@
       <c r="D141" t="s">
         <v>8</v>
       </c>
-      <c r="E141"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>45517</v>
       </c>
       <c r="B142" t="s">
@@ -2562,10 +3118,9 @@
       <c r="D142" t="s">
         <v>7</v>
       </c>
-      <c r="E142"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>45517</v>
       </c>
       <c r="B143" t="s">
@@ -2577,10 +3132,9 @@
       <c r="D143" t="s">
         <v>8</v>
       </c>
-      <c r="E143"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>45517</v>
       </c>
       <c r="B144" t="s">
@@ -2592,10 +3146,9 @@
       <c r="D144" t="s">
         <v>7</v>
       </c>
-      <c r="E144"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>45517</v>
       </c>
       <c r="B145" t="s">
@@ -2607,10 +3160,9 @@
       <c r="D145" t="s">
         <v>8</v>
       </c>
-      <c r="E145"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>45524</v>
       </c>
       <c r="B146" t="s">
@@ -2622,10 +3174,9 @@
       <c r="D146" t="s">
         <v>7</v>
       </c>
-      <c r="E146"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>45524</v>
       </c>
       <c r="B147" t="s">
@@ -2637,10 +3188,9 @@
       <c r="D147" t="s">
         <v>8</v>
       </c>
-      <c r="E147"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>45524</v>
       </c>
       <c r="B148" t="s">
@@ -2652,10 +3202,9 @@
       <c r="D148" t="s">
         <v>7</v>
       </c>
-      <c r="E148"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>45524</v>
       </c>
       <c r="B149" t="s">
@@ -2667,10 +3216,9 @@
       <c r="D149" t="s">
         <v>8</v>
       </c>
-      <c r="E149"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>45524</v>
       </c>
       <c r="B150" t="s">
@@ -2682,10 +3230,9 @@
       <c r="D150" t="s">
         <v>7</v>
       </c>
-      <c r="E150"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>45524</v>
       </c>
       <c r="B151" t="s">
@@ -2697,10 +3244,9 @@
       <c r="D151" t="s">
         <v>8</v>
       </c>
-      <c r="E151"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>45524</v>
       </c>
       <c r="B152" t="s">
@@ -2712,10 +3258,9 @@
       <c r="D152" t="s">
         <v>7</v>
       </c>
-      <c r="E152"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>45524</v>
       </c>
       <c r="B153" t="s">
@@ -2727,10 +3272,9 @@
       <c r="D153" t="s">
         <v>8</v>
       </c>
-      <c r="E153"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>45524</v>
       </c>
       <c r="B154" t="s">
@@ -2742,10 +3286,9 @@
       <c r="D154" t="s">
         <v>7</v>
       </c>
-      <c r="E154"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>45524</v>
       </c>
       <c r="B155" t="s">
@@ -2757,10 +3300,9 @@
       <c r="D155" t="s">
         <v>8</v>
       </c>
-      <c r="E155"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>45524</v>
       </c>
       <c r="B156" t="s">
@@ -2772,10 +3314,9 @@
       <c r="D156" t="s">
         <v>7</v>
       </c>
-      <c r="E156"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>45524</v>
       </c>
       <c r="B157" t="s">
@@ -2787,10 +3328,9 @@
       <c r="D157" t="s">
         <v>8</v>
       </c>
-      <c r="E157"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>45524</v>
       </c>
       <c r="B158" t="s">
@@ -2802,10 +3342,9 @@
       <c r="D158" t="s">
         <v>7</v>
       </c>
-      <c r="E158"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>45524</v>
       </c>
       <c r="B159" t="s">
@@ -2817,10 +3356,9 @@
       <c r="D159" t="s">
         <v>8</v>
       </c>
-      <c r="E159"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>45524</v>
       </c>
       <c r="B160" t="s">
@@ -2832,10 +3370,9 @@
       <c r="D160" t="s">
         <v>7</v>
       </c>
-      <c r="E160"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>45524</v>
       </c>
       <c r="B161" t="s">
@@ -2847,10 +3384,9 @@
       <c r="D161" t="s">
         <v>8</v>
       </c>
-      <c r="E161"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>45524</v>
       </c>
       <c r="B162" t="s">
@@ -2862,10 +3398,9 @@
       <c r="D162" t="s">
         <v>7</v>
       </c>
-      <c r="E162"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>45524</v>
       </c>
       <c r="B163" t="s">
@@ -2877,10 +3412,9 @@
       <c r="D163" t="s">
         <v>8</v>
       </c>
-      <c r="E163"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>45524</v>
       </c>
       <c r="B164" t="s">
@@ -2892,10 +3426,9 @@
       <c r="D164" t="s">
         <v>7</v>
       </c>
-      <c r="E164"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>45524</v>
       </c>
       <c r="B165" t="s">
@@ -2907,10 +3440,9 @@
       <c r="D165" t="s">
         <v>8</v>
       </c>
-      <c r="E165"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>45524</v>
       </c>
       <c r="B166" t="s">
@@ -2922,10 +3454,9 @@
       <c r="D166" t="s">
         <v>7</v>
       </c>
-      <c r="E166"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>45524</v>
       </c>
       <c r="B167" t="s">
@@ -2937,10 +3468,9 @@
       <c r="D167" t="s">
         <v>8</v>
       </c>
-      <c r="E167"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>45524</v>
       </c>
       <c r="B168" t="s">
@@ -2952,10 +3482,9 @@
       <c r="D168" t="s">
         <v>7</v>
       </c>
-      <c r="E168"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>45524</v>
       </c>
       <c r="B169" t="s">
@@ -2967,10 +3496,9 @@
       <c r="D169" t="s">
         <v>8</v>
       </c>
-      <c r="E169"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>45526</v>
       </c>
       <c r="B170" t="s">
@@ -2982,10 +3510,9 @@
       <c r="D170" t="s">
         <v>7</v>
       </c>
-      <c r="E170"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>45526</v>
       </c>
       <c r="B171" t="s">
@@ -2997,10 +3524,9 @@
       <c r="D171" t="s">
         <v>8</v>
       </c>
-      <c r="E171"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>45526</v>
       </c>
       <c r="B172" t="s">
@@ -3012,10 +3538,9 @@
       <c r="D172" t="s">
         <v>7</v>
       </c>
-      <c r="E172"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>45526</v>
       </c>
       <c r="B173" t="s">
@@ -3027,10 +3552,9 @@
       <c r="D173" t="s">
         <v>8</v>
       </c>
-      <c r="E173"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>45526</v>
       </c>
       <c r="B174" t="s">
@@ -3042,10 +3566,9 @@
       <c r="D174" t="s">
         <v>7</v>
       </c>
-      <c r="E174"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>45526</v>
       </c>
       <c r="B175" t="s">
@@ -3057,10 +3580,9 @@
       <c r="D175" t="s">
         <v>8</v>
       </c>
-      <c r="E175"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>45526</v>
       </c>
       <c r="B176" t="s">
@@ -3072,10 +3594,9 @@
       <c r="D176" t="s">
         <v>7</v>
       </c>
-      <c r="E176"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>45526</v>
       </c>
       <c r="B177" t="s">
@@ -3087,10 +3608,9 @@
       <c r="D177" t="s">
         <v>8</v>
       </c>
-      <c r="E177"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>45526</v>
       </c>
       <c r="B178" t="s">
@@ -3102,10 +3622,9 @@
       <c r="D178" t="s">
         <v>7</v>
       </c>
-      <c r="E178"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>45526</v>
       </c>
       <c r="B179" t="s">
@@ -3117,10 +3636,9 @@
       <c r="D179" t="s">
         <v>8</v>
       </c>
-      <c r="E179"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>45526</v>
       </c>
       <c r="B180" t="s">
@@ -3132,10 +3650,9 @@
       <c r="D180" t="s">
         <v>7</v>
       </c>
-      <c r="E180"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>45526</v>
       </c>
       <c r="B181" t="s">
@@ -3147,10 +3664,9 @@
       <c r="D181" t="s">
         <v>8</v>
       </c>
-      <c r="E181"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>45531</v>
       </c>
       <c r="B182" t="s">
@@ -3162,10 +3678,9 @@
       <c r="D182" t="s">
         <v>7</v>
       </c>
-      <c r="E182"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>45531</v>
       </c>
       <c r="B183" t="s">
@@ -3177,10 +3692,9 @@
       <c r="D183" t="s">
         <v>8</v>
       </c>
-      <c r="E183"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>45531</v>
       </c>
       <c r="B184" t="s">
@@ -3192,10 +3706,9 @@
       <c r="D184" t="s">
         <v>7</v>
       </c>
-      <c r="E184"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>45531</v>
       </c>
       <c r="B185" t="s">
@@ -3207,10 +3720,9 @@
       <c r="D185" t="s">
         <v>8</v>
       </c>
-      <c r="E185"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>45531</v>
       </c>
       <c r="B186" t="s">
@@ -3222,10 +3734,9 @@
       <c r="D186" t="s">
         <v>7</v>
       </c>
-      <c r="E186"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>45531</v>
       </c>
       <c r="B187" t="s">
@@ -3237,10 +3748,9 @@
       <c r="D187" t="s">
         <v>8</v>
       </c>
-      <c r="E187"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>45531</v>
       </c>
       <c r="B188" t="s">
@@ -3252,10 +3762,9 @@
       <c r="D188" t="s">
         <v>7</v>
       </c>
-      <c r="E188"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>45531</v>
       </c>
       <c r="B189" t="s">
@@ -3267,10 +3776,9 @@
       <c r="D189" t="s">
         <v>8</v>
       </c>
-      <c r="E189"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>45531</v>
       </c>
       <c r="B190" t="s">
@@ -3282,10 +3790,9 @@
       <c r="D190" t="s">
         <v>7</v>
       </c>
-      <c r="E190"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>45531</v>
       </c>
       <c r="B191" t="s">
@@ -3297,10 +3804,9 @@
       <c r="D191" t="s">
         <v>8</v>
       </c>
-      <c r="E191"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>45531</v>
       </c>
       <c r="B192" t="s">
@@ -3312,10 +3818,9 @@
       <c r="D192" t="s">
         <v>7</v>
       </c>
-      <c r="E192"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>45531</v>
       </c>
       <c r="B193" t="s">
@@ -3327,10 +3832,9 @@
       <c r="D193" t="s">
         <v>8</v>
       </c>
-      <c r="E193"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>45538</v>
       </c>
       <c r="B194" t="s">
@@ -3342,10 +3846,9 @@
       <c r="D194" t="s">
         <v>7</v>
       </c>
-      <c r="E194"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>45538</v>
       </c>
       <c r="B195" t="s">
@@ -3357,10 +3860,9 @@
       <c r="D195" t="s">
         <v>8</v>
       </c>
-      <c r="E195"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>45538</v>
       </c>
       <c r="B196" t="s">
@@ -3372,10 +3874,9 @@
       <c r="D196" t="s">
         <v>7</v>
       </c>
-      <c r="E196"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>45538</v>
       </c>
       <c r="B197" t="s">
@@ -3387,10 +3888,9 @@
       <c r="D197" t="s">
         <v>8</v>
       </c>
-      <c r="E197"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>45538</v>
       </c>
       <c r="B198" t="s">
@@ -3402,10 +3902,9 @@
       <c r="D198" t="s">
         <v>7</v>
       </c>
-      <c r="E198"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>45538</v>
       </c>
       <c r="B199" t="s">
@@ -3417,10 +3916,9 @@
       <c r="D199" t="s">
         <v>8</v>
       </c>
-      <c r="E199"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>45538</v>
       </c>
       <c r="B200" t="s">
@@ -3432,10 +3930,9 @@
       <c r="D200" t="s">
         <v>7</v>
       </c>
-      <c r="E200"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>45538</v>
       </c>
       <c r="B201" t="s">
@@ -3447,10 +3944,9 @@
       <c r="D201" t="s">
         <v>8</v>
       </c>
-      <c r="E201"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>45538</v>
       </c>
       <c r="B202" t="s">
@@ -3462,10 +3958,9 @@
       <c r="D202" t="s">
         <v>7</v>
       </c>
-      <c r="E202"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>45538</v>
       </c>
       <c r="B203" t="s">
@@ -3477,10 +3972,9 @@
       <c r="D203" t="s">
         <v>8</v>
       </c>
-      <c r="E203"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>45538</v>
       </c>
       <c r="B204" t="s">
@@ -3492,10 +3986,9 @@
       <c r="D204" t="s">
         <v>7</v>
       </c>
-      <c r="E204"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>45538</v>
       </c>
       <c r="B205" t="s">
@@ -3507,10 +4000,9 @@
       <c r="D205" t="s">
         <v>8</v>
       </c>
-      <c r="E205"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>45587</v>
       </c>
       <c r="B206" t="s">
@@ -3522,10 +4014,9 @@
       <c r="D206" t="s">
         <v>7</v>
       </c>
-      <c r="E206"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>45587</v>
       </c>
       <c r="B207" t="s">
@@ -3537,10 +4028,9 @@
       <c r="D207" t="s">
         <v>8</v>
       </c>
-      <c r="E207"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>45587</v>
       </c>
       <c r="B208" t="s">
@@ -3552,10 +4042,9 @@
       <c r="D208" t="s">
         <v>7</v>
       </c>
-      <c r="E208"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>45587</v>
       </c>
       <c r="B209" t="s">
@@ -3567,10 +4056,9 @@
       <c r="D209" t="s">
         <v>8</v>
       </c>
-      <c r="E209"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>45587</v>
       </c>
       <c r="B210" t="s">
@@ -3582,10 +4070,9 @@
       <c r="D210" t="s">
         <v>7</v>
       </c>
-      <c r="E210"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>45587</v>
       </c>
       <c r="B211" t="s">
@@ -3597,10 +4084,9 @@
       <c r="D211" t="s">
         <v>8</v>
       </c>
-      <c r="E211"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>45587</v>
       </c>
       <c r="B212" t="s">
@@ -3612,10 +4098,9 @@
       <c r="D212" t="s">
         <v>7</v>
       </c>
-      <c r="E212"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>45587</v>
       </c>
       <c r="B213" t="s">
@@ -3627,10 +4112,9 @@
       <c r="D213" t="s">
         <v>8</v>
       </c>
-      <c r="E213"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>45587</v>
       </c>
       <c r="B214" t="s">
@@ -3642,10 +4126,9 @@
       <c r="D214" t="s">
         <v>7</v>
       </c>
-      <c r="E214"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>45587</v>
       </c>
       <c r="B215" t="s">
@@ -3657,10 +4140,9 @@
       <c r="D215" t="s">
         <v>8</v>
       </c>
-      <c r="E215"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>45587</v>
       </c>
       <c r="B216" t="s">
@@ -3672,10 +4154,9 @@
       <c r="D216" t="s">
         <v>7</v>
       </c>
-      <c r="E216"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>45587</v>
       </c>
       <c r="B217" t="s">
@@ -3687,10 +4168,9 @@
       <c r="D217" t="s">
         <v>8</v>
       </c>
-      <c r="E217"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>45587</v>
       </c>
       <c r="B218" t="s">
@@ -3702,10 +4182,9 @@
       <c r="D218" t="s">
         <v>7</v>
       </c>
-      <c r="E218"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>45587</v>
       </c>
       <c r="B219" t="s">
@@ -3717,10 +4196,9 @@
       <c r="D219" t="s">
         <v>8</v>
       </c>
-      <c r="E219"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>45587</v>
       </c>
       <c r="B220" t="s">
@@ -3732,10 +4210,9 @@
       <c r="D220" t="s">
         <v>7</v>
       </c>
-      <c r="E220"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>45587</v>
       </c>
       <c r="B221" t="s">
@@ -3747,10 +4224,9 @@
       <c r="D221" t="s">
         <v>8</v>
       </c>
-      <c r="E221"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>45587</v>
       </c>
       <c r="B222" t="s">
@@ -3762,10 +4238,9 @@
       <c r="D222" t="s">
         <v>7</v>
       </c>
-      <c r="E222"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>45587</v>
       </c>
       <c r="B223" t="s">
@@ -3777,10 +4252,9 @@
       <c r="D223" t="s">
         <v>8</v>
       </c>
-      <c r="E223"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>45587</v>
       </c>
       <c r="B224" t="s">
@@ -3792,10 +4266,9 @@
       <c r="D224" t="s">
         <v>7</v>
       </c>
-      <c r="E224"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>45587</v>
       </c>
       <c r="B225" t="s">
@@ -3807,10 +4280,9 @@
       <c r="D225" t="s">
         <v>8</v>
       </c>
-      <c r="E225"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>45587</v>
       </c>
       <c r="B226" t="s">
@@ -3822,10 +4294,9 @@
       <c r="D226" t="s">
         <v>7</v>
       </c>
-      <c r="E226"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>45587</v>
       </c>
       <c r="B227" t="s">
@@ -3837,10 +4308,9 @@
       <c r="D227" t="s">
         <v>8</v>
       </c>
-      <c r="E227"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>45587</v>
       </c>
       <c r="B228" t="s">
@@ -3852,10 +4322,9 @@
       <c r="D228" t="s">
         <v>7</v>
       </c>
-      <c r="E228"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>45587</v>
       </c>
       <c r="B229" t="s">
@@ -3867,10 +4336,9 @@
       <c r="D229" t="s">
         <v>8</v>
       </c>
-      <c r="E229"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>45595</v>
       </c>
       <c r="B230" t="s">
@@ -3882,10 +4350,9 @@
       <c r="D230" t="s">
         <v>7</v>
       </c>
-      <c r="E230"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>45595</v>
       </c>
       <c r="B231" t="s">
@@ -3897,10 +4364,9 @@
       <c r="D231" t="s">
         <v>8</v>
       </c>
-      <c r="E231"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>45595</v>
       </c>
       <c r="B232" t="s">
@@ -3912,10 +4378,9 @@
       <c r="D232" t="s">
         <v>7</v>
       </c>
-      <c r="E232"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>45595</v>
       </c>
       <c r="B233" t="s">
@@ -3927,10 +4392,9 @@
       <c r="D233" t="s">
         <v>8</v>
       </c>
-      <c r="E233"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>45595</v>
       </c>
       <c r="B234" t="s">
@@ -3942,10 +4406,9 @@
       <c r="D234" t="s">
         <v>7</v>
       </c>
-      <c r="E234"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>45595</v>
       </c>
       <c r="B235" t="s">
@@ -3957,10 +4420,9 @@
       <c r="D235" t="s">
         <v>8</v>
       </c>
-      <c r="E235"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>45595</v>
       </c>
       <c r="B236" t="s">
@@ -3972,10 +4434,9 @@
       <c r="D236" t="s">
         <v>7</v>
       </c>
-      <c r="E236"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>45595</v>
       </c>
       <c r="B237" t="s">
@@ -3987,10 +4448,9 @@
       <c r="D237" t="s">
         <v>8</v>
       </c>
-      <c r="E237"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>45595</v>
       </c>
       <c r="B238" t="s">
@@ -4002,10 +4462,9 @@
       <c r="D238" t="s">
         <v>7</v>
       </c>
-      <c r="E238"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>45595</v>
       </c>
       <c r="B239" t="s">
@@ -4017,10 +4476,9 @@
       <c r="D239" t="s">
         <v>8</v>
       </c>
-      <c r="E239"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>45595</v>
       </c>
       <c r="B240" t="s">
@@ -4032,10 +4490,9 @@
       <c r="D240" t="s">
         <v>7</v>
       </c>
-      <c r="E240"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>45595</v>
       </c>
       <c r="B241" t="s">
@@ -4047,10 +4504,9 @@
       <c r="D241" t="s">
         <v>8</v>
       </c>
-      <c r="E241"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>45595</v>
       </c>
       <c r="B242" t="s">
@@ -4062,10 +4518,9 @@
       <c r="D242" t="s">
         <v>7</v>
       </c>
-      <c r="E242"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>45595</v>
       </c>
       <c r="B243" t="s">
@@ -4077,10 +4532,9 @@
       <c r="D243" t="s">
         <v>8</v>
       </c>
-      <c r="E243"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>45595</v>
       </c>
       <c r="B244" t="s">
@@ -4092,10 +4546,9 @@
       <c r="D244" t="s">
         <v>7</v>
       </c>
-      <c r="E244"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>45595</v>
       </c>
       <c r="B245" t="s">
@@ -4107,10 +4560,9 @@
       <c r="D245" t="s">
         <v>8</v>
       </c>
-      <c r="E245"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>45595</v>
       </c>
       <c r="B246" t="s">
@@ -4122,10 +4574,9 @@
       <c r="D246" t="s">
         <v>7</v>
       </c>
-      <c r="E246"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>45595</v>
       </c>
       <c r="B247" t="s">
@@ -4137,10 +4588,9 @@
       <c r="D247" t="s">
         <v>8</v>
       </c>
-      <c r="E247"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>45595</v>
       </c>
       <c r="B248" t="s">
@@ -4152,10 +4602,9 @@
       <c r="D248" t="s">
         <v>7</v>
       </c>
-      <c r="E248"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>45595</v>
       </c>
       <c r="B249" t="s">
@@ -4167,10 +4616,9 @@
       <c r="D249" t="s">
         <v>8</v>
       </c>
-      <c r="E249"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>45595</v>
       </c>
       <c r="B250" t="s">
@@ -4182,10 +4630,9 @@
       <c r="D250" t="s">
         <v>7</v>
       </c>
-      <c r="E250"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>45595</v>
       </c>
       <c r="B251" t="s">
@@ -4197,10 +4644,9 @@
       <c r="D251" t="s">
         <v>8</v>
       </c>
-      <c r="E251"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>45595</v>
       </c>
       <c r="B252" t="s">
@@ -4212,10 +4658,9 @@
       <c r="D252" t="s">
         <v>7</v>
       </c>
-      <c r="E252"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>45595</v>
       </c>
       <c r="B253" t="s">
@@ -4227,10 +4672,9 @@
       <c r="D253" t="s">
         <v>8</v>
       </c>
-      <c r="E253"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>45615</v>
       </c>
       <c r="B254" t="s">
@@ -4242,10 +4686,9 @@
       <c r="D254" t="s">
         <v>7</v>
       </c>
-      <c r="E254"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>45615</v>
       </c>
       <c r="B255" t="s">
@@ -4257,10 +4700,9 @@
       <c r="D255" t="s">
         <v>7</v>
       </c>
-      <c r="E255"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>45615</v>
       </c>
       <c r="B256" t="s">
@@ -4272,10 +4714,9 @@
       <c r="D256" t="s">
         <v>7</v>
       </c>
-      <c r="E256"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>45615</v>
       </c>
       <c r="B257" t="s">
@@ -4287,10 +4728,9 @@
       <c r="D257" t="s">
         <v>7</v>
       </c>
-      <c r="E257"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>45615</v>
       </c>
       <c r="B258" t="s">
@@ -4302,10 +4742,9 @@
       <c r="D258" t="s">
         <v>7</v>
       </c>
-      <c r="E258"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>45615</v>
       </c>
       <c r="B259" t="s">
@@ -4317,10 +4756,9 @@
       <c r="D259" t="s">
         <v>7</v>
       </c>
-      <c r="E259"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>45615</v>
       </c>
       <c r="B260" t="s">
@@ -4332,10 +4770,9 @@
       <c r="D260" t="s">
         <v>7</v>
       </c>
-      <c r="E260"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>45615</v>
       </c>
       <c r="B261" t="s">
@@ -4347,10 +4784,9 @@
       <c r="D261" t="s">
         <v>7</v>
       </c>
-      <c r="E261"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>45615</v>
       </c>
       <c r="B262" t="s">
@@ -4362,10 +4798,9 @@
       <c r="D262" t="s">
         <v>7</v>
       </c>
-      <c r="E262"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>45615</v>
       </c>
       <c r="B263" t="s">
@@ -4377,10 +4812,9 @@
       <c r="D263" t="s">
         <v>7</v>
       </c>
-      <c r="E263"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>45615</v>
       </c>
       <c r="B264" t="s">
@@ -4392,10 +4826,9 @@
       <c r="D264" t="s">
         <v>7</v>
       </c>
-      <c r="E264"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>45621</v>
       </c>
       <c r="B265" t="s">
@@ -4407,10 +4840,9 @@
       <c r="D265" t="s">
         <v>7</v>
       </c>
-      <c r="E265"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>45621</v>
       </c>
       <c r="B266" t="s">
@@ -4422,10 +4854,9 @@
       <c r="D266" t="s">
         <v>7</v>
       </c>
-      <c r="E266"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>45621</v>
       </c>
       <c r="B267" t="s">
@@ -4437,10 +4868,9 @@
       <c r="D267" t="s">
         <v>7</v>
       </c>
-      <c r="E267"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>45621</v>
       </c>
       <c r="B268" t="s">
@@ -4452,10 +4882,9 @@
       <c r="D268" t="s">
         <v>7</v>
       </c>
-      <c r="E268"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>45621</v>
       </c>
       <c r="B269" t="s">
@@ -4467,10 +4896,9 @@
       <c r="D269" t="s">
         <v>7</v>
       </c>
-      <c r="E269"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>45621</v>
       </c>
       <c r="B270" t="s">
@@ -4482,10 +4910,9 @@
       <c r="D270" t="s">
         <v>7</v>
       </c>
-      <c r="E270"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>45621</v>
       </c>
       <c r="B271" t="s">
@@ -4497,10 +4924,9 @@
       <c r="D271" t="s">
         <v>7</v>
       </c>
-      <c r="E271"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>45621</v>
       </c>
       <c r="B272" t="s">
@@ -4512,10 +4938,9 @@
       <c r="D272" t="s">
         <v>7</v>
       </c>
-      <c r="E272"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>45621</v>
       </c>
       <c r="B273" t="s">
@@ -4527,10 +4952,9 @@
       <c r="D273" t="s">
         <v>7</v>
       </c>
-      <c r="E273"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>45621</v>
       </c>
       <c r="B274" t="s">
@@ -4542,10 +4966,9 @@
       <c r="D274" t="s">
         <v>7</v>
       </c>
-      <c r="E274"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>45621</v>
       </c>
       <c r="B275" t="s">
@@ -4557,10 +4980,9 @@
       <c r="D275" t="s">
         <v>7</v>
       </c>
-      <c r="E275"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>45621</v>
       </c>
       <c r="B276" t="s">
@@ -4572,10 +4994,9 @@
       <c r="D276" t="s">
         <v>7</v>
       </c>
-      <c r="E276"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>45643</v>
       </c>
       <c r="B277" t="s">
@@ -4587,10 +5008,12 @@
       <c r="D277" t="s">
         <v>7</v>
       </c>
-      <c r="E277"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="E277" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>45643</v>
       </c>
       <c r="B278" t="s">
@@ -4602,10 +5025,12 @@
       <c r="D278" t="s">
         <v>7</v>
       </c>
-      <c r="E278"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="E278" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>45643</v>
       </c>
       <c r="B279" t="s">
@@ -4617,10 +5042,12 @@
       <c r="D279" t="s">
         <v>7</v>
       </c>
-      <c r="E279"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="E279" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>45643</v>
       </c>
       <c r="B280" t="s">
@@ -4632,10 +5059,12 @@
       <c r="D280" t="s">
         <v>7</v>
       </c>
-      <c r="E280"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="E280" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>45643</v>
       </c>
       <c r="B281" t="s">
@@ -4647,10 +5076,12 @@
       <c r="D281" t="s">
         <v>7</v>
       </c>
-      <c r="E281"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="E281" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>45643</v>
       </c>
       <c r="B282" t="s">
@@ -4662,10 +5093,12 @@
       <c r="D282" t="s">
         <v>7</v>
       </c>
-      <c r="E282"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="E282" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>45643</v>
       </c>
       <c r="B283" t="s">
@@ -4677,10 +5110,12 @@
       <c r="D283" t="s">
         <v>7</v>
       </c>
-      <c r="E283"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="E283" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>45643</v>
       </c>
       <c r="B284" t="s">
@@ -4692,10 +5127,12 @@
       <c r="D284" t="s">
         <v>7</v>
       </c>
-      <c r="E284"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="E284" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>45643</v>
       </c>
       <c r="B285" t="s">
@@ -4707,10 +5144,12 @@
       <c r="D285" t="s">
         <v>7</v>
       </c>
-      <c r="E285"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="E285" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>45643</v>
       </c>
       <c r="B286" t="s">
@@ -4722,10 +5161,12 @@
       <c r="D286" t="s">
         <v>7</v>
       </c>
-      <c r="E286"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="E286" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>45643</v>
       </c>
       <c r="B287" t="s">
@@ -4737,10 +5178,12 @@
       <c r="D287" t="s">
         <v>7</v>
       </c>
-      <c r="E287"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="E287" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>45643</v>
       </c>
       <c r="B288" t="s">
@@ -4752,10 +5195,12 @@
       <c r="D288" t="s">
         <v>7</v>
       </c>
-      <c r="E288"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="E288" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>45649</v>
       </c>
       <c r="B289" t="s">
@@ -4767,10 +5212,12 @@
       <c r="D289" t="s">
         <v>7</v>
       </c>
-      <c r="E289"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="E289" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>45649</v>
       </c>
       <c r="B290" t="s">
@@ -4782,10 +5229,12 @@
       <c r="D290" t="s">
         <v>7</v>
       </c>
-      <c r="E290"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="E290" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>45649</v>
       </c>
       <c r="B291" t="s">
@@ -4797,10 +5246,12 @@
       <c r="D291" t="s">
         <v>7</v>
       </c>
-      <c r="E291"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="E291" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>45649</v>
       </c>
       <c r="B292" t="s">
@@ -4812,10 +5263,12 @@
       <c r="D292" t="s">
         <v>7</v>
       </c>
-      <c r="E292"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="E292" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>45649</v>
       </c>
       <c r="B293" t="s">
@@ -4827,10 +5280,12 @@
       <c r="D293" t="s">
         <v>7</v>
       </c>
-      <c r="E293"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="E293" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>45649</v>
       </c>
       <c r="B294" t="s">
@@ -4842,10 +5297,12 @@
       <c r="D294" t="s">
         <v>7</v>
       </c>
-      <c r="E294"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="E294" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>45649</v>
       </c>
       <c r="B295" t="s">
@@ -4857,10 +5314,12 @@
       <c r="D295" t="s">
         <v>7</v>
       </c>
-      <c r="E295"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="E295" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>45649</v>
       </c>
       <c r="B296" t="s">
@@ -4872,10 +5331,12 @@
       <c r="D296" t="s">
         <v>7</v>
       </c>
-      <c r="E296"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="E296" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>45649</v>
       </c>
       <c r="B297" t="s">
@@ -4887,10 +5348,12 @@
       <c r="D297" t="s">
         <v>7</v>
       </c>
-      <c r="E297"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="E297" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>45649</v>
       </c>
       <c r="B298" t="s">
@@ -4902,10 +5365,12 @@
       <c r="D298" t="s">
         <v>7</v>
       </c>
-      <c r="E298"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="E298" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>45649</v>
       </c>
       <c r="B299" t="s">
@@ -4917,10 +5382,12 @@
       <c r="D299" t="s">
         <v>7</v>
       </c>
-      <c r="E299"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="E299" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>45649</v>
       </c>
       <c r="B300" t="s">
@@ -4932,10 +5399,12 @@
       <c r="D300" t="s">
         <v>7</v>
       </c>
-      <c r="E300"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="E300" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>45659</v>
       </c>
       <c r="B301" t="s">
@@ -4947,10 +5416,12 @@
       <c r="D301" t="s">
         <v>7</v>
       </c>
-      <c r="E301"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="E301">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>45659</v>
       </c>
       <c r="B302" t="s">
@@ -4962,10 +5433,12 @@
       <c r="D302" t="s">
         <v>7</v>
       </c>
-      <c r="E302"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="E302">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>45659</v>
       </c>
       <c r="B303" t="s">
@@ -4977,10 +5450,12 @@
       <c r="D303" t="s">
         <v>7</v>
       </c>
-      <c r="E303"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="E303">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>45659</v>
       </c>
       <c r="B304" t="s">
@@ -4992,10 +5467,12 @@
       <c r="D304" t="s">
         <v>7</v>
       </c>
-      <c r="E304"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="E304" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>45659</v>
       </c>
       <c r="B305" t="s">
@@ -5007,10 +5484,12 @@
       <c r="D305" t="s">
         <v>7</v>
       </c>
-      <c r="E305"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="E305" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>45659</v>
       </c>
       <c r="B306" t="s">
@@ -5022,10 +5501,12 @@
       <c r="D306" t="s">
         <v>7</v>
       </c>
-      <c r="E306"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="E306">
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>45659</v>
       </c>
       <c r="B307" t="s">
@@ -5037,10 +5518,12 @@
       <c r="D307" t="s">
         <v>7</v>
       </c>
-      <c r="E307"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="E307">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>45659</v>
       </c>
       <c r="B308" t="s">
@@ -5052,10 +5535,12 @@
       <c r="D308" t="s">
         <v>7</v>
       </c>
-      <c r="E308"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="E308">
+        <v>12.77</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>45659</v>
       </c>
       <c r="B309" t="s">
@@ -5067,10 +5552,12 @@
       <c r="D309" t="s">
         <v>7</v>
       </c>
-      <c r="E309"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="E309">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>45659</v>
       </c>
       <c r="B310" t="s">
@@ -5082,10 +5569,12 @@
       <c r="D310" t="s">
         <v>7</v>
       </c>
-      <c r="E310"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="E310">
+        <v>17.309999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>45659</v>
       </c>
       <c r="B311" t="s">
@@ -5097,10 +5586,12 @@
       <c r="D311" t="s">
         <v>7</v>
       </c>
-      <c r="E311"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="E311">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>45659</v>
       </c>
       <c r="B312" t="s">
@@ -5112,10 +5603,12 @@
       <c r="D312" t="s">
         <v>7</v>
       </c>
-      <c r="E312"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="E312">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>45665</v>
       </c>
       <c r="B313" t="s">
@@ -5127,10 +5620,12 @@
       <c r="D313" t="s">
         <v>7</v>
       </c>
-      <c r="E313"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="E313">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>45665</v>
       </c>
       <c r="B314" t="s">
@@ -5142,10 +5637,12 @@
       <c r="D314" t="s">
         <v>7</v>
       </c>
-      <c r="E314"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="E314">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>45665</v>
       </c>
       <c r="B315" t="s">
@@ -5157,10 +5654,12 @@
       <c r="D315" t="s">
         <v>7</v>
       </c>
-      <c r="E315"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="E315">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>45665</v>
       </c>
       <c r="B316" t="s">
@@ -5172,10 +5671,12 @@
       <c r="D316" t="s">
         <v>7</v>
       </c>
-      <c r="E316"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="E316">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
         <v>45665</v>
       </c>
       <c r="B317" t="s">
@@ -5187,10 +5688,12 @@
       <c r="D317" t="s">
         <v>7</v>
       </c>
-      <c r="E317"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="E317">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>45673</v>
       </c>
       <c r="B318" t="s">
@@ -5202,10 +5705,12 @@
       <c r="D318" t="s">
         <v>7</v>
       </c>
-      <c r="E318"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="E318">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
         <v>45673</v>
       </c>
       <c r="B319" t="s">
@@ -5217,10 +5722,12 @@
       <c r="D319" t="s">
         <v>7</v>
       </c>
-      <c r="E319"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="E319">
+        <v>33.17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>45673</v>
       </c>
       <c r="B320" t="s">
@@ -5232,10 +5739,12 @@
       <c r="D320" t="s">
         <v>7</v>
       </c>
-      <c r="E320"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="E320">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>45673</v>
       </c>
       <c r="B321" t="s">
@@ -5247,10 +5756,12 @@
       <c r="D321" t="s">
         <v>7</v>
       </c>
-      <c r="E321"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="E321">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
         <v>45673</v>
       </c>
       <c r="B322" t="s">
@@ -5262,10 +5773,12 @@
       <c r="D322" t="s">
         <v>7</v>
       </c>
-      <c r="E322"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="E322">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
         <v>45673</v>
       </c>
       <c r="B323" t="s">
@@ -5277,10 +5790,12 @@
       <c r="D323" t="s">
         <v>7</v>
       </c>
-      <c r="E323"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="E323">
+        <v>29.22</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
         <v>45673</v>
       </c>
       <c r="B324" t="s">
@@ -5292,10 +5807,12 @@
       <c r="D324" t="s">
         <v>7</v>
       </c>
-      <c r="E324"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="E324">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
         <v>45673</v>
       </c>
       <c r="B325" t="s">
@@ -5307,10 +5824,12 @@
       <c r="D325" t="s">
         <v>7</v>
       </c>
-      <c r="E325"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="E325">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
         <v>45673</v>
       </c>
       <c r="B326" t="s">
@@ -5322,10 +5841,12 @@
       <c r="D326" t="s">
         <v>7</v>
       </c>
-      <c r="E326"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="E326">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>45673</v>
       </c>
       <c r="B327" t="s">
@@ -5337,10 +5858,12 @@
       <c r="D327" t="s">
         <v>7</v>
       </c>
-      <c r="E327"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="E327">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>45673</v>
       </c>
       <c r="B328" t="s">
@@ -5352,10 +5875,12 @@
       <c r="D328" t="s">
         <v>7</v>
       </c>
-      <c r="E328"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+      <c r="E328">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>45673</v>
       </c>
       <c r="B329" t="s">
@@ -5367,10 +5892,12 @@
       <c r="D329" t="s">
         <v>7</v>
       </c>
-      <c r="E329"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+      <c r="E329">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
         <v>45680</v>
       </c>
       <c r="B330" t="s">
@@ -5382,10 +5909,12 @@
       <c r="D330" t="s">
         <v>7</v>
       </c>
-      <c r="E330"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+      <c r="E330">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
         <v>45680</v>
       </c>
       <c r="B331" t="s">
@@ -5397,10 +5926,12 @@
       <c r="D331" t="s">
         <v>7</v>
       </c>
-      <c r="E331"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+      <c r="E331" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
         <v>45680</v>
       </c>
       <c r="B332" t="s">
@@ -5412,10 +5943,12 @@
       <c r="D332" t="s">
         <v>7</v>
       </c>
-      <c r="E332"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+      <c r="E332">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
         <v>45680</v>
       </c>
       <c r="B333" t="s">
@@ -5427,10 +5960,12 @@
       <c r="D333" t="s">
         <v>7</v>
       </c>
-      <c r="E333"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+      <c r="E333">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
         <v>45680</v>
       </c>
       <c r="B334" t="s">
@@ -5442,10 +5977,12 @@
       <c r="D334" t="s">
         <v>7</v>
       </c>
-      <c r="E334"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+      <c r="E334">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
         <v>45680</v>
       </c>
       <c r="B335" t="s">
@@ -5457,10 +5994,12 @@
       <c r="D335" t="s">
         <v>7</v>
       </c>
-      <c r="E335"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+      <c r="E335">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
         <v>45680</v>
       </c>
       <c r="B336" t="s">
@@ -5472,10 +6011,12 @@
       <c r="D336" t="s">
         <v>7</v>
       </c>
-      <c r="E336"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+      <c r="E336">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
         <v>45680</v>
       </c>
       <c r="B337" t="s">
@@ -5487,10 +6028,12 @@
       <c r="D337" t="s">
         <v>7</v>
       </c>
-      <c r="E337"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+      <c r="E337" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
         <v>45680</v>
       </c>
       <c r="B338" t="s">
@@ -5502,10 +6045,12 @@
       <c r="D338" t="s">
         <v>7</v>
       </c>
-      <c r="E338"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+      <c r="E338" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
         <v>45685</v>
       </c>
       <c r="B339" t="s">
@@ -5517,10 +6062,12 @@
       <c r="D339" t="s">
         <v>7</v>
       </c>
-      <c r="E339"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+      <c r="E339">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
         <v>45685</v>
       </c>
       <c r="B340" t="s">
@@ -5532,10 +6079,12 @@
       <c r="D340" t="s">
         <v>7</v>
       </c>
-      <c r="E340"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+      <c r="E340">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
         <v>45685</v>
       </c>
       <c r="B341" t="s">
@@ -5547,10 +6096,12 @@
       <c r="D341" t="s">
         <v>7</v>
       </c>
-      <c r="E341"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+      <c r="E341">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
         <v>45685</v>
       </c>
       <c r="B342" t="s">
@@ -5562,10 +6113,12 @@
       <c r="D342" t="s">
         <v>7</v>
       </c>
-      <c r="E342"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="E342" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
         <v>45685</v>
       </c>
       <c r="B343" t="s">
@@ -5577,10 +6130,12 @@
       <c r="D343" t="s">
         <v>7</v>
       </c>
-      <c r="E343"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+      <c r="E343" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
         <v>45685</v>
       </c>
       <c r="B344" t="s">
@@ -5592,10 +6147,12 @@
       <c r="D344" t="s">
         <v>7</v>
       </c>
-      <c r="E344"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+      <c r="E344">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
         <v>45685</v>
       </c>
       <c r="B345" t="s">
@@ -5607,10 +6164,12 @@
       <c r="D345" t="s">
         <v>7</v>
       </c>
-      <c r="E345"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+      <c r="E345" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
         <v>45685</v>
       </c>
       <c r="B346" t="s">
@@ -5622,10 +6181,12 @@
       <c r="D346" t="s">
         <v>7</v>
       </c>
-      <c r="E346"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+      <c r="E346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
         <v>45685</v>
       </c>
       <c r="B347" t="s">
@@ -5637,10 +6198,12 @@
       <c r="D347" t="s">
         <v>7</v>
       </c>
-      <c r="E347"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+      <c r="E347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
         <v>45685</v>
       </c>
       <c r="B348" t="s">
@@ -5652,10 +6215,12 @@
       <c r="D348" t="s">
         <v>7</v>
       </c>
-      <c r="E348"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="E348" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
         <v>45685</v>
       </c>
       <c r="B349" t="s">
@@ -5667,10 +6232,12 @@
       <c r="D349" t="s">
         <v>7</v>
       </c>
-      <c r="E349"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="E349" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
         <v>45685</v>
       </c>
       <c r="B350" t="s">
@@ -5682,10 +6249,12 @@
       <c r="D350" t="s">
         <v>7</v>
       </c>
-      <c r="E350"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+      <c r="E350" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
         <v>45692</v>
       </c>
       <c r="B351" t="s">
@@ -5697,10 +6266,12 @@
       <c r="D351" t="s">
         <v>7</v>
       </c>
-      <c r="E351"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+      <c r="E351" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
         <v>45692</v>
       </c>
       <c r="B352" t="s">
@@ -5712,10 +6283,12 @@
       <c r="D352" t="s">
         <v>7</v>
       </c>
-      <c r="E352"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+      <c r="E352" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>45692</v>
       </c>
       <c r="B353" t="s">
@@ -5727,10 +6300,12 @@
       <c r="D353" t="s">
         <v>7</v>
       </c>
-      <c r="E353"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="E353" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
         <v>45692</v>
       </c>
       <c r="B354" t="s">
@@ -5742,10 +6317,12 @@
       <c r="D354" t="s">
         <v>7</v>
       </c>
-      <c r="E354"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+      <c r="E354" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
         <v>45692</v>
       </c>
       <c r="B355" t="s">
@@ -5757,10 +6334,12 @@
       <c r="D355" t="s">
         <v>7</v>
       </c>
-      <c r="E355"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+      <c r="E355" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
         <v>45692</v>
       </c>
       <c r="B356" t="s">
@@ -5772,10 +6351,12 @@
       <c r="D356" t="s">
         <v>7</v>
       </c>
-      <c r="E356"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="E356" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
         <v>45692</v>
       </c>
       <c r="B357" t="s">
@@ -5787,10 +6368,12 @@
       <c r="D357" t="s">
         <v>7</v>
       </c>
-      <c r="E357"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+      <c r="E357" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
         <v>45692</v>
       </c>
       <c r="B358" t="s">
@@ -5802,10 +6385,12 @@
       <c r="D358" t="s">
         <v>7</v>
       </c>
-      <c r="E358"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+      <c r="E358" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
         <v>45692</v>
       </c>
       <c r="B359" t="s">
@@ -5817,10 +6402,12 @@
       <c r="D359" t="s">
         <v>7</v>
       </c>
-      <c r="E359"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+      <c r="E359" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
         <v>45692</v>
       </c>
       <c r="B360" t="s">
@@ -5832,10 +6419,12 @@
       <c r="D360" t="s">
         <v>7</v>
       </c>
-      <c r="E360"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+      <c r="E360" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
         <v>45692</v>
       </c>
       <c r="B361" t="s">
@@ -5847,10 +6436,12 @@
       <c r="D361" t="s">
         <v>7</v>
       </c>
-      <c r="E361"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+      <c r="E361" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
         <v>45692</v>
       </c>
       <c r="B362" t="s">
@@ -5862,10 +6453,12 @@
       <c r="D362" t="s">
         <v>7</v>
       </c>
-      <c r="E362"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+      <c r="E362" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
         <v>45698</v>
       </c>
       <c r="B363" t="s">
@@ -5877,10 +6470,12 @@
       <c r="D363" t="s">
         <v>7</v>
       </c>
-      <c r="E363"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+      <c r="E363" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
         <v>45698</v>
       </c>
       <c r="B364" t="s">
@@ -5892,10 +6487,12 @@
       <c r="D364" t="s">
         <v>7</v>
       </c>
-      <c r="E364"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+      <c r="E364" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
         <v>45698</v>
       </c>
       <c r="B365" t="s">
@@ -5907,10 +6504,12 @@
       <c r="D365" t="s">
         <v>7</v>
       </c>
-      <c r="E365"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+      <c r="E365" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
         <v>45698</v>
       </c>
       <c r="B366" t="s">
@@ -5922,10 +6521,12 @@
       <c r="D366" t="s">
         <v>7</v>
       </c>
-      <c r="E366"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+      <c r="E366" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
         <v>45698</v>
       </c>
       <c r="B367" t="s">
@@ -5937,10 +6538,12 @@
       <c r="D367" t="s">
         <v>7</v>
       </c>
-      <c r="E367"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+      <c r="E367" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
         <v>45698</v>
       </c>
       <c r="B368" t="s">
@@ -5952,10 +6555,12 @@
       <c r="D368" t="s">
         <v>7</v>
       </c>
-      <c r="E368"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+      <c r="E368" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
         <v>45698</v>
       </c>
       <c r="B369" t="s">
@@ -5967,10 +6572,12 @@
       <c r="D369" t="s">
         <v>7</v>
       </c>
-      <c r="E369"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+      <c r="E369" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
         <v>45698</v>
       </c>
       <c r="B370" t="s">
@@ -5982,10 +6589,12 @@
       <c r="D370" t="s">
         <v>7</v>
       </c>
-      <c r="E370"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+      <c r="E370" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
         <v>45698</v>
       </c>
       <c r="B371" t="s">
@@ -5997,10 +6606,12 @@
       <c r="D371" t="s">
         <v>7</v>
       </c>
-      <c r="E371"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+      <c r="E371" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
         <v>45698</v>
       </c>
       <c r="B372" t="s">
@@ -6012,10 +6623,12 @@
       <c r="D372" t="s">
         <v>7</v>
       </c>
-      <c r="E372"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+      <c r="E372" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>45698</v>
       </c>
       <c r="B373" t="s">
@@ -6027,10 +6640,12 @@
       <c r="D373" t="s">
         <v>7</v>
       </c>
-      <c r="E373"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+      <c r="E373" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
         <v>45698</v>
       </c>
       <c r="B374" t="s">
@@ -6042,10 +6657,12 @@
       <c r="D374" t="s">
         <v>7</v>
       </c>
-      <c r="E374"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+      <c r="E374" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
         <v>45713</v>
       </c>
       <c r="B375" t="s">
@@ -6057,10 +6674,12 @@
       <c r="D375" t="s">
         <v>7</v>
       </c>
-      <c r="E375"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+      <c r="E375" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
         <v>45713</v>
       </c>
       <c r="B376" t="s">
@@ -6072,10 +6691,12 @@
       <c r="D376" t="s">
         <v>7</v>
       </c>
-      <c r="E376"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+      <c r="E376" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
         <v>45713</v>
       </c>
       <c r="B377" t="s">
@@ -6087,10 +6708,12 @@
       <c r="D377" t="s">
         <v>7</v>
       </c>
-      <c r="E377"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+      <c r="E377">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
         <v>45713</v>
       </c>
       <c r="B378" t="s">
@@ -6102,10 +6725,12 @@
       <c r="D378" t="s">
         <v>7</v>
       </c>
-      <c r="E378"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+      <c r="E378" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
         <v>45713</v>
       </c>
       <c r="B379" t="s">
@@ -6117,10 +6742,12 @@
       <c r="D379" t="s">
         <v>7</v>
       </c>
-      <c r="E379"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+      <c r="E379" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
         <v>45713</v>
       </c>
       <c r="B380" t="s">
@@ -6132,10 +6759,12 @@
       <c r="D380" t="s">
         <v>7</v>
       </c>
-      <c r="E380"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+      <c r="E380" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
         <v>45713</v>
       </c>
       <c r="B381" t="s">
@@ -6147,10 +6776,12 @@
       <c r="D381" t="s">
         <v>7</v>
       </c>
-      <c r="E381"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+      <c r="E381" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
         <v>45713</v>
       </c>
       <c r="B382" t="s">
@@ -6162,10 +6793,12 @@
       <c r="D382" t="s">
         <v>7</v>
       </c>
-      <c r="E382"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+      <c r="E382" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
         <v>45713</v>
       </c>
       <c r="B383" t="s">
@@ -6177,10 +6810,12 @@
       <c r="D383" t="s">
         <v>7</v>
       </c>
-      <c r="E383"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+      <c r="E383">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
         <v>45713</v>
       </c>
       <c r="B384" t="s">
@@ -6192,10 +6827,12 @@
       <c r="D384" t="s">
         <v>7</v>
       </c>
-      <c r="E384"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+      <c r="E384" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>45713</v>
       </c>
       <c r="B385" t="s">
@@ -6207,10 +6844,12 @@
       <c r="D385" t="s">
         <v>7</v>
       </c>
-      <c r="E385"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+      <c r="E385" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
         <v>45713</v>
       </c>
       <c r="B386" t="s">
@@ -6222,10 +6861,12 @@
       <c r="D386" t="s">
         <v>7</v>
       </c>
-      <c r="E386"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+      <c r="E386" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
         <v>45722</v>
       </c>
       <c r="B387" t="s">
@@ -6237,10 +6878,12 @@
       <c r="D387" t="s">
         <v>7</v>
       </c>
-      <c r="E387"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+      <c r="E387" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
         <v>45722</v>
       </c>
       <c r="B388" t="s">
@@ -6252,10 +6895,12 @@
       <c r="D388" t="s">
         <v>7</v>
       </c>
-      <c r="E388"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
+      <c r="E388" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>45722</v>
       </c>
       <c r="B389" t="s">
@@ -6267,10 +6912,12 @@
       <c r="D389" t="s">
         <v>7</v>
       </c>
-      <c r="E389"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
+      <c r="E389" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>45722</v>
       </c>
       <c r="B390" t="s">
@@ -6282,10 +6929,12 @@
       <c r="D390" t="s">
         <v>7</v>
       </c>
-      <c r="E390"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
+      <c r="E390" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
         <v>45722</v>
       </c>
       <c r="B391" t="s">
@@ -6297,10 +6946,12 @@
       <c r="D391" t="s">
         <v>7</v>
       </c>
-      <c r="E391"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
+      <c r="E391" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
         <v>45722</v>
       </c>
       <c r="B392" t="s">
@@ -6312,10 +6963,12 @@
       <c r="D392" t="s">
         <v>7</v>
       </c>
-      <c r="E392"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
+      <c r="E392" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
         <v>45722</v>
       </c>
       <c r="B393" t="s">
@@ -6327,10 +6980,12 @@
       <c r="D393" t="s">
         <v>7</v>
       </c>
-      <c r="E393"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
+      <c r="E393" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
         <v>45722</v>
       </c>
       <c r="B394" t="s">
@@ -6342,10 +6997,12 @@
       <c r="D394" t="s">
         <v>7</v>
       </c>
-      <c r="E394"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
+      <c r="E394" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
         <v>45722</v>
       </c>
       <c r="B395" t="s">
@@ -6357,10 +7014,12 @@
       <c r="D395" t="s">
         <v>7</v>
       </c>
-      <c r="E395"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
+      <c r="E395" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
         <v>45722</v>
       </c>
       <c r="B396" t="s">
@@ -6372,10 +7031,12 @@
       <c r="D396" t="s">
         <v>7</v>
       </c>
-      <c r="E396"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
+      <c r="E396" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
         <v>45722</v>
       </c>
       <c r="B397" t="s">
@@ -6387,10 +7048,12 @@
       <c r="D397" t="s">
         <v>7</v>
       </c>
-      <c r="E397"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
+      <c r="E397" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
         <v>45722</v>
       </c>
       <c r="B398" t="s">
@@ -6402,10 +7065,12 @@
       <c r="D398" t="s">
         <v>7</v>
       </c>
-      <c r="E398"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
+      <c r="E398" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
         <v>45729</v>
       </c>
       <c r="B399" t="s">
@@ -6417,10 +7082,12 @@
       <c r="D399" t="s">
         <v>7</v>
       </c>
-      <c r="E399"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
+      <c r="E399" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
         <v>45729</v>
       </c>
       <c r="B400" t="s">
@@ -6432,10 +7099,12 @@
       <c r="D400" t="s">
         <v>7</v>
       </c>
-      <c r="E400"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
+      <c r="E400" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
         <v>45729</v>
       </c>
       <c r="B401" t="s">
@@ -6447,10 +7116,12 @@
       <c r="D401" t="s">
         <v>7</v>
       </c>
-      <c r="E401"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
+      <c r="E401" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
         <v>45729</v>
       </c>
       <c r="B402" t="s">
@@ -6462,10 +7133,12 @@
       <c r="D402" t="s">
         <v>7</v>
       </c>
-      <c r="E402"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
+      <c r="E402" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
         <v>45729</v>
       </c>
       <c r="B403" t="s">
@@ -6477,10 +7150,12 @@
       <c r="D403" t="s">
         <v>7</v>
       </c>
-      <c r="E403"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
+      <c r="E403" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
         <v>45729</v>
       </c>
       <c r="B404" t="s">
@@ -6492,10 +7167,12 @@
       <c r="D404" t="s">
         <v>7</v>
       </c>
-      <c r="E404"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
+      <c r="E404" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
         <v>45729</v>
       </c>
       <c r="B405" t="s">
@@ -6507,10 +7184,12 @@
       <c r="D405" t="s">
         <v>7</v>
       </c>
-      <c r="E405"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
+      <c r="E405" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
         <v>45729</v>
       </c>
       <c r="B406" t="s">
@@ -6522,10 +7201,12 @@
       <c r="D406" t="s">
         <v>7</v>
       </c>
-      <c r="E406"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
+      <c r="E406" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
         <v>45729</v>
       </c>
       <c r="B407" t="s">
@@ -6537,10 +7218,12 @@
       <c r="D407" t="s">
         <v>7</v>
       </c>
-      <c r="E407"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
+      <c r="E407" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
         <v>45729</v>
       </c>
       <c r="B408" t="s">
@@ -6552,10 +7235,12 @@
       <c r="D408" t="s">
         <v>7</v>
       </c>
-      <c r="E408"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
+      <c r="E408" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
         <v>45729</v>
       </c>
       <c r="B409" t="s">
@@ -6567,10 +7252,12 @@
       <c r="D409" t="s">
         <v>7</v>
       </c>
-      <c r="E409"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
+      <c r="E409" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
         <v>45729</v>
       </c>
       <c r="B410" t="s">
@@ -6582,10 +7269,12 @@
       <c r="D410" t="s">
         <v>7</v>
       </c>
-      <c r="E410"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
+      <c r="E410" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
         <v>45735</v>
       </c>
       <c r="B411" t="s">
@@ -6597,10 +7286,12 @@
       <c r="D411" t="s">
         <v>7</v>
       </c>
-      <c r="E411"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
+      <c r="E411" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
         <v>45735</v>
       </c>
       <c r="B412" t="s">
@@ -6612,10 +7303,12 @@
       <c r="D412" t="s">
         <v>7</v>
       </c>
-      <c r="E412"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
+      <c r="E412" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
         <v>45735</v>
       </c>
       <c r="B413" t="s">
@@ -6627,10 +7320,12 @@
       <c r="D413" t="s">
         <v>7</v>
       </c>
-      <c r="E413"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
+      <c r="E413" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>45735</v>
       </c>
       <c r="B414" t="s">
@@ -6642,10 +7337,12 @@
       <c r="D414" t="s">
         <v>7</v>
       </c>
-      <c r="E414"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
+      <c r="E414" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
         <v>45735</v>
       </c>
       <c r="B415" t="s">
@@ -6657,10 +7354,12 @@
       <c r="D415" t="s">
         <v>7</v>
       </c>
-      <c r="E415"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
+      <c r="E415" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
         <v>45735</v>
       </c>
       <c r="B416" t="s">
@@ -6672,10 +7371,12 @@
       <c r="D416" t="s">
         <v>7</v>
       </c>
-      <c r="E416"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
+      <c r="E416" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
         <v>45735</v>
       </c>
       <c r="B417" t="s">
@@ -6687,10 +7388,12 @@
       <c r="D417" t="s">
         <v>7</v>
       </c>
-      <c r="E417"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
+      <c r="E417" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
         <v>45735</v>
       </c>
       <c r="B418" t="s">
@@ -6702,10 +7405,12 @@
       <c r="D418" t="s">
         <v>7</v>
       </c>
-      <c r="E418"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
+      <c r="E418" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>45735</v>
       </c>
       <c r="B419" t="s">
@@ -6717,10 +7422,12 @@
       <c r="D419" t="s">
         <v>7</v>
       </c>
-      <c r="E419"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
+      <c r="E419" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
         <v>45735</v>
       </c>
       <c r="B420" t="s">
@@ -6732,10 +7439,12 @@
       <c r="D420" t="s">
         <v>7</v>
       </c>
-      <c r="E420"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
+      <c r="E420" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>45735</v>
       </c>
       <c r="B421" t="s">
@@ -6747,10 +7456,12 @@
       <c r="D421" t="s">
         <v>7</v>
       </c>
-      <c r="E421"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
+      <c r="E421" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
         <v>45735</v>
       </c>
       <c r="B422" t="s">
@@ -6762,10 +7473,12 @@
       <c r="D422" t="s">
         <v>7</v>
       </c>
-      <c r="E422"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
+      <c r="E422" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
         <v>45740</v>
       </c>
       <c r="B423" t="s">
@@ -6777,10 +7490,12 @@
       <c r="D423" t="s">
         <v>7</v>
       </c>
-      <c r="E423"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
+      <c r="E423">
+        <v>-10.33</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
         <v>45740</v>
       </c>
       <c r="B424" t="s">
@@ -6792,10 +7507,12 @@
       <c r="D424" t="s">
         <v>7</v>
       </c>
-      <c r="E424"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
+      <c r="E424" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
         <v>45740</v>
       </c>
       <c r="B425" t="s">
@@ -6807,10 +7524,12 @@
       <c r="D425" t="s">
         <v>7</v>
       </c>
-      <c r="E425"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
+      <c r="E425" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
         <v>45740</v>
       </c>
       <c r="B426" t="s">
@@ -6822,10 +7541,12 @@
       <c r="D426" t="s">
         <v>7</v>
       </c>
-      <c r="E426"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
+      <c r="E426" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
         <v>45740</v>
       </c>
       <c r="B427" t="s">
@@ -6837,10 +7558,12 @@
       <c r="D427" t="s">
         <v>7</v>
       </c>
-      <c r="E427"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
+      <c r="E427" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
         <v>45740</v>
       </c>
       <c r="B428" t="s">
@@ -6852,10 +7575,12 @@
       <c r="D428" t="s">
         <v>7</v>
       </c>
-      <c r="E428"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
+      <c r="E428" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
         <v>45740</v>
       </c>
       <c r="B429" t="s">
@@ -6867,10 +7592,12 @@
       <c r="D429" t="s">
         <v>7</v>
       </c>
-      <c r="E429"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
+      <c r="E429" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
         <v>45740</v>
       </c>
       <c r="B430" t="s">
@@ -6882,10 +7609,12 @@
       <c r="D430" t="s">
         <v>7</v>
       </c>
-      <c r="E430"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
+      <c r="E430" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
         <v>45740</v>
       </c>
       <c r="B431" t="s">
@@ -6897,10 +7626,12 @@
       <c r="D431" t="s">
         <v>7</v>
       </c>
-      <c r="E431"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
+      <c r="E431" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
         <v>45740</v>
       </c>
       <c r="B432" t="s">
@@ -6912,10 +7643,12 @@
       <c r="D432" t="s">
         <v>7</v>
       </c>
-      <c r="E432"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
+      <c r="E432" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
         <v>45740</v>
       </c>
       <c r="B433" t="s">
@@ -6927,10 +7660,12 @@
       <c r="D433" t="s">
         <v>7</v>
       </c>
-      <c r="E433"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
+      <c r="E433">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
         <v>45740</v>
       </c>
       <c r="B434" t="s">
@@ -6942,10 +7677,12 @@
       <c r="D434" t="s">
         <v>7</v>
       </c>
-      <c r="E434"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
+      <c r="E434" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
         <v>45770</v>
       </c>
       <c r="B435" t="s">
@@ -6957,10 +7694,12 @@
       <c r="D435" t="s">
         <v>7</v>
       </c>
-      <c r="E435"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
+      <c r="E435" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
         <v>45770</v>
       </c>
       <c r="B436" t="s">
@@ -6972,10 +7711,12 @@
       <c r="D436" t="s">
         <v>7</v>
       </c>
-      <c r="E436"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
+      <c r="E436" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
         <v>45770</v>
       </c>
       <c r="B437" t="s">
@@ -6987,10 +7728,12 @@
       <c r="D437" t="s">
         <v>7</v>
       </c>
-      <c r="E437"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
+      <c r="E437" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
         <v>45770</v>
       </c>
       <c r="B438" t="s">
@@ -7002,10 +7745,12 @@
       <c r="D438" t="s">
         <v>7</v>
       </c>
-      <c r="E438"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
+      <c r="E438" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
         <v>45770</v>
       </c>
       <c r="B439" t="s">
@@ -7017,10 +7762,12 @@
       <c r="D439" t="s">
         <v>7</v>
       </c>
-      <c r="E439"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
+      <c r="E439" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
         <v>45770</v>
       </c>
       <c r="B440" t="s">
@@ -7032,10 +7779,12 @@
       <c r="D440" t="s">
         <v>7</v>
       </c>
-      <c r="E440"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
+      <c r="E440" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
         <v>45770</v>
       </c>
       <c r="B441" t="s">
@@ -7047,10 +7796,12 @@
       <c r="D441" t="s">
         <v>7</v>
       </c>
-      <c r="E441"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
+      <c r="E441" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
         <v>45770</v>
       </c>
       <c r="B442" t="s">
@@ -7062,10 +7813,12 @@
       <c r="D442" t="s">
         <v>7</v>
       </c>
-      <c r="E442"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
+      <c r="E442" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
         <v>45770</v>
       </c>
       <c r="B443" t="s">
@@ -7077,10 +7830,12 @@
       <c r="D443" t="s">
         <v>7</v>
       </c>
-      <c r="E443"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
+      <c r="E443" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
         <v>45770</v>
       </c>
       <c r="B444" t="s">
@@ -7092,10 +7847,12 @@
       <c r="D444" t="s">
         <v>7</v>
       </c>
-      <c r="E444"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
+      <c r="E444" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
         <v>45770</v>
       </c>
       <c r="B445" t="s">
@@ -7107,10 +7864,12 @@
       <c r="D445" t="s">
         <v>7</v>
       </c>
-      <c r="E445"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
+      <c r="E445" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
         <v>45770</v>
       </c>
       <c r="B446" t="s">
@@ -7122,10 +7881,12 @@
       <c r="D446" t="s">
         <v>7</v>
       </c>
-      <c r="E446"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
+      <c r="E446" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
         <v>45776</v>
       </c>
       <c r="B447" t="s">
@@ -7137,10 +7898,12 @@
       <c r="D447" t="s">
         <v>7</v>
       </c>
-      <c r="E447"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
+      <c r="E447" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
         <v>45776</v>
       </c>
       <c r="B448" t="s">
@@ -7152,10 +7915,12 @@
       <c r="D448" t="s">
         <v>7</v>
       </c>
-      <c r="E448"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
+      <c r="E448" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
         <v>45776</v>
       </c>
       <c r="B449" t="s">
@@ -7167,10 +7932,12 @@
       <c r="D449" t="s">
         <v>7</v>
       </c>
-      <c r="E449"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
+      <c r="E449" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
         <v>45776</v>
       </c>
       <c r="B450" t="s">
@@ -7182,10 +7949,12 @@
       <c r="D450" t="s">
         <v>7</v>
       </c>
-      <c r="E450"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
+      <c r="E450" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
         <v>45776</v>
       </c>
       <c r="B451" t="s">
@@ -7197,10 +7966,12 @@
       <c r="D451" t="s">
         <v>7</v>
       </c>
-      <c r="E451"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
+      <c r="E451" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
         <v>45776</v>
       </c>
       <c r="B452" t="s">
@@ -7212,10 +7983,12 @@
       <c r="D452" t="s">
         <v>7</v>
       </c>
-      <c r="E452"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
+      <c r="E452" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
         <v>45776</v>
       </c>
       <c r="B453" t="s">
@@ -7227,10 +8000,12 @@
       <c r="D453" t="s">
         <v>7</v>
       </c>
-      <c r="E453"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
+      <c r="E453" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
         <v>45776</v>
       </c>
       <c r="B454" t="s">
@@ -7242,10 +8017,12 @@
       <c r="D454" t="s">
         <v>7</v>
       </c>
-      <c r="E454"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
+      <c r="E454" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
         <v>45776</v>
       </c>
       <c r="B455" t="s">
@@ -7257,10 +8034,12 @@
       <c r="D455" t="s">
         <v>7</v>
       </c>
-      <c r="E455"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
+      <c r="E455" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
         <v>45776</v>
       </c>
       <c r="B456" t="s">
@@ -7272,10 +8051,12 @@
       <c r="D456" t="s">
         <v>7</v>
       </c>
-      <c r="E456"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
+      <c r="E456" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
         <v>45776</v>
       </c>
       <c r="B457" t="s">
@@ -7287,10 +8068,12 @@
       <c r="D457" t="s">
         <v>7</v>
       </c>
-      <c r="E457"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
+      <c r="E457" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
         <v>45776</v>
       </c>
       <c r="B458" t="s">
@@ -7302,10 +8085,12 @@
       <c r="D458" t="s">
         <v>7</v>
       </c>
-      <c r="E458"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
+      <c r="E458" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
         <v>45783</v>
       </c>
       <c r="B459" t="s">
@@ -7317,10 +8102,12 @@
       <c r="D459" t="s">
         <v>7</v>
       </c>
-      <c r="E459"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
+      <c r="E459" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
         <v>45783</v>
       </c>
       <c r="B460" t="s">
@@ -7332,10 +8119,12 @@
       <c r="D460" t="s">
         <v>7</v>
       </c>
-      <c r="E460"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
+      <c r="E460" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
         <v>45783</v>
       </c>
       <c r="B461" t="s">
@@ -7347,10 +8136,12 @@
       <c r="D461" t="s">
         <v>7</v>
       </c>
-      <c r="E461"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
+      <c r="E461" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
         <v>45783</v>
       </c>
       <c r="B462" t="s">
@@ -7362,10 +8153,12 @@
       <c r="D462" t="s">
         <v>7</v>
       </c>
-      <c r="E462"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
+      <c r="E462" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
         <v>45783</v>
       </c>
       <c r="B463" t="s">
@@ -7377,10 +8170,12 @@
       <c r="D463" t="s">
         <v>7</v>
       </c>
-      <c r="E463"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
+      <c r="E463" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
         <v>45783</v>
       </c>
       <c r="B464" t="s">
@@ -7392,10 +8187,12 @@
       <c r="D464" t="s">
         <v>7</v>
       </c>
-      <c r="E464"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
+      <c r="E464" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
         <v>45783</v>
       </c>
       <c r="B465" t="s">
@@ -7407,10 +8204,12 @@
       <c r="D465" t="s">
         <v>7</v>
       </c>
-      <c r="E465"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
+      <c r="E465" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
         <v>45783</v>
       </c>
       <c r="B466" t="s">
@@ -7422,10 +8221,12 @@
       <c r="D466" t="s">
         <v>7</v>
       </c>
-      <c r="E466"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
+      <c r="E466" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
         <v>45783</v>
       </c>
       <c r="B467" t="s">
@@ -7437,10 +8238,12 @@
       <c r="D467" t="s">
         <v>7</v>
       </c>
-      <c r="E467"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
+      <c r="E467" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
         <v>45783</v>
       </c>
       <c r="B468" t="s">
@@ -7452,10 +8255,12 @@
       <c r="D468" t="s">
         <v>7</v>
       </c>
-      <c r="E468"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
+      <c r="E468" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
         <v>45783</v>
       </c>
       <c r="B469" t="s">
@@ -7467,10 +8272,12 @@
       <c r="D469" t="s">
         <v>7</v>
       </c>
-      <c r="E469"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
+      <c r="E469" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
         <v>45783</v>
       </c>
       <c r="B470" t="s">
@@ -7482,10 +8289,12 @@
       <c r="D470" t="s">
         <v>7</v>
       </c>
-      <c r="E470"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
+      <c r="E470" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
         <v>45783</v>
       </c>
       <c r="B471" t="s">
@@ -7497,10 +8306,12 @@
       <c r="D471" t="s">
         <v>7</v>
       </c>
-      <c r="E471"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
+      <c r="E471" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
         <v>45783</v>
       </c>
       <c r="B472" t="s">
@@ -7512,10 +8323,12 @@
       <c r="D472" t="s">
         <v>7</v>
       </c>
-      <c r="E472"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
+      <c r="E472" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
         <v>45783</v>
       </c>
       <c r="B473" t="s">
@@ -7527,10 +8340,12 @@
       <c r="D473" t="s">
         <v>7</v>
       </c>
-      <c r="E473"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
+      <c r="E473" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
         <v>45783</v>
       </c>
       <c r="B474" t="s">
@@ -7542,10 +8357,12 @@
       <c r="D474" t="s">
         <v>7</v>
       </c>
-      <c r="E474"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
+      <c r="E474">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
         <v>45783</v>
       </c>
       <c r="B475" t="s">
@@ -7557,10 +8374,12 @@
       <c r="D475" t="s">
         <v>7</v>
       </c>
-      <c r="E475"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
+      <c r="E475" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
         <v>45783</v>
       </c>
       <c r="B476" t="s">
@@ -7572,10 +8391,12 @@
       <c r="D476" t="s">
         <v>7</v>
       </c>
-      <c r="E476"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
+      <c r="E476" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
         <v>45790</v>
       </c>
       <c r="B477" t="s">
@@ -7587,10 +8408,12 @@
       <c r="D477" t="s">
         <v>7</v>
       </c>
-      <c r="E477"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
+      <c r="E477">
+        <v>-4.01</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
         <v>45790</v>
       </c>
       <c r="B478" t="s">
@@ -7602,10 +8425,12 @@
       <c r="D478" t="s">
         <v>7</v>
       </c>
-      <c r="E478"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
+      <c r="E478">
+        <v>-1.77</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
         <v>45790</v>
       </c>
       <c r="B479" t="s">
@@ -7617,10 +8442,12 @@
       <c r="D479" t="s">
         <v>7</v>
       </c>
-      <c r="E479"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
+      <c r="E479">
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
         <v>45790</v>
       </c>
       <c r="B480" t="s">
@@ -7632,10 +8459,12 @@
       <c r="D480" t="s">
         <v>7</v>
       </c>
-      <c r="E480"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
+      <c r="E480">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
         <v>45790</v>
       </c>
       <c r="B481" t="s">
@@ -7647,10 +8476,12 @@
       <c r="D481" t="s">
         <v>7</v>
       </c>
-      <c r="E481"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
+      <c r="E481">
+        <v>-4.34</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
         <v>45790</v>
       </c>
       <c r="B482" t="s">
@@ -7662,10 +8493,12 @@
       <c r="D482" t="s">
         <v>7</v>
       </c>
-      <c r="E482"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
+      <c r="E482">
+        <v>-4.51</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
         <v>45790</v>
       </c>
       <c r="B483" t="s">
@@ -7677,10 +8510,12 @@
       <c r="D483" t="s">
         <v>7</v>
       </c>
-      <c r="E483"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
+      <c r="E483" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
         <v>45790</v>
       </c>
       <c r="B484" t="s">
@@ -7692,10 +8527,12 @@
       <c r="D484" t="s">
         <v>7</v>
       </c>
-      <c r="E484"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
+      <c r="E484" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
         <v>45790</v>
       </c>
       <c r="B485" t="s">
@@ -7707,10 +8544,12 @@
       <c r="D485" t="s">
         <v>7</v>
       </c>
-      <c r="E485"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
+      <c r="E485" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
         <v>45790</v>
       </c>
       <c r="B486" t="s">
@@ -7722,10 +8561,12 @@
       <c r="D486" t="s">
         <v>7</v>
       </c>
-      <c r="E486"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
+      <c r="E486" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
         <v>45790</v>
       </c>
       <c r="B487" t="s">
@@ -7737,10 +8578,12 @@
       <c r="D487" t="s">
         <v>7</v>
       </c>
-      <c r="E487"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
+      <c r="E487">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
         <v>45790</v>
       </c>
       <c r="B488" t="s">
@@ -7752,10 +8595,12 @@
       <c r="D488" t="s">
         <v>7</v>
       </c>
-      <c r="E488"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
+      <c r="E488" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
         <v>45790</v>
       </c>
       <c r="B489" t="s">
@@ -7767,10 +8612,12 @@
       <c r="D489" t="s">
         <v>7</v>
       </c>
-      <c r="E489"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
+      <c r="E489" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
         <v>45790</v>
       </c>
       <c r="B490" t="s">
@@ -7782,10 +8629,12 @@
       <c r="D490" t="s">
         <v>7</v>
       </c>
-      <c r="E490"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
+      <c r="E490" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
         <v>45790</v>
       </c>
       <c r="B491" t="s">
@@ -7797,10 +8646,12 @@
       <c r="D491" t="s">
         <v>7</v>
       </c>
-      <c r="E491"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
+      <c r="E491" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
         <v>45790</v>
       </c>
       <c r="B492" t="s">
@@ -7812,10 +8663,12 @@
       <c r="D492" t="s">
         <v>7</v>
       </c>
-      <c r="E492"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
+      <c r="E492" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
         <v>45790</v>
       </c>
       <c r="B493" t="s">
@@ -7827,10 +8680,12 @@
       <c r="D493" t="s">
         <v>7</v>
       </c>
-      <c r="E493"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
+      <c r="E493" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
         <v>45790</v>
       </c>
       <c r="B494" t="s">
@@ -7842,10 +8697,12 @@
       <c r="D494" t="s">
         <v>7</v>
       </c>
-      <c r="E494"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
+      <c r="E494" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
         <v>45791</v>
       </c>
       <c r="B495" t="s">
@@ -7857,10 +8714,12 @@
       <c r="D495" t="s">
         <v>7</v>
       </c>
-      <c r="E495"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
+      <c r="E495" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
         <v>45791</v>
       </c>
       <c r="B496" t="s">
@@ -7872,10 +8731,12 @@
       <c r="D496" t="s">
         <v>7</v>
       </c>
-      <c r="E496"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
+      <c r="E496" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
         <v>45791</v>
       </c>
       <c r="B497" t="s">
@@ -7887,10 +8748,12 @@
       <c r="D497" t="s">
         <v>7</v>
       </c>
-      <c r="E497"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
+      <c r="E497" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
         <v>45791</v>
       </c>
       <c r="B498" t="s">
@@ -7902,10 +8765,12 @@
       <c r="D498" t="s">
         <v>7</v>
       </c>
-      <c r="E498"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
+      <c r="E498" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
         <v>45791</v>
       </c>
       <c r="B499" t="s">
@@ -7917,10 +8782,12 @@
       <c r="D499" t="s">
         <v>7</v>
       </c>
-      <c r="E499"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
+      <c r="E499" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
         <v>45797</v>
       </c>
       <c r="B500" t="s">
@@ -7932,10 +8799,12 @@
       <c r="D500" t="s">
         <v>7</v>
       </c>
-      <c r="E500"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
+      <c r="E500" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
         <v>45797</v>
       </c>
       <c r="B501" t="s">
@@ -7947,10 +8816,12 @@
       <c r="D501" t="s">
         <v>7</v>
       </c>
-      <c r="E501"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
+      <c r="E501" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
         <v>45797</v>
       </c>
       <c r="B502" t="s">
@@ -7962,10 +8833,12 @@
       <c r="D502" t="s">
         <v>7</v>
       </c>
-      <c r="E502"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
+      <c r="E502" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
         <v>45797</v>
       </c>
       <c r="B503" t="s">
@@ -7977,10 +8850,12 @@
       <c r="D503" t="s">
         <v>7</v>
       </c>
-      <c r="E503"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
+      <c r="E503" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
         <v>45797</v>
       </c>
       <c r="B504" t="s">
@@ -7992,10 +8867,12 @@
       <c r="D504" t="s">
         <v>7</v>
       </c>
-      <c r="E504"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
+      <c r="E504" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
         <v>45797</v>
       </c>
       <c r="B505" t="s">
@@ -8007,10 +8884,12 @@
       <c r="D505" t="s">
         <v>7</v>
       </c>
-      <c r="E505"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
+      <c r="E505" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
         <v>45797</v>
       </c>
       <c r="B506" t="s">
@@ -8022,10 +8901,12 @@
       <c r="D506" t="s">
         <v>7</v>
       </c>
-      <c r="E506"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
+      <c r="E506" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
         <v>45797</v>
       </c>
       <c r="B507" t="s">
@@ -8037,10 +8918,12 @@
       <c r="D507" t="s">
         <v>7</v>
       </c>
-      <c r="E507"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
+      <c r="E507" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
         <v>45797</v>
       </c>
       <c r="B508" t="s">
@@ -8052,10 +8935,12 @@
       <c r="D508" t="s">
         <v>7</v>
       </c>
-      <c r="E508"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
+      <c r="E508" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
         <v>45797</v>
       </c>
       <c r="B509" t="s">
@@ -8067,10 +8952,12 @@
       <c r="D509" t="s">
         <v>7</v>
       </c>
-      <c r="E509"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
+      <c r="E509" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
         <v>45797</v>
       </c>
       <c r="B510" t="s">
@@ -8082,10 +8969,12 @@
       <c r="D510" t="s">
         <v>7</v>
       </c>
-      <c r="E510"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
+      <c r="E510" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
         <v>45797</v>
       </c>
       <c r="B511" t="s">
@@ -8097,10 +8986,12 @@
       <c r="D511" t="s">
         <v>7</v>
       </c>
-      <c r="E511"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
+      <c r="E511" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
         <v>45798</v>
       </c>
       <c r="B512" t="s">
@@ -8112,10 +9003,12 @@
       <c r="D512" t="s">
         <v>7</v>
       </c>
-      <c r="E512"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
+      <c r="E512" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
         <v>45798</v>
       </c>
       <c r="B513" t="s">
@@ -8127,10 +9020,12 @@
       <c r="D513" t="s">
         <v>7</v>
       </c>
-      <c r="E513"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
+      <c r="E513" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
         <v>45798</v>
       </c>
       <c r="B514" t="s">
@@ -8142,10 +9037,12 @@
       <c r="D514" t="s">
         <v>7</v>
       </c>
-      <c r="E514"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
+      <c r="E514" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
         <v>45798</v>
       </c>
       <c r="B515" t="s">
@@ -8157,10 +9054,12 @@
       <c r="D515" t="s">
         <v>7</v>
       </c>
-      <c r="E515"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
+      <c r="E515" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
         <v>45798</v>
       </c>
       <c r="B516" t="s">
@@ -8172,10 +9071,12 @@
       <c r="D516" t="s">
         <v>7</v>
       </c>
-      <c r="E516"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
+      <c r="E516" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
         <v>45798</v>
       </c>
       <c r="B517" t="s">
@@ -8187,10 +9088,12 @@
       <c r="D517" t="s">
         <v>7</v>
       </c>
-      <c r="E517"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
+      <c r="E517" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
         <v>45798</v>
       </c>
       <c r="B518" t="s">
@@ -8202,10 +9105,12 @@
       <c r="D518" t="s">
         <v>7</v>
       </c>
-      <c r="E518"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
+      <c r="E518" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
         <v>45798</v>
       </c>
       <c r="B519" t="s">
@@ -8217,10 +9122,12 @@
       <c r="D519" t="s">
         <v>7</v>
       </c>
-      <c r="E519"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
+      <c r="E519" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
         <v>45798</v>
       </c>
       <c r="B520" t="s">
@@ -8232,10 +9139,12 @@
       <c r="D520" t="s">
         <v>7</v>
       </c>
-      <c r="E520"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
+      <c r="E520">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
         <v>45798</v>
       </c>
       <c r="B521" t="s">
@@ -8247,10 +9156,12 @@
       <c r="D521" t="s">
         <v>7</v>
       </c>
-      <c r="E521"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
+      <c r="E521" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
         <v>45798</v>
       </c>
       <c r="B522" t="s">
@@ -8262,10 +9173,12 @@
       <c r="D522" t="s">
         <v>7</v>
       </c>
-      <c r="E522"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
+      <c r="E522" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
         <v>45798</v>
       </c>
       <c r="B523" t="s">
@@ -8277,10 +9190,12 @@
       <c r="D523" t="s">
         <v>7</v>
       </c>
-      <c r="E523"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
+      <c r="E523" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
         <v>45798</v>
       </c>
       <c r="B524" t="s">
@@ -8292,10 +9207,12 @@
       <c r="D524" t="s">
         <v>7</v>
       </c>
-      <c r="E524"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
+      <c r="E524" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
         <v>45798</v>
       </c>
       <c r="B525" t="s">
@@ -8307,10 +9224,12 @@
       <c r="D525" t="s">
         <v>7</v>
       </c>
-      <c r="E525"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
+      <c r="E525" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
         <v>45798</v>
       </c>
       <c r="B526" t="s">
@@ -8322,10 +9241,12 @@
       <c r="D526" t="s">
         <v>7</v>
       </c>
-      <c r="E526"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
+      <c r="E526" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
         <v>45798</v>
       </c>
       <c r="B527" t="s">
@@ -8337,10 +9258,12 @@
       <c r="D527" t="s">
         <v>7</v>
       </c>
-      <c r="E527"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
+      <c r="E527" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
         <v>45798</v>
       </c>
       <c r="B528" t="s">
@@ -8352,10 +9275,12 @@
       <c r="D528" t="s">
         <v>7</v>
       </c>
-      <c r="E528"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
+      <c r="E528">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
         <v>45804</v>
       </c>
       <c r="B529" t="s">
@@ -8367,10 +9292,12 @@
       <c r="D529" t="s">
         <v>7</v>
       </c>
-      <c r="E529"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
+      <c r="E529" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
         <v>45804</v>
       </c>
       <c r="B530" t="s">
@@ -8382,10 +9309,12 @@
       <c r="D530" t="s">
         <v>7</v>
       </c>
-      <c r="E530"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
+      <c r="E530" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
         <v>45804</v>
       </c>
       <c r="B531" t="s">
@@ -8397,10 +9326,12 @@
       <c r="D531" t="s">
         <v>7</v>
       </c>
-      <c r="E531"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
+      <c r="E531" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
         <v>45804</v>
       </c>
       <c r="B532" t="s">
@@ -8412,10 +9343,12 @@
       <c r="D532" t="s">
         <v>7</v>
       </c>
-      <c r="E532"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
+      <c r="E532" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
         <v>45804</v>
       </c>
       <c r="B533" t="s">
@@ -8427,10 +9360,12 @@
       <c r="D533" t="s">
         <v>7</v>
       </c>
-      <c r="E533"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
+      <c r="E533" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
         <v>45804</v>
       </c>
       <c r="B534" t="s">
@@ -8442,10 +9377,12 @@
       <c r="D534" t="s">
         <v>7</v>
       </c>
-      <c r="E534"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
+      <c r="E534" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
         <v>45804</v>
       </c>
       <c r="B535" t="s">
@@ -8457,10 +9394,12 @@
       <c r="D535" t="s">
         <v>7</v>
       </c>
-      <c r="E535"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
+      <c r="E535" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
         <v>45804</v>
       </c>
       <c r="B536" t="s">
@@ -8472,10 +9411,12 @@
       <c r="D536" t="s">
         <v>7</v>
       </c>
-      <c r="E536"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
+      <c r="E536" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
         <v>45804</v>
       </c>
       <c r="B537" t="s">
@@ -8487,10 +9428,12 @@
       <c r="D537" t="s">
         <v>7</v>
       </c>
-      <c r="E537"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
+      <c r="E537" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
         <v>45804</v>
       </c>
       <c r="B538" t="s">
@@ -8502,10 +9445,12 @@
       <c r="D538" t="s">
         <v>7</v>
       </c>
-      <c r="E538"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
+      <c r="E538" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
         <v>45804</v>
       </c>
       <c r="B539" t="s">
@@ -8517,10 +9462,12 @@
       <c r="D539" t="s">
         <v>7</v>
       </c>
-      <c r="E539"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
+      <c r="E539" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
         <v>45804</v>
       </c>
       <c r="B540" t="s">
@@ -8532,10 +9479,12 @@
       <c r="D540" t="s">
         <v>7</v>
       </c>
-      <c r="E540"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
+      <c r="E540" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
         <v>45804</v>
       </c>
       <c r="B541" t="s">
@@ -8547,10 +9496,12 @@
       <c r="D541" t="s">
         <v>7</v>
       </c>
-      <c r="E541"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
+      <c r="E541" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
         <v>45804</v>
       </c>
       <c r="B542" t="s">
@@ -8562,10 +9513,12 @@
       <c r="D542" t="s">
         <v>7</v>
       </c>
-      <c r="E542"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
+      <c r="E542" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
         <v>45804</v>
       </c>
       <c r="B543" t="s">
@@ -8577,10 +9530,12 @@
       <c r="D543" t="s">
         <v>7</v>
       </c>
-      <c r="E543"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
+      <c r="E543" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
         <v>45804</v>
       </c>
       <c r="B544" t="s">
@@ -8592,10 +9547,12 @@
       <c r="D544" t="s">
         <v>7</v>
       </c>
-      <c r="E544"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
+      <c r="E544" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
         <v>45804</v>
       </c>
       <c r="B545" t="s">
@@ -8607,10 +9564,12 @@
       <c r="D545" t="s">
         <v>7</v>
       </c>
-      <c r="E545"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
+      <c r="E545" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
         <v>45804</v>
       </c>
       <c r="B546" t="s">
@@ -8622,10 +9581,12 @@
       <c r="D546" t="s">
         <v>7</v>
       </c>
-      <c r="E546"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
+      <c r="E546" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
         <v>45805</v>
       </c>
       <c r="B547" t="s">
@@ -8637,10 +9598,12 @@
       <c r="D547" t="s">
         <v>7</v>
       </c>
-      <c r="E547"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
+      <c r="E547" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
         <v>45805</v>
       </c>
       <c r="B548" t="s">
@@ -8652,10 +9615,12 @@
       <c r="D548" t="s">
         <v>7</v>
       </c>
-      <c r="E548"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
+      <c r="E548" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
         <v>45805</v>
       </c>
       <c r="B549" t="s">
@@ -8667,10 +9632,12 @@
       <c r="D549" t="s">
         <v>7</v>
       </c>
-      <c r="E549"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
+      <c r="E549" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
         <v>45805</v>
       </c>
       <c r="B550" t="s">
@@ -8682,10 +9649,12 @@
       <c r="D550" t="s">
         <v>7</v>
       </c>
-      <c r="E550"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
+      <c r="E550" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
         <v>45805</v>
       </c>
       <c r="B551" t="s">
@@ -8697,10 +9666,12 @@
       <c r="D551" t="s">
         <v>7</v>
       </c>
-      <c r="E551"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
+      <c r="E551" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
         <v>45805</v>
       </c>
       <c r="B552" t="s">
@@ -8712,10 +9683,12 @@
       <c r="D552" t="s">
         <v>7</v>
       </c>
-      <c r="E552"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
+      <c r="E552" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
         <v>45805</v>
       </c>
       <c r="B553" t="s">
@@ -8727,10 +9700,12 @@
       <c r="D553" t="s">
         <v>7</v>
       </c>
-      <c r="E553"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
+      <c r="E553" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
         <v>45805</v>
       </c>
       <c r="B554" t="s">
@@ -8742,10 +9717,12 @@
       <c r="D554" t="s">
         <v>7</v>
       </c>
-      <c r="E554"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
+      <c r="E554" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
         <v>45805</v>
       </c>
       <c r="B555" t="s">
@@ -8757,10 +9734,12 @@
       <c r="D555" t="s">
         <v>7</v>
       </c>
-      <c r="E555"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
+      <c r="E555" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
         <v>45805</v>
       </c>
       <c r="B556" t="s">
@@ -8772,10 +9751,12 @@
       <c r="D556" t="s">
         <v>7</v>
       </c>
-      <c r="E556"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
+      <c r="E556" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
         <v>45805</v>
       </c>
       <c r="B557" t="s">
@@ -8787,10 +9768,12 @@
       <c r="D557" t="s">
         <v>7</v>
       </c>
-      <c r="E557"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
+      <c r="E557" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
         <v>45805</v>
       </c>
       <c r="B558" t="s">
@@ -8802,10 +9785,12 @@
       <c r="D558" t="s">
         <v>7</v>
       </c>
-      <c r="E558"/>
+      <c r="E558" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Arkansas_Data/Data/All_MI_measurements_empty.xlsx
+++ b/Arkansas_Data/Data/All_MI_measurements_empty.xlsx
@@ -1,98 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uark-my.sharepoint.com/personal/rranniku_uark_edu/Documents/07_Documents/GitHub/Methane_Insight/Arkansas_Data/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="274" documentId="11_DB5A702D00B96595F030D13A4266E137E4E6D1AB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2B0E980-AA0B-4D0D-8E3F-D89D09D8106B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="28">
   <si>
-    <t xml:space="preserve">Date</t>
+    <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Field</t>
+    <t>Field</t>
   </si>
   <si>
-    <t xml:space="preserve">Collar</t>
+    <t>Collar</t>
   </si>
   <si>
-    <t xml:space="preserve">Replicate</t>
+    <t>Replicate</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_slope</t>
+    <t>MI_slope</t>
   </si>
   <si>
-    <t xml:space="preserve">Brown South</t>
+    <t>Brown South</t>
   </si>
   <si>
-    <t xml:space="preserve">B6</t>
+    <t>B6</t>
   </si>
   <si>
-    <t xml:space="preserve">Rep1</t>
+    <t>Rep1</t>
   </si>
   <si>
-    <t xml:space="preserve">Rep2</t>
+    <t>Rep2</t>
   </si>
   <si>
-    <t xml:space="preserve">B5</t>
+    <t>B5</t>
   </si>
   <si>
-    <t xml:space="preserve">B4</t>
+    <t>B4</t>
   </si>
   <si>
-    <t xml:space="preserve">B3</t>
+    <t>B3</t>
   </si>
   <si>
-    <t xml:space="preserve">B2</t>
+    <t>B2</t>
   </si>
   <si>
-    <t xml:space="preserve">B1</t>
+    <t>B1</t>
   </si>
   <si>
-    <t xml:space="preserve">Way 4</t>
+    <t>Way 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Way 3</t>
+    <t>Way 3</t>
   </si>
   <si>
-    <t xml:space="preserve">R8 Mitchell</t>
+    <t>R8 Mitchell</t>
   </si>
   <si>
-    <t xml:space="preserve">R15 Keaton</t>
+    <t>R15 Keaton</t>
   </si>
   <si>
-    <t xml:space="preserve">A1</t>
+    <t>A1</t>
   </si>
   <si>
-    <t xml:space="preserve">A2</t>
+    <t>A2</t>
   </si>
   <si>
-    <t xml:space="preserve">A3</t>
+    <t>A3</t>
   </si>
   <si>
-    <t xml:space="preserve">A4</t>
+    <t>A4</t>
   </si>
   <si>
-    <t xml:space="preserve">A5</t>
+    <t>A5</t>
   </si>
   <si>
-    <t xml:space="preserve">A6</t>
+    <t>A6</t>
   </si>
   <si>
-    <t xml:space="preserve">South 0</t>
+    <t>South 0</t>
   </si>
   <si>
-    <t xml:space="preserve">J 4</t>
+    <t>J 4</t>
   </si>
   <si>
-    <t xml:space="preserve">H 10</t>
+    <t>H 10</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -100,9 +124,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -115,13 +139,38 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,14 +185,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,14 +489,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F558"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +518,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>45503</v>
       </c>
       <c r="B2" t="s">
@@ -462,10 +531,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="E2">
+        <v>37.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45503</v>
       </c>
       <c r="B3" t="s">
@@ -477,10 +548,12 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="E3">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>45503</v>
       </c>
       <c r="B4" t="s">
@@ -492,10 +565,12 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E4" s="2">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>45503</v>
       </c>
       <c r="B5" t="s">
@@ -507,10 +582,12 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="E5" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45503</v>
       </c>
       <c r="B6" t="s">
@@ -522,10 +599,12 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="E6" s="2">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>45503</v>
       </c>
       <c r="B7" t="s">
@@ -537,10 +616,12 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="E7" s="2">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>45503</v>
       </c>
       <c r="B8" t="s">
@@ -552,10 +633,12 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="E8" s="2">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>45503</v>
       </c>
       <c r="B9" t="s">
@@ -567,10 +650,12 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="E9" s="2">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45503</v>
       </c>
       <c r="B10" t="s">
@@ -582,10 +667,12 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="E10" s="2">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>45503</v>
       </c>
       <c r="B11" t="s">
@@ -597,10 +684,12 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="E11" s="2">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>45503</v>
       </c>
       <c r="B12" t="s">
@@ -612,10 +701,12 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="E12" s="2">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>45503</v>
       </c>
       <c r="B13" t="s">
@@ -627,10 +718,12 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="E13" s="2">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45503</v>
       </c>
       <c r="B14" t="s">
@@ -642,10 +735,12 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="E14" s="2">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45503</v>
       </c>
       <c r="B15" t="s">
@@ -657,10 +752,12 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="E15" s="2">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>45503</v>
       </c>
       <c r="B16" t="s">
@@ -672,10 +769,12 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="E16" s="2">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>45503</v>
       </c>
       <c r="B17" t="s">
@@ -687,10 +786,12 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
-      <c r="E17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="E17" s="2">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45503</v>
       </c>
       <c r="B18" t="s">
@@ -702,10 +803,12 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="E18"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="E18" s="2">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>45503</v>
       </c>
       <c r="B19" t="s">
@@ -717,10 +820,12 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-      <c r="E19"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="E19" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>45503</v>
       </c>
       <c r="B20" t="s">
@@ -732,10 +837,12 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-      <c r="E20"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="E20" s="2">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>45503</v>
       </c>
       <c r="B21" t="s">
@@ -747,10 +854,12 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-      <c r="E21"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="E21" s="2">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45503</v>
       </c>
       <c r="B22" t="s">
@@ -762,10 +871,12 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
-      <c r="E22"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="E22" s="2">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>45503</v>
       </c>
       <c r="B23" t="s">
@@ -777,10 +888,12 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="E23"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="E23" s="2">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>45503</v>
       </c>
       <c r="B24" t="s">
@@ -792,10 +905,12 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="E24" s="2">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>45503</v>
       </c>
       <c r="B25" t="s">
@@ -807,10 +922,12 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="E25" s="2">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45503</v>
       </c>
       <c r="B26" t="s">
@@ -822,10 +939,12 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
-      <c r="E26"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="E26" s="2">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>45503</v>
       </c>
       <c r="B27" t="s">
@@ -837,10 +956,12 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E27"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="E27" s="2">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>45503</v>
       </c>
       <c r="B28" t="s">
@@ -852,10 +973,12 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
-      <c r="E28"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="E28" s="2">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>45503</v>
       </c>
       <c r="B29" t="s">
@@ -867,10 +990,12 @@
       <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E29"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="E29" s="2">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45503</v>
       </c>
       <c r="B30" t="s">
@@ -882,10 +1007,12 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="E30"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="E30" s="2">
+        <v>13.89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>45503</v>
       </c>
       <c r="B31" t="s">
@@ -897,10 +1024,12 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-      <c r="E31"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="E31" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>45503</v>
       </c>
       <c r="B32" t="s">
@@ -912,10 +1041,12 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="E32"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="E32" s="2">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>45503</v>
       </c>
       <c r="B33" t="s">
@@ -927,10 +1058,12 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="E33" s="2">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>45503</v>
       </c>
       <c r="B34" t="s">
@@ -942,10 +1075,12 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="E34" s="2">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>45503</v>
       </c>
       <c r="B35" t="s">
@@ -957,10 +1092,12 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E35"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="E35" s="2">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>45503</v>
       </c>
       <c r="B36" t="s">
@@ -972,10 +1109,12 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="E36" s="2">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>45503</v>
       </c>
       <c r="B37" t="s">
@@ -987,370 +1126,384 @@
       <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="E37" s="2">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>45504</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>45504</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>45504</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>45504</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>45504</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>45504</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>45504</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>45504</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>45504</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>45504</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>45504</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>45504</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="D49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>45505</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>45505</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="D51" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>45505</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>45505</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="D53" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>45505</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>45505</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="D55" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>45505</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>45505</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="D57" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>45505</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>45505</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="D59" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>45505</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="D60" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>45505</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="D61" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>45510</v>
       </c>
       <c r="B62" t="s">
@@ -1362,10 +1515,12 @@
       <c r="D62" t="s">
         <v>7</v>
       </c>
-      <c r="E62"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="E62" s="2">
+        <v>-13.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>45510</v>
       </c>
       <c r="B63" t="s">
@@ -1377,10 +1532,12 @@
       <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="E63"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="E63" s="2">
+        <v>-21.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>45510</v>
       </c>
       <c r="B64" t="s">
@@ -1392,10 +1549,12 @@
       <c r="D64" t="s">
         <v>7</v>
       </c>
-      <c r="E64"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="E64" s="2">
+        <v>-22.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>45510</v>
       </c>
       <c r="B65" t="s">
@@ -1407,10 +1566,12 @@
       <c r="D65" t="s">
         <v>8</v>
       </c>
-      <c r="E65"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="E65" s="2">
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>45510</v>
       </c>
       <c r="B66" t="s">
@@ -1422,10 +1583,12 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="E66"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="E66" s="2">
+        <v>-46.55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>45510</v>
       </c>
       <c r="B67" t="s">
@@ -1437,10 +1600,12 @@
       <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="E67" s="2">
+        <v>-33.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>45510</v>
       </c>
       <c r="B68" t="s">
@@ -1452,10 +1617,12 @@
       <c r="D68" t="s">
         <v>7</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="E68" s="2">
+        <v>-3.27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>45510</v>
       </c>
       <c r="B69" t="s">
@@ -1467,10 +1634,12 @@
       <c r="D69" t="s">
         <v>8</v>
       </c>
-      <c r="E69"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="E69" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>45510</v>
       </c>
       <c r="B70" t="s">
@@ -1482,10 +1651,12 @@
       <c r="D70" t="s">
         <v>7</v>
       </c>
-      <c r="E70"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="E70" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>45510</v>
       </c>
       <c r="B71" t="s">
@@ -1497,10 +1668,12 @@
       <c r="D71" t="s">
         <v>8</v>
       </c>
-      <c r="E71"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="E71" s="2">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>45510</v>
       </c>
       <c r="B72" t="s">
@@ -1512,10 +1685,12 @@
       <c r="D72" t="s">
         <v>7</v>
       </c>
-      <c r="E72"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="E72" s="2">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>45510</v>
       </c>
       <c r="B73" t="s">
@@ -1527,10 +1702,12 @@
       <c r="D73" t="s">
         <v>8</v>
       </c>
-      <c r="E73"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="E73" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>45510</v>
       </c>
       <c r="B74" t="s">
@@ -1542,10 +1719,12 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-      <c r="E74"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="E74" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>45510</v>
       </c>
       <c r="B75" t="s">
@@ -1557,10 +1736,12 @@
       <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="E75"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="E75" s="2">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>45510</v>
       </c>
       <c r="B76" t="s">
@@ -1572,10 +1753,12 @@
       <c r="D76" t="s">
         <v>7</v>
       </c>
-      <c r="E76"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="E76" s="2">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>45510</v>
       </c>
       <c r="B77" t="s">
@@ -1587,10 +1770,12 @@
       <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="E77" s="2">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>45510</v>
       </c>
       <c r="B78" t="s">
@@ -1602,10 +1787,12 @@
       <c r="D78" t="s">
         <v>7</v>
       </c>
-      <c r="E78"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="E78" s="2">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>45510</v>
       </c>
       <c r="B79" t="s">
@@ -1617,10 +1804,12 @@
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="E79" s="2">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>45510</v>
       </c>
       <c r="B80" t="s">
@@ -1632,10 +1821,12 @@
       <c r="D80" t="s">
         <v>7</v>
       </c>
-      <c r="E80"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="E80" s="2">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>45510</v>
       </c>
       <c r="B81" t="s">
@@ -1647,10 +1838,12 @@
       <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="E81"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="E81" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>45510</v>
       </c>
       <c r="B82" t="s">
@@ -1662,10 +1855,12 @@
       <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="E82"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="E82" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>45510</v>
       </c>
       <c r="B83" t="s">
@@ -1677,10 +1872,12 @@
       <c r="D83" t="s">
         <v>8</v>
       </c>
-      <c r="E83"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="E83" s="2">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>45510</v>
       </c>
       <c r="B84" t="s">
@@ -1692,10 +1889,12 @@
       <c r="D84" t="s">
         <v>7</v>
       </c>
-      <c r="E84"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="E84" s="2">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>45510</v>
       </c>
       <c r="B85" t="s">
@@ -1707,10 +1906,12 @@
       <c r="D85" t="s">
         <v>8</v>
       </c>
-      <c r="E85"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="E85" s="2">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>45510</v>
       </c>
       <c r="B86" t="s">
@@ -1722,10 +1923,12 @@
       <c r="D86" t="s">
         <v>7</v>
       </c>
-      <c r="E86"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="E86" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>45510</v>
       </c>
       <c r="B87" t="s">
@@ -1737,10 +1940,12 @@
       <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="E87" s="2">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>45510</v>
       </c>
       <c r="B88" t="s">
@@ -1752,10 +1957,12 @@
       <c r="D88" t="s">
         <v>7</v>
       </c>
-      <c r="E88"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="E88" s="2">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>45510</v>
       </c>
       <c r="B89" t="s">
@@ -1767,10 +1974,12 @@
       <c r="D89" t="s">
         <v>8</v>
       </c>
-      <c r="E89"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="E89" s="2">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>45510</v>
       </c>
       <c r="B90" t="s">
@@ -1782,10 +1991,12 @@
       <c r="D90" t="s">
         <v>7</v>
       </c>
-      <c r="E90"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="E90" s="2">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>45510</v>
       </c>
       <c r="B91" t="s">
@@ -1797,10 +2008,12 @@
       <c r="D91" t="s">
         <v>8</v>
       </c>
-      <c r="E91"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="E91" s="2">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>45510</v>
       </c>
       <c r="B92" t="s">
@@ -1812,10 +2025,12 @@
       <c r="D92" t="s">
         <v>7</v>
       </c>
-      <c r="E92"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="E92" s="2">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>45510</v>
       </c>
       <c r="B93" t="s">
@@ -1827,10 +2042,12 @@
       <c r="D93" t="s">
         <v>8</v>
       </c>
-      <c r="E93"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="E93" s="2">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>45510</v>
       </c>
       <c r="B94" t="s">
@@ -1842,10 +2059,12 @@
       <c r="D94" t="s">
         <v>7</v>
       </c>
-      <c r="E94"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="E94" s="2">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>45510</v>
       </c>
       <c r="B95" t="s">
@@ -1857,10 +2076,12 @@
       <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="E95" s="2">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>45510</v>
       </c>
       <c r="B96" t="s">
@@ -1872,10 +2093,12 @@
       <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="E96"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="E96" s="2">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>45510</v>
       </c>
       <c r="B97" t="s">
@@ -1887,10 +2110,12 @@
       <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="E97"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="E97" s="2">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>45512</v>
       </c>
       <c r="B98" t="s">
@@ -1902,10 +2127,12 @@
       <c r="D98" t="s">
         <v>7</v>
       </c>
-      <c r="E98"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="E98" s="2">
+        <v>-16.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>45512</v>
       </c>
       <c r="B99" t="s">
@@ -1917,10 +2144,12 @@
       <c r="D99" t="s">
         <v>8</v>
       </c>
-      <c r="E99"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="E99" s="2">
+        <v>-9.83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>45512</v>
       </c>
       <c r="B100" t="s">
@@ -1932,10 +2161,12 @@
       <c r="D100" t="s">
         <v>7</v>
       </c>
-      <c r="E100"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="E100" s="2">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>45512</v>
       </c>
       <c r="B101" t="s">
@@ -1947,10 +2178,12 @@
       <c r="D101" t="s">
         <v>8</v>
       </c>
-      <c r="E101"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="E101" s="2">
+        <v>-7.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>45512</v>
       </c>
       <c r="B102" t="s">
@@ -1962,10 +2195,12 @@
       <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="E102" s="2">
+        <v>-13.37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>45512</v>
       </c>
       <c r="B103" t="s">
@@ -1977,10 +2212,12 @@
       <c r="D103" t="s">
         <v>8</v>
       </c>
-      <c r="E103"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="E103" s="2">
+        <v>-17.93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>45512</v>
       </c>
       <c r="B104" t="s">
@@ -1992,10 +2229,12 @@
       <c r="D104" t="s">
         <v>7</v>
       </c>
-      <c r="E104"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="E104" s="2">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>45512</v>
       </c>
       <c r="B105" t="s">
@@ -2007,10 +2246,12 @@
       <c r="D105" t="s">
         <v>8</v>
       </c>
-      <c r="E105"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="E105" s="2">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>45512</v>
       </c>
       <c r="B106" t="s">
@@ -2022,10 +2263,12 @@
       <c r="D106" t="s">
         <v>7</v>
       </c>
-      <c r="E106"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="E106" s="2">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>45512</v>
       </c>
       <c r="B107" t="s">
@@ -2037,10 +2280,12 @@
       <c r="D107" t="s">
         <v>8</v>
       </c>
-      <c r="E107"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="E107">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>45512</v>
       </c>
       <c r="B108" t="s">
@@ -2052,10 +2297,12 @@
       <c r="D108" t="s">
         <v>7</v>
       </c>
-      <c r="E108"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="E108" s="2">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>45512</v>
       </c>
       <c r="B109" t="s">
@@ -2067,10 +2314,12 @@
       <c r="D109" t="s">
         <v>8</v>
       </c>
-      <c r="E109"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="E109" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>45512</v>
       </c>
       <c r="B110" t="s">
@@ -2082,10 +2331,12 @@
       <c r="D110" t="s">
         <v>7</v>
       </c>
-      <c r="E110"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="E110" s="2">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>45512</v>
       </c>
       <c r="B111" t="s">
@@ -2097,10 +2348,12 @@
       <c r="D111" t="s">
         <v>8</v>
       </c>
-      <c r="E111"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="E111" s="2">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>45512</v>
       </c>
       <c r="B112" t="s">
@@ -2112,10 +2365,12 @@
       <c r="D112" t="s">
         <v>7</v>
       </c>
-      <c r="E112"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="E112" s="2">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>45512</v>
       </c>
       <c r="B113" t="s">
@@ -2127,10 +2382,12 @@
       <c r="D113" t="s">
         <v>8</v>
       </c>
-      <c r="E113"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="E113" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>45512</v>
       </c>
       <c r="B114" t="s">
@@ -2142,10 +2399,12 @@
       <c r="D114" t="s">
         <v>7</v>
       </c>
-      <c r="E114"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="E114" s="2">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>45512</v>
       </c>
       <c r="B115" t="s">
@@ -2157,10 +2416,12 @@
       <c r="D115" t="s">
         <v>8</v>
       </c>
-      <c r="E115"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="E115" s="2">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>45512</v>
       </c>
       <c r="B116" t="s">
@@ -2172,10 +2433,12 @@
       <c r="D116" t="s">
         <v>7</v>
       </c>
-      <c r="E116"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="E116" s="2">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>45512</v>
       </c>
       <c r="B117" t="s">
@@ -2187,10 +2450,12 @@
       <c r="D117" t="s">
         <v>8</v>
       </c>
-      <c r="E117"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="E117" s="2">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>45512</v>
       </c>
       <c r="B118" t="s">
@@ -2202,10 +2467,12 @@
       <c r="D118" t="s">
         <v>7</v>
       </c>
-      <c r="E118"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="E118" s="2">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>45512</v>
       </c>
       <c r="B119" t="s">
@@ -2217,10 +2484,12 @@
       <c r="D119" t="s">
         <v>8</v>
       </c>
-      <c r="E119"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="E119" s="2">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>45512</v>
       </c>
       <c r="B120" t="s">
@@ -2232,10 +2501,12 @@
       <c r="D120" t="s">
         <v>7</v>
       </c>
-      <c r="E120"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="E120" s="2">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>45512</v>
       </c>
       <c r="B121" t="s">
@@ -2247,10 +2518,12 @@
       <c r="D121" t="s">
         <v>8</v>
       </c>
-      <c r="E121"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="E121" s="2">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>45517</v>
       </c>
       <c r="B122" t="s">
@@ -2262,10 +2535,12 @@
       <c r="D122" t="s">
         <v>7</v>
       </c>
-      <c r="E122"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="E122" s="2">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>45517</v>
       </c>
       <c r="B123" t="s">
@@ -2277,10 +2552,12 @@
       <c r="D123" t="s">
         <v>8</v>
       </c>
-      <c r="E123"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="E123" s="2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>45517</v>
       </c>
       <c r="B124" t="s">
@@ -2292,10 +2569,12 @@
       <c r="D124" t="s">
         <v>7</v>
       </c>
-      <c r="E124"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="E124" s="2">
+        <v>-1.52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>45517</v>
       </c>
       <c r="B125" t="s">
@@ -2307,10 +2586,12 @@
       <c r="D125" t="s">
         <v>8</v>
       </c>
-      <c r="E125"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="E125" s="2">
+        <v>-1.61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>45517</v>
       </c>
       <c r="B126" t="s">
@@ -2322,10 +2603,12 @@
       <c r="D126" t="s">
         <v>7</v>
       </c>
-      <c r="E126"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="E126" s="2">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>45517</v>
       </c>
       <c r="B127" t="s">
@@ -2337,10 +2620,12 @@
       <c r="D127" t="s">
         <v>8</v>
       </c>
-      <c r="E127"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="E127" s="2">
+        <v>-7.89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>45517</v>
       </c>
       <c r="B128" t="s">
@@ -2352,10 +2637,12 @@
       <c r="D128" t="s">
         <v>7</v>
       </c>
-      <c r="E128"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="E128" s="2">
+        <v>-6.82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>45517</v>
       </c>
       <c r="B129" t="s">
@@ -2367,10 +2654,12 @@
       <c r="D129" t="s">
         <v>8</v>
       </c>
-      <c r="E129"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="E129" s="2">
+        <v>-8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>45517</v>
       </c>
       <c r="B130" t="s">
@@ -2382,10 +2671,12 @@
       <c r="D130" t="s">
         <v>7</v>
       </c>
-      <c r="E130"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="E130" s="2">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>45517</v>
       </c>
       <c r="B131" t="s">
@@ -2397,10 +2688,12 @@
       <c r="D131" t="s">
         <v>8</v>
       </c>
-      <c r="E131"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="E131" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>45517</v>
       </c>
       <c r="B132" t="s">
@@ -2412,10 +2705,12 @@
       <c r="D132" t="s">
         <v>7</v>
       </c>
-      <c r="E132"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="E132" s="2">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>45517</v>
       </c>
       <c r="B133" t="s">
@@ -2427,10 +2722,12 @@
       <c r="D133" t="s">
         <v>8</v>
       </c>
-      <c r="E133"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="E133" s="2">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>45517</v>
       </c>
       <c r="B134" t="s">
@@ -2442,10 +2739,12 @@
       <c r="D134" t="s">
         <v>7</v>
       </c>
-      <c r="E134"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="E134" s="2">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>45517</v>
       </c>
       <c r="B135" t="s">
@@ -2457,10 +2756,12 @@
       <c r="D135" t="s">
         <v>8</v>
       </c>
-      <c r="E135"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="E135" s="2">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>45517</v>
       </c>
       <c r="B136" t="s">
@@ -2472,10 +2773,12 @@
       <c r="D136" t="s">
         <v>7</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="E136" s="2">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>45517</v>
       </c>
       <c r="B137" t="s">
@@ -2487,10 +2790,12 @@
       <c r="D137" t="s">
         <v>8</v>
       </c>
-      <c r="E137"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="E137" s="2">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>45517</v>
       </c>
       <c r="B138" t="s">
@@ -2502,10 +2807,12 @@
       <c r="D138" t="s">
         <v>7</v>
       </c>
-      <c r="E138"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="E138" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>45517</v>
       </c>
       <c r="B139" t="s">
@@ -2517,10 +2824,12 @@
       <c r="D139" t="s">
         <v>8</v>
       </c>
-      <c r="E139"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="E139" s="2">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>45517</v>
       </c>
       <c r="B140" t="s">
@@ -2532,10 +2841,12 @@
       <c r="D140" t="s">
         <v>7</v>
       </c>
-      <c r="E140"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="E140" s="2">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>45517</v>
       </c>
       <c r="B141" t="s">
@@ -2547,10 +2858,12 @@
       <c r="D141" t="s">
         <v>8</v>
       </c>
-      <c r="E141"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="E141" s="2">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>45517</v>
       </c>
       <c r="B142" t="s">
@@ -2562,10 +2875,12 @@
       <c r="D142" t="s">
         <v>7</v>
       </c>
-      <c r="E142"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="E142" s="2">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>45517</v>
       </c>
       <c r="B143" t="s">
@@ -2577,10 +2892,12 @@
       <c r="D143" t="s">
         <v>8</v>
       </c>
-      <c r="E143"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="E143" s="2">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>45517</v>
       </c>
       <c r="B144" t="s">
@@ -2592,10 +2909,12 @@
       <c r="D144" t="s">
         <v>7</v>
       </c>
-      <c r="E144"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="E144" s="2">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>45517</v>
       </c>
       <c r="B145" t="s">
@@ -2607,10 +2926,12 @@
       <c r="D145" t="s">
         <v>8</v>
       </c>
-      <c r="E145"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="E145" s="2">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>45524</v>
       </c>
       <c r="B146" t="s">
@@ -2622,10 +2943,12 @@
       <c r="D146" t="s">
         <v>7</v>
       </c>
-      <c r="E146"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="E146" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>45524</v>
       </c>
       <c r="B147" t="s">
@@ -2637,10 +2960,12 @@
       <c r="D147" t="s">
         <v>8</v>
       </c>
-      <c r="E147"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="E147" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>45524</v>
       </c>
       <c r="B148" t="s">
@@ -2652,10 +2977,12 @@
       <c r="D148" t="s">
         <v>7</v>
       </c>
-      <c r="E148"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="E148" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>45524</v>
       </c>
       <c r="B149" t="s">
@@ -2667,10 +2994,12 @@
       <c r="D149" t="s">
         <v>8</v>
       </c>
-      <c r="E149"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="E149" s="2">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>45524</v>
       </c>
       <c r="B150" t="s">
@@ -2682,10 +3011,12 @@
       <c r="D150" t="s">
         <v>7</v>
       </c>
-      <c r="E150"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="E150" s="2">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>45524</v>
       </c>
       <c r="B151" t="s">
@@ -2697,10 +3028,12 @@
       <c r="D151" t="s">
         <v>8</v>
       </c>
-      <c r="E151"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="E151" s="2">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>45524</v>
       </c>
       <c r="B152" t="s">
@@ -2712,10 +3045,12 @@
       <c r="D152" t="s">
         <v>7</v>
       </c>
-      <c r="E152"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="E152" s="2">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
         <v>45524</v>
       </c>
       <c r="B153" t="s">
@@ -2727,10 +3062,12 @@
       <c r="D153" t="s">
         <v>8</v>
       </c>
-      <c r="E153"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="E153" s="2">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
         <v>45524</v>
       </c>
       <c r="B154" t="s">
@@ -2742,10 +3079,12 @@
       <c r="D154" t="s">
         <v>7</v>
       </c>
-      <c r="E154"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="E154" s="2">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
         <v>45524</v>
       </c>
       <c r="B155" t="s">
@@ -2757,10 +3096,12 @@
       <c r="D155" t="s">
         <v>8</v>
       </c>
-      <c r="E155"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="E155" s="2">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
         <v>45524</v>
       </c>
       <c r="B156" t="s">
@@ -2772,10 +3113,12 @@
       <c r="D156" t="s">
         <v>7</v>
       </c>
-      <c r="E156"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="E156" s="2">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
         <v>45524</v>
       </c>
       <c r="B157" t="s">
@@ -2787,10 +3130,12 @@
       <c r="D157" t="s">
         <v>8</v>
       </c>
-      <c r="E157"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="E157" s="2">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
         <v>45524</v>
       </c>
       <c r="B158" t="s">
@@ -2802,10 +3147,12 @@
       <c r="D158" t="s">
         <v>7</v>
       </c>
-      <c r="E158"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="E158" s="2">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
         <v>45524</v>
       </c>
       <c r="B159" t="s">
@@ -2817,10 +3164,12 @@
       <c r="D159" t="s">
         <v>8</v>
       </c>
-      <c r="E159"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="E159" s="2">
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
         <v>45524</v>
       </c>
       <c r="B160" t="s">
@@ -2832,10 +3181,12 @@
       <c r="D160" t="s">
         <v>7</v>
       </c>
-      <c r="E160"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="E160" s="2">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
         <v>45524</v>
       </c>
       <c r="B161" t="s">
@@ -2847,10 +3198,12 @@
       <c r="D161" t="s">
         <v>8</v>
       </c>
-      <c r="E161"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="E161" s="2">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
         <v>45524</v>
       </c>
       <c r="B162" t="s">
@@ -2862,10 +3215,12 @@
       <c r="D162" t="s">
         <v>7</v>
       </c>
-      <c r="E162"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="E162" s="2">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
         <v>45524</v>
       </c>
       <c r="B163" t="s">
@@ -2877,10 +3232,12 @@
       <c r="D163" t="s">
         <v>8</v>
       </c>
-      <c r="E163"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="E163" s="2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
         <v>45524</v>
       </c>
       <c r="B164" t="s">
@@ -2892,10 +3249,12 @@
       <c r="D164" t="s">
         <v>7</v>
       </c>
-      <c r="E164"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="E164" s="2">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
         <v>45524</v>
       </c>
       <c r="B165" t="s">
@@ -2907,10 +3266,12 @@
       <c r="D165" t="s">
         <v>8</v>
       </c>
-      <c r="E165"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
         <v>45524</v>
       </c>
       <c r="B166" t="s">
@@ -2922,10 +3283,12 @@
       <c r="D166" t="s">
         <v>7</v>
       </c>
-      <c r="E166"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="E166" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
         <v>45524</v>
       </c>
       <c r="B167" t="s">
@@ -2937,10 +3300,12 @@
       <c r="D167" t="s">
         <v>8</v>
       </c>
-      <c r="E167"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="E167" s="2">
+        <v>-1.47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
         <v>45524</v>
       </c>
       <c r="B168" t="s">
@@ -2952,10 +3317,12 @@
       <c r="D168" t="s">
         <v>7</v>
       </c>
-      <c r="E168"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="E168" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
         <v>45524</v>
       </c>
       <c r="B169" t="s">
@@ -2967,10 +3334,12 @@
       <c r="D169" t="s">
         <v>8</v>
       </c>
-      <c r="E169"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="E169" s="2">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
         <v>45526</v>
       </c>
       <c r="B170" t="s">
@@ -2982,10 +3351,12 @@
       <c r="D170" t="s">
         <v>7</v>
       </c>
-      <c r="E170"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="E170" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
         <v>45526</v>
       </c>
       <c r="B171" t="s">
@@ -2997,10 +3368,12 @@
       <c r="D171" t="s">
         <v>8</v>
       </c>
-      <c r="E171"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="E171" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
         <v>45526</v>
       </c>
       <c r="B172" t="s">
@@ -3012,10 +3385,12 @@
       <c r="D172" t="s">
         <v>7</v>
       </c>
-      <c r="E172"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="E172" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
         <v>45526</v>
       </c>
       <c r="B173" t="s">
@@ -3027,10 +3402,12 @@
       <c r="D173" t="s">
         <v>8</v>
       </c>
-      <c r="E173"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="E173" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
         <v>45526</v>
       </c>
       <c r="B174" t="s">
@@ -3042,10 +3419,12 @@
       <c r="D174" t="s">
         <v>7</v>
       </c>
-      <c r="E174"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="E174" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
         <v>45526</v>
       </c>
       <c r="B175" t="s">
@@ -3057,10 +3436,12 @@
       <c r="D175" t="s">
         <v>8</v>
       </c>
-      <c r="E175"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="E175" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
         <v>45526</v>
       </c>
       <c r="B176" t="s">
@@ -3072,10 +3453,12 @@
       <c r="D176" t="s">
         <v>7</v>
       </c>
-      <c r="E176"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="E176" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
         <v>45526</v>
       </c>
       <c r="B177" t="s">
@@ -3087,10 +3470,12 @@
       <c r="D177" t="s">
         <v>8</v>
       </c>
-      <c r="E177"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="E177" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
         <v>45526</v>
       </c>
       <c r="B178" t="s">
@@ -3102,10 +3487,12 @@
       <c r="D178" t="s">
         <v>7</v>
       </c>
-      <c r="E178"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="E178" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
         <v>45526</v>
       </c>
       <c r="B179" t="s">
@@ -3117,10 +3504,12 @@
       <c r="D179" t="s">
         <v>8</v>
       </c>
-      <c r="E179"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="E179" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
         <v>45526</v>
       </c>
       <c r="B180" t="s">
@@ -3132,10 +3521,12 @@
       <c r="D180" t="s">
         <v>7</v>
       </c>
-      <c r="E180"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="E180" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
         <v>45526</v>
       </c>
       <c r="B181" t="s">
@@ -3147,10 +3538,12 @@
       <c r="D181" t="s">
         <v>8</v>
       </c>
-      <c r="E181"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="E181" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
         <v>45531</v>
       </c>
       <c r="B182" t="s">
@@ -3162,10 +3555,12 @@
       <c r="D182" t="s">
         <v>7</v>
       </c>
-      <c r="E182"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="E182" s="2">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
         <v>45531</v>
       </c>
       <c r="B183" t="s">
@@ -3177,10 +3572,12 @@
       <c r="D183" t="s">
         <v>8</v>
       </c>
-      <c r="E183"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="E183" s="2">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
         <v>45531</v>
       </c>
       <c r="B184" t="s">
@@ -3192,10 +3589,12 @@
       <c r="D184" t="s">
         <v>7</v>
       </c>
-      <c r="E184"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="E184" s="2">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
         <v>45531</v>
       </c>
       <c r="B185" t="s">
@@ -3207,10 +3606,12 @@
       <c r="D185" t="s">
         <v>8</v>
       </c>
-      <c r="E185"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="E185" s="2">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
         <v>45531</v>
       </c>
       <c r="B186" t="s">
@@ -3222,10 +3623,12 @@
       <c r="D186" t="s">
         <v>7</v>
       </c>
-      <c r="E186"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="E186" s="2">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
         <v>45531</v>
       </c>
       <c r="B187" t="s">
@@ -3237,10 +3640,12 @@
       <c r="D187" t="s">
         <v>8</v>
       </c>
-      <c r="E187"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="E187" s="2">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
         <v>45531</v>
       </c>
       <c r="B188" t="s">
@@ -3252,10 +3657,12 @@
       <c r="D188" t="s">
         <v>7</v>
       </c>
-      <c r="E188"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="E188" s="2">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
         <v>45531</v>
       </c>
       <c r="B189" t="s">
@@ -3267,10 +3674,12 @@
       <c r="D189" t="s">
         <v>8</v>
       </c>
-      <c r="E189"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="E189" s="2">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
         <v>45531</v>
       </c>
       <c r="B190" t="s">
@@ -3282,10 +3691,12 @@
       <c r="D190" t="s">
         <v>7</v>
       </c>
-      <c r="E190"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="E190" s="2">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>45531</v>
       </c>
       <c r="B191" t="s">
@@ -3297,10 +3708,12 @@
       <c r="D191" t="s">
         <v>8</v>
       </c>
-      <c r="E191"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="E191" s="2">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>45531</v>
       </c>
       <c r="B192" t="s">
@@ -3312,10 +3725,12 @@
       <c r="D192" t="s">
         <v>7</v>
       </c>
-      <c r="E192"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="E192" s="2">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
         <v>45531</v>
       </c>
       <c r="B193" t="s">
@@ -3327,10 +3742,12 @@
       <c r="D193" t="s">
         <v>8</v>
       </c>
-      <c r="E193"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="E193" s="2">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
         <v>45538</v>
       </c>
       <c r="B194" t="s">
@@ -3342,10 +3759,12 @@
       <c r="D194" t="s">
         <v>7</v>
       </c>
-      <c r="E194"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="E194" s="2">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
         <v>45538</v>
       </c>
       <c r="B195" t="s">
@@ -3357,10 +3776,12 @@
       <c r="D195" t="s">
         <v>8</v>
       </c>
-      <c r="E195"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="E195" s="7">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
         <v>45538</v>
       </c>
       <c r="B196" t="s">
@@ -3372,10 +3793,12 @@
       <c r="D196" t="s">
         <v>7</v>
       </c>
-      <c r="E196"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="E196" s="2">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
         <v>45538</v>
       </c>
       <c r="B197" t="s">
@@ -3387,10 +3810,12 @@
       <c r="D197" t="s">
         <v>8</v>
       </c>
-      <c r="E197"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="E197" s="7">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
         <v>45538</v>
       </c>
       <c r="B198" t="s">
@@ -3402,10 +3827,12 @@
       <c r="D198" t="s">
         <v>7</v>
       </c>
-      <c r="E198"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="E198" s="2">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
         <v>45538</v>
       </c>
       <c r="B199" t="s">
@@ -3417,10 +3844,12 @@
       <c r="D199" t="s">
         <v>8</v>
       </c>
-      <c r="E199"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="E199" s="7">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>45538</v>
       </c>
       <c r="B200" t="s">
@@ -3432,10 +3861,12 @@
       <c r="D200" t="s">
         <v>7</v>
       </c>
-      <c r="E200"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="E200" s="2">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>45538</v>
       </c>
       <c r="B201" t="s">
@@ -3447,10 +3878,12 @@
       <c r="D201" t="s">
         <v>8</v>
       </c>
-      <c r="E201"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="E201" s="7">
+        <v>-4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
         <v>45538</v>
       </c>
       <c r="B202" t="s">
@@ -3462,10 +3895,12 @@
       <c r="D202" t="s">
         <v>7</v>
       </c>
-      <c r="E202"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="E202" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
         <v>45538</v>
       </c>
       <c r="B203" t="s">
@@ -3477,10 +3912,12 @@
       <c r="D203" t="s">
         <v>8</v>
       </c>
-      <c r="E203"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="E203" s="7">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
         <v>45538</v>
       </c>
       <c r="B204" t="s">
@@ -3492,10 +3929,12 @@
       <c r="D204" t="s">
         <v>7</v>
       </c>
-      <c r="E204"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="E204" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
         <v>45538</v>
       </c>
       <c r="B205" t="s">
@@ -3507,10 +3946,12 @@
       <c r="D205" t="s">
         <v>8</v>
       </c>
-      <c r="E205"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="E205" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
         <v>45587</v>
       </c>
       <c r="B206" t="s">
@@ -3522,10 +3963,12 @@
       <c r="D206" t="s">
         <v>7</v>
       </c>
-      <c r="E206"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="E206" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
         <v>45587</v>
       </c>
       <c r="B207" t="s">
@@ -3537,10 +3980,12 @@
       <c r="D207" t="s">
         <v>8</v>
       </c>
-      <c r="E207"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="E207" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
         <v>45587</v>
       </c>
       <c r="B208" t="s">
@@ -3552,10 +3997,12 @@
       <c r="D208" t="s">
         <v>7</v>
       </c>
-      <c r="E208"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="E208" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
         <v>45587</v>
       </c>
       <c r="B209" t="s">
@@ -3567,10 +4014,12 @@
       <c r="D209" t="s">
         <v>8</v>
       </c>
-      <c r="E209"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="E209" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
         <v>45587</v>
       </c>
       <c r="B210" t="s">
@@ -3582,10 +4031,12 @@
       <c r="D210" t="s">
         <v>7</v>
       </c>
-      <c r="E210"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="E210" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
         <v>45587</v>
       </c>
       <c r="B211" t="s">
@@ -3597,10 +4048,12 @@
       <c r="D211" t="s">
         <v>8</v>
       </c>
-      <c r="E211"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="E211" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
         <v>45587</v>
       </c>
       <c r="B212" t="s">
@@ -3612,10 +4065,12 @@
       <c r="D212" t="s">
         <v>7</v>
       </c>
-      <c r="E212"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="E212" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
         <v>45587</v>
       </c>
       <c r="B213" t="s">
@@ -3627,10 +4082,12 @@
       <c r="D213" t="s">
         <v>8</v>
       </c>
-      <c r="E213"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="E213" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
         <v>45587</v>
       </c>
       <c r="B214" t="s">
@@ -3642,10 +4099,12 @@
       <c r="D214" t="s">
         <v>7</v>
       </c>
-      <c r="E214"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="E214" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
         <v>45587</v>
       </c>
       <c r="B215" t="s">
@@ -3657,10 +4116,12 @@
       <c r="D215" t="s">
         <v>8</v>
       </c>
-      <c r="E215"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="E215" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
         <v>45587</v>
       </c>
       <c r="B216" t="s">
@@ -3672,10 +4133,12 @@
       <c r="D216" t="s">
         <v>7</v>
       </c>
-      <c r="E216"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="E216" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
         <v>45587</v>
       </c>
       <c r="B217" t="s">
@@ -3687,10 +4150,12 @@
       <c r="D217" t="s">
         <v>8</v>
       </c>
-      <c r="E217"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="E217" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
         <v>45587</v>
       </c>
       <c r="B218" t="s">
@@ -3702,10 +4167,12 @@
       <c r="D218" t="s">
         <v>7</v>
       </c>
-      <c r="E218"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="E218" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
         <v>45587</v>
       </c>
       <c r="B219" t="s">
@@ -3717,10 +4184,12 @@
       <c r="D219" t="s">
         <v>8</v>
       </c>
-      <c r="E219"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="E219" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
         <v>45587</v>
       </c>
       <c r="B220" t="s">
@@ -3732,10 +4201,12 @@
       <c r="D220" t="s">
         <v>7</v>
       </c>
-      <c r="E220"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="E220" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
         <v>45587</v>
       </c>
       <c r="B221" t="s">
@@ -3747,10 +4218,12 @@
       <c r="D221" t="s">
         <v>8</v>
       </c>
-      <c r="E221"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="E221" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
         <v>45587</v>
       </c>
       <c r="B222" t="s">
@@ -3762,10 +4235,12 @@
       <c r="D222" t="s">
         <v>7</v>
       </c>
-      <c r="E222"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="E222" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
         <v>45587</v>
       </c>
       <c r="B223" t="s">
@@ -3777,10 +4252,12 @@
       <c r="D223" t="s">
         <v>8</v>
       </c>
-      <c r="E223"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="E223" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
         <v>45587</v>
       </c>
       <c r="B224" t="s">
@@ -3792,10 +4269,12 @@
       <c r="D224" t="s">
         <v>7</v>
       </c>
-      <c r="E224"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="E224" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
         <v>45587</v>
       </c>
       <c r="B225" t="s">
@@ -3807,10 +4286,12 @@
       <c r="D225" t="s">
         <v>8</v>
       </c>
-      <c r="E225"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="E225" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
         <v>45587</v>
       </c>
       <c r="B226" t="s">
@@ -3822,10 +4303,12 @@
       <c r="D226" t="s">
         <v>7</v>
       </c>
-      <c r="E226"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="E226" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
         <v>45587</v>
       </c>
       <c r="B227" t="s">
@@ -3837,10 +4320,12 @@
       <c r="D227" t="s">
         <v>8</v>
       </c>
-      <c r="E227"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="E227" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
         <v>45587</v>
       </c>
       <c r="B228" t="s">
@@ -3852,10 +4337,12 @@
       <c r="D228" t="s">
         <v>7</v>
       </c>
-      <c r="E228"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="E228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
         <v>45587</v>
       </c>
       <c r="B229" t="s">
@@ -3867,10 +4354,12 @@
       <c r="D229" t="s">
         <v>8</v>
       </c>
-      <c r="E229"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="E229" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
         <v>45595</v>
       </c>
       <c r="B230" t="s">
@@ -3882,10 +4371,12 @@
       <c r="D230" t="s">
         <v>7</v>
       </c>
-      <c r="E230"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="E230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
         <v>45595</v>
       </c>
       <c r="B231" t="s">
@@ -3897,10 +4388,12 @@
       <c r="D231" t="s">
         <v>8</v>
       </c>
-      <c r="E231"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="E231" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
         <v>45595</v>
       </c>
       <c r="B232" t="s">
@@ -3912,10 +4405,12 @@
       <c r="D232" t="s">
         <v>7</v>
       </c>
-      <c r="E232"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="E232" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
         <v>45595</v>
       </c>
       <c r="B233" t="s">
@@ -3927,10 +4422,12 @@
       <c r="D233" t="s">
         <v>8</v>
       </c>
-      <c r="E233"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="E233" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
         <v>45595</v>
       </c>
       <c r="B234" t="s">
@@ -3942,10 +4439,12 @@
       <c r="D234" t="s">
         <v>7</v>
       </c>
-      <c r="E234"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="E234" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
         <v>45595</v>
       </c>
       <c r="B235" t="s">
@@ -3957,10 +4456,12 @@
       <c r="D235" t="s">
         <v>8</v>
       </c>
-      <c r="E235"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="E235" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
         <v>45595</v>
       </c>
       <c r="B236" t="s">
@@ -3972,10 +4473,12 @@
       <c r="D236" t="s">
         <v>7</v>
       </c>
-      <c r="E236"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="E236" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
         <v>45595</v>
       </c>
       <c r="B237" t="s">
@@ -3987,10 +4490,12 @@
       <c r="D237" t="s">
         <v>8</v>
       </c>
-      <c r="E237"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="E237" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
         <v>45595</v>
       </c>
       <c r="B238" t="s">
@@ -4002,10 +4507,12 @@
       <c r="D238" t="s">
         <v>7</v>
       </c>
-      <c r="E238"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="E238" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
         <v>45595</v>
       </c>
       <c r="B239" t="s">
@@ -4017,10 +4524,12 @@
       <c r="D239" t="s">
         <v>8</v>
       </c>
-      <c r="E239"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="E239" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
         <v>45595</v>
       </c>
       <c r="B240" t="s">
@@ -4032,10 +4541,12 @@
       <c r="D240" t="s">
         <v>7</v>
       </c>
-      <c r="E240"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="E240" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
         <v>45595</v>
       </c>
       <c r="B241" t="s">
@@ -4047,10 +4558,12 @@
       <c r="D241" t="s">
         <v>8</v>
       </c>
-      <c r="E241"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="E241" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
         <v>45595</v>
       </c>
       <c r="B242" t="s">
@@ -4062,10 +4575,12 @@
       <c r="D242" t="s">
         <v>7</v>
       </c>
-      <c r="E242"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="E242" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
         <v>45595</v>
       </c>
       <c r="B243" t="s">
@@ -4077,10 +4592,12 @@
       <c r="D243" t="s">
         <v>8</v>
       </c>
-      <c r="E243"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="E243" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
         <v>45595</v>
       </c>
       <c r="B244" t="s">
@@ -4092,10 +4609,12 @@
       <c r="D244" t="s">
         <v>7</v>
       </c>
-      <c r="E244"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="E244" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
         <v>45595</v>
       </c>
       <c r="B245" t="s">
@@ -4107,10 +4626,12 @@
       <c r="D245" t="s">
         <v>8</v>
       </c>
-      <c r="E245"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="E245" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
         <v>45595</v>
       </c>
       <c r="B246" t="s">
@@ -4122,10 +4643,12 @@
       <c r="D246" t="s">
         <v>7</v>
       </c>
-      <c r="E246"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="E246" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
         <v>45595</v>
       </c>
       <c r="B247" t="s">
@@ -4137,10 +4660,12 @@
       <c r="D247" t="s">
         <v>8</v>
       </c>
-      <c r="E247"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="E247" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
         <v>45595</v>
       </c>
       <c r="B248" t="s">
@@ -4152,10 +4677,12 @@
       <c r="D248" t="s">
         <v>7</v>
       </c>
-      <c r="E248"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="E248" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
         <v>45595</v>
       </c>
       <c r="B249" t="s">
@@ -4167,10 +4694,12 @@
       <c r="D249" t="s">
         <v>8</v>
       </c>
-      <c r="E249"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
         <v>45595</v>
       </c>
       <c r="B250" t="s">
@@ -4182,10 +4711,12 @@
       <c r="D250" t="s">
         <v>7</v>
       </c>
-      <c r="E250"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="E250" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
         <v>45595</v>
       </c>
       <c r="B251" t="s">
@@ -4197,10 +4728,12 @@
       <c r="D251" t="s">
         <v>8</v>
       </c>
-      <c r="E251"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="E251" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
         <v>45595</v>
       </c>
       <c r="B252" t="s">
@@ -4212,10 +4745,12 @@
       <c r="D252" t="s">
         <v>7</v>
       </c>
-      <c r="E252"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="E252" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
         <v>45595</v>
       </c>
       <c r="B253" t="s">
@@ -4227,10 +4762,12 @@
       <c r="D253" t="s">
         <v>8</v>
       </c>
-      <c r="E253"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="E253" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
         <v>45615</v>
       </c>
       <c r="B254" t="s">
@@ -4242,10 +4779,12 @@
       <c r="D254" t="s">
         <v>7</v>
       </c>
-      <c r="E254"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="E254" s="2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
         <v>45615</v>
       </c>
       <c r="B255" t="s">
@@ -4257,10 +4796,12 @@
       <c r="D255" t="s">
         <v>7</v>
       </c>
-      <c r="E255"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="E255" s="2">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
         <v>45615</v>
       </c>
       <c r="B256" t="s">
@@ -4272,10 +4813,12 @@
       <c r="D256" t="s">
         <v>7</v>
       </c>
-      <c r="E256"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="E256" s="2">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
         <v>45615</v>
       </c>
       <c r="B257" t="s">
@@ -4287,10 +4830,12 @@
       <c r="D257" t="s">
         <v>7</v>
       </c>
-      <c r="E257"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="E257" s="2">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
         <v>45615</v>
       </c>
       <c r="B258" t="s">
@@ -4302,10 +4847,12 @@
       <c r="D258" t="s">
         <v>7</v>
       </c>
-      <c r="E258"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="E258" s="2">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
         <v>45615</v>
       </c>
       <c r="B259" t="s">
@@ -4317,10 +4864,12 @@
       <c r="D259" t="s">
         <v>7</v>
       </c>
-      <c r="E259"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="E259" s="2">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>45615</v>
       </c>
       <c r="B260" t="s">
@@ -4332,10 +4881,12 @@
       <c r="D260" t="s">
         <v>7</v>
       </c>
-      <c r="E260"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="E260" s="2">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>45615</v>
       </c>
       <c r="B261" t="s">
@@ -4347,10 +4898,12 @@
       <c r="D261" t="s">
         <v>7</v>
       </c>
-      <c r="E261"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="E261" s="2">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
         <v>45615</v>
       </c>
       <c r="B262" t="s">
@@ -4362,10 +4915,12 @@
       <c r="D262" t="s">
         <v>7</v>
       </c>
-      <c r="E262"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="E262" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
         <v>45615</v>
       </c>
       <c r="B263" t="s">
@@ -4377,10 +4932,12 @@
       <c r="D263" t="s">
         <v>7</v>
       </c>
-      <c r="E263"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="E263" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
         <v>45615</v>
       </c>
       <c r="B264" t="s">
@@ -4392,10 +4949,12 @@
       <c r="D264" t="s">
         <v>7</v>
       </c>
-      <c r="E264"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="E264" s="2">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
         <v>45621</v>
       </c>
       <c r="B265" t="s">
@@ -4407,10 +4966,12 @@
       <c r="D265" t="s">
         <v>7</v>
       </c>
-      <c r="E265"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="E265" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
         <v>45621</v>
       </c>
       <c r="B266" t="s">
@@ -4422,10 +4983,12 @@
       <c r="D266" t="s">
         <v>7</v>
       </c>
-      <c r="E266"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="E266" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
         <v>45621</v>
       </c>
       <c r="B267" t="s">
@@ -4437,10 +5000,12 @@
       <c r="D267" t="s">
         <v>7</v>
       </c>
-      <c r="E267"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="E267" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
         <v>45621</v>
       </c>
       <c r="B268" t="s">
@@ -4452,10 +5017,12 @@
       <c r="D268" t="s">
         <v>7</v>
       </c>
-      <c r="E268"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="E268" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
         <v>45621</v>
       </c>
       <c r="B269" t="s">
@@ -4467,10 +5034,12 @@
       <c r="D269" t="s">
         <v>7</v>
       </c>
-      <c r="E269"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="E269" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
         <v>45621</v>
       </c>
       <c r="B270" t="s">
@@ -4482,10 +5051,12 @@
       <c r="D270" t="s">
         <v>7</v>
       </c>
-      <c r="E270"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="E270" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
         <v>45621</v>
       </c>
       <c r="B271" t="s">
@@ -4497,10 +5068,12 @@
       <c r="D271" t="s">
         <v>7</v>
       </c>
-      <c r="E271"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="E271" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
         <v>45621</v>
       </c>
       <c r="B272" t="s">
@@ -4512,10 +5085,12 @@
       <c r="D272" t="s">
         <v>7</v>
       </c>
-      <c r="E272"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="E272" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
         <v>45621</v>
       </c>
       <c r="B273" t="s">
@@ -4527,10 +5102,12 @@
       <c r="D273" t="s">
         <v>7</v>
       </c>
-      <c r="E273"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="E273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
         <v>45621</v>
       </c>
       <c r="B274" t="s">
@@ -4542,10 +5119,12 @@
       <c r="D274" t="s">
         <v>7</v>
       </c>
-      <c r="E274"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="E274" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
         <v>45621</v>
       </c>
       <c r="B275" t="s">
@@ -4557,10 +5136,12 @@
       <c r="D275" t="s">
         <v>7</v>
       </c>
-      <c r="E275"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="E275" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
         <v>45621</v>
       </c>
       <c r="B276" t="s">
@@ -4572,10 +5153,12 @@
       <c r="D276" t="s">
         <v>7</v>
       </c>
-      <c r="E276"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="E276" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
         <v>45643</v>
       </c>
       <c r="B277" t="s">
@@ -4587,10 +5170,12 @@
       <c r="D277" t="s">
         <v>7</v>
       </c>
-      <c r="E277"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="E277" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
         <v>45643</v>
       </c>
       <c r="B278" t="s">
@@ -4602,10 +5187,12 @@
       <c r="D278" t="s">
         <v>7</v>
       </c>
-      <c r="E278"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="E278" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
         <v>45643</v>
       </c>
       <c r="B279" t="s">
@@ -4617,10 +5204,12 @@
       <c r="D279" t="s">
         <v>7</v>
       </c>
-      <c r="E279"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="E279" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
         <v>45643</v>
       </c>
       <c r="B280" t="s">
@@ -4632,10 +5221,12 @@
       <c r="D280" t="s">
         <v>7</v>
       </c>
-      <c r="E280"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="E280" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
         <v>45643</v>
       </c>
       <c r="B281" t="s">
@@ -4647,10 +5238,12 @@
       <c r="D281" t="s">
         <v>7</v>
       </c>
-      <c r="E281"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="E281" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
         <v>45643</v>
       </c>
       <c r="B282" t="s">
@@ -4662,10 +5255,12 @@
       <c r="D282" t="s">
         <v>7</v>
       </c>
-      <c r="E282"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="E282" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
         <v>45643</v>
       </c>
       <c r="B283" t="s">
@@ -4677,10 +5272,12 @@
       <c r="D283" t="s">
         <v>7</v>
       </c>
-      <c r="E283"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="E283" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
         <v>45643</v>
       </c>
       <c r="B284" t="s">
@@ -4692,10 +5289,12 @@
       <c r="D284" t="s">
         <v>7</v>
       </c>
-      <c r="E284"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="E284" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
         <v>45643</v>
       </c>
       <c r="B285" t="s">
@@ -4707,10 +5306,12 @@
       <c r="D285" t="s">
         <v>7</v>
       </c>
-      <c r="E285"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="E285" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
         <v>45643</v>
       </c>
       <c r="B286" t="s">
@@ -4722,10 +5323,12 @@
       <c r="D286" t="s">
         <v>7</v>
       </c>
-      <c r="E286"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="E286" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
         <v>45643</v>
       </c>
       <c r="B287" t="s">
@@ -4737,10 +5340,12 @@
       <c r="D287" t="s">
         <v>7</v>
       </c>
-      <c r="E287"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="E287" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
         <v>45643</v>
       </c>
       <c r="B288" t="s">
@@ -4752,10 +5357,12 @@
       <c r="D288" t="s">
         <v>7</v>
       </c>
-      <c r="E288"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="E288" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
         <v>45649</v>
       </c>
       <c r="B289" t="s">
@@ -4767,10 +5374,9 @@
       <c r="D289" t="s">
         <v>7</v>
       </c>
-      <c r="E289"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
         <v>45649</v>
       </c>
       <c r="B290" t="s">
@@ -4782,10 +5388,9 @@
       <c r="D290" t="s">
         <v>7</v>
       </c>
-      <c r="E290"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
         <v>45649</v>
       </c>
       <c r="B291" t="s">
@@ -4797,10 +5402,9 @@
       <c r="D291" t="s">
         <v>7</v>
       </c>
-      <c r="E291"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
         <v>45649</v>
       </c>
       <c r="B292" t="s">
@@ -4812,10 +5416,9 @@
       <c r="D292" t="s">
         <v>7</v>
       </c>
-      <c r="E292"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
         <v>45649</v>
       </c>
       <c r="B293" t="s">
@@ -4827,10 +5430,9 @@
       <c r="D293" t="s">
         <v>7</v>
       </c>
-      <c r="E293"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
         <v>45649</v>
       </c>
       <c r="B294" t="s">
@@ -4842,10 +5444,9 @@
       <c r="D294" t="s">
         <v>7</v>
       </c>
-      <c r="E294"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
         <v>45649</v>
       </c>
       <c r="B295" t="s">
@@ -4857,10 +5458,9 @@
       <c r="D295" t="s">
         <v>7</v>
       </c>
-      <c r="E295"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
         <v>45649</v>
       </c>
       <c r="B296" t="s">
@@ -4872,10 +5472,9 @@
       <c r="D296" t="s">
         <v>7</v>
       </c>
-      <c r="E296"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
         <v>45649</v>
       </c>
       <c r="B297" t="s">
@@ -4887,10 +5486,9 @@
       <c r="D297" t="s">
         <v>7</v>
       </c>
-      <c r="E297"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
         <v>45649</v>
       </c>
       <c r="B298" t="s">
@@ -4902,10 +5500,9 @@
       <c r="D298" t="s">
         <v>7</v>
       </c>
-      <c r="E298"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
         <v>45649</v>
       </c>
       <c r="B299" t="s">
@@ -4917,10 +5514,9 @@
       <c r="D299" t="s">
         <v>7</v>
       </c>
-      <c r="E299"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>45649</v>
       </c>
       <c r="B300" t="s">
@@ -4932,10 +5528,9 @@
       <c r="D300" t="s">
         <v>7</v>
       </c>
-      <c r="E300"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
         <v>45659</v>
       </c>
       <c r="B301" t="s">
@@ -4947,10 +5542,12 @@
       <c r="D301" t="s">
         <v>7</v>
       </c>
-      <c r="E301"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="F301" s="2">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
         <v>45659</v>
       </c>
       <c r="B302" t="s">
@@ -4962,10 +5559,12 @@
       <c r="D302" t="s">
         <v>7</v>
       </c>
-      <c r="E302"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="F302" s="2">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
         <v>45659</v>
       </c>
       <c r="B303" t="s">
@@ -4977,10 +5576,12 @@
       <c r="D303" t="s">
         <v>7</v>
       </c>
-      <c r="E303"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="F303" s="2">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
         <v>45659</v>
       </c>
       <c r="B304" t="s">
@@ -4992,10 +5593,12 @@
       <c r="D304" t="s">
         <v>7</v>
       </c>
-      <c r="E304"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="F304" s="2">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
         <v>45659</v>
       </c>
       <c r="B305" t="s">
@@ -5007,10 +5610,12 @@
       <c r="D305" t="s">
         <v>7</v>
       </c>
-      <c r="E305"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="F305" s="2">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
         <v>45659</v>
       </c>
       <c r="B306" t="s">
@@ -5022,10 +5627,12 @@
       <c r="D306" t="s">
         <v>7</v>
       </c>
-      <c r="E306"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="F306" s="2">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
         <v>45659</v>
       </c>
       <c r="B307" t="s">
@@ -5037,10 +5644,12 @@
       <c r="D307" t="s">
         <v>7</v>
       </c>
-      <c r="E307"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="F307" s="2">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
         <v>45659</v>
       </c>
       <c r="B308" t="s">
@@ -5052,10 +5661,12 @@
       <c r="D308" t="s">
         <v>7</v>
       </c>
-      <c r="E308"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="F308" s="2">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
         <v>45659</v>
       </c>
       <c r="B309" t="s">
@@ -5067,10 +5678,12 @@
       <c r="D309" t="s">
         <v>7</v>
       </c>
-      <c r="E309"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="F309" s="2">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
         <v>45659</v>
       </c>
       <c r="B310" t="s">
@@ -5082,10 +5695,12 @@
       <c r="D310" t="s">
         <v>7</v>
       </c>
-      <c r="E310"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="F310" s="2">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
         <v>45659</v>
       </c>
       <c r="B311" t="s">
@@ -5097,10 +5712,12 @@
       <c r="D311" t="s">
         <v>7</v>
       </c>
-      <c r="E311"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="F311" s="2">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
         <v>45659</v>
       </c>
       <c r="B312" t="s">
@@ -5112,10 +5729,12 @@
       <c r="D312" t="s">
         <v>7</v>
       </c>
-      <c r="E312"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="F312" s="2">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
         <v>45665</v>
       </c>
       <c r="B313" t="s">
@@ -5127,10 +5746,9 @@
       <c r="D313" t="s">
         <v>7</v>
       </c>
-      <c r="E313"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
         <v>45665</v>
       </c>
       <c r="B314" t="s">
@@ -5142,10 +5760,9 @@
       <c r="D314" t="s">
         <v>7</v>
       </c>
-      <c r="E314"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
         <v>45665</v>
       </c>
       <c r="B315" t="s">
@@ -5157,10 +5774,9 @@
       <c r="D315" t="s">
         <v>7</v>
       </c>
-      <c r="E315"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
         <v>45665</v>
       </c>
       <c r="B316" t="s">
@@ -5172,10 +5788,9 @@
       <c r="D316" t="s">
         <v>7</v>
       </c>
-      <c r="E316"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
         <v>45665</v>
       </c>
       <c r="B317" t="s">
@@ -5187,10 +5802,9 @@
       <c r="D317" t="s">
         <v>7</v>
       </c>
-      <c r="E317"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
         <v>45673</v>
       </c>
       <c r="B318" t="s">
@@ -5202,10 +5816,9 @@
       <c r="D318" t="s">
         <v>7</v>
       </c>
-      <c r="E318"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
         <v>45673</v>
       </c>
       <c r="B319" t="s">
@@ -5217,10 +5830,9 @@
       <c r="D319" t="s">
         <v>7</v>
       </c>
-      <c r="E319"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
         <v>45673</v>
       </c>
       <c r="B320" t="s">
@@ -5232,10 +5844,9 @@
       <c r="D320" t="s">
         <v>7</v>
       </c>
-      <c r="E320"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
         <v>45673</v>
       </c>
       <c r="B321" t="s">
@@ -5247,10 +5858,9 @@
       <c r="D321" t="s">
         <v>7</v>
       </c>
-      <c r="E321"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
         <v>45673</v>
       </c>
       <c r="B322" t="s">
@@ -5262,10 +5872,9 @@
       <c r="D322" t="s">
         <v>7</v>
       </c>
-      <c r="E322"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
         <v>45673</v>
       </c>
       <c r="B323" t="s">
@@ -5277,10 +5886,9 @@
       <c r="D323" t="s">
         <v>7</v>
       </c>
-      <c r="E323"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
         <v>45673</v>
       </c>
       <c r="B324" t="s">
@@ -5292,10 +5900,9 @@
       <c r="D324" t="s">
         <v>7</v>
       </c>
-      <c r="E324"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
         <v>45673</v>
       </c>
       <c r="B325" t="s">
@@ -5307,10 +5914,9 @@
       <c r="D325" t="s">
         <v>7</v>
       </c>
-      <c r="E325"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
         <v>45673</v>
       </c>
       <c r="B326" t="s">
@@ -5322,10 +5928,9 @@
       <c r="D326" t="s">
         <v>7</v>
       </c>
-      <c r="E326"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
         <v>45673</v>
       </c>
       <c r="B327" t="s">
@@ -5337,10 +5942,9 @@
       <c r="D327" t="s">
         <v>7</v>
       </c>
-      <c r="E327"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
         <v>45673</v>
       </c>
       <c r="B328" t="s">
@@ -5352,10 +5956,9 @@
       <c r="D328" t="s">
         <v>7</v>
       </c>
-      <c r="E328"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
         <v>45673</v>
       </c>
       <c r="B329" t="s">
@@ -5367,10 +5970,9 @@
       <c r="D329" t="s">
         <v>7</v>
       </c>
-      <c r="E329"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
         <v>45680</v>
       </c>
       <c r="B330" t="s">
@@ -5382,10 +5984,9 @@
       <c r="D330" t="s">
         <v>7</v>
       </c>
-      <c r="E330"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
         <v>45680</v>
       </c>
       <c r="B331" t="s">
@@ -5397,10 +5998,9 @@
       <c r="D331" t="s">
         <v>7</v>
       </c>
-      <c r="E331"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
         <v>45680</v>
       </c>
       <c r="B332" t="s">
@@ -5412,10 +6012,9 @@
       <c r="D332" t="s">
         <v>7</v>
       </c>
-      <c r="E332"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
         <v>45680</v>
       </c>
       <c r="B333" t="s">
@@ -5427,10 +6026,9 @@
       <c r="D333" t="s">
         <v>7</v>
       </c>
-      <c r="E333"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
         <v>45680</v>
       </c>
       <c r="B334" t="s">
@@ -5442,10 +6040,9 @@
       <c r="D334" t="s">
         <v>7</v>
       </c>
-      <c r="E334"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
         <v>45680</v>
       </c>
       <c r="B335" t="s">
@@ -5457,10 +6054,9 @@
       <c r="D335" t="s">
         <v>7</v>
       </c>
-      <c r="E335"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
         <v>45680</v>
       </c>
       <c r="B336" t="s">
@@ -5472,10 +6068,9 @@
       <c r="D336" t="s">
         <v>7</v>
       </c>
-      <c r="E336"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
         <v>45680</v>
       </c>
       <c r="B337" t="s">
@@ -5487,10 +6082,9 @@
       <c r="D337" t="s">
         <v>7</v>
       </c>
-      <c r="E337"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
         <v>45680</v>
       </c>
       <c r="B338" t="s">
@@ -5502,10 +6096,9 @@
       <c r="D338" t="s">
         <v>7</v>
       </c>
-      <c r="E338"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
         <v>45685</v>
       </c>
       <c r="B339" t="s">
@@ -5517,10 +6110,9 @@
       <c r="D339" t="s">
         <v>7</v>
       </c>
-      <c r="E339"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
         <v>45685</v>
       </c>
       <c r="B340" t="s">
@@ -5532,10 +6124,9 @@
       <c r="D340" t="s">
         <v>7</v>
       </c>
-      <c r="E340"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
         <v>45685</v>
       </c>
       <c r="B341" t="s">
@@ -5547,10 +6138,9 @@
       <c r="D341" t="s">
         <v>7</v>
       </c>
-      <c r="E341"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
         <v>45685</v>
       </c>
       <c r="B342" t="s">
@@ -5562,10 +6152,9 @@
       <c r="D342" t="s">
         <v>7</v>
       </c>
-      <c r="E342"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
         <v>45685</v>
       </c>
       <c r="B343" t="s">
@@ -5577,10 +6166,9 @@
       <c r="D343" t="s">
         <v>7</v>
       </c>
-      <c r="E343"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
         <v>45685</v>
       </c>
       <c r="B344" t="s">
@@ -5592,10 +6180,9 @@
       <c r="D344" t="s">
         <v>7</v>
       </c>
-      <c r="E344"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
         <v>45685</v>
       </c>
       <c r="B345" t="s">
@@ -5607,10 +6194,9 @@
       <c r="D345" t="s">
         <v>7</v>
       </c>
-      <c r="E345"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
         <v>45685</v>
       </c>
       <c r="B346" t="s">
@@ -5622,10 +6208,9 @@
       <c r="D346" t="s">
         <v>7</v>
       </c>
-      <c r="E346"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
         <v>45685</v>
       </c>
       <c r="B347" t="s">
@@ -5637,10 +6222,9 @@
       <c r="D347" t="s">
         <v>7</v>
       </c>
-      <c r="E347"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
         <v>45685</v>
       </c>
       <c r="B348" t="s">
@@ -5652,10 +6236,9 @@
       <c r="D348" t="s">
         <v>7</v>
       </c>
-      <c r="E348"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
         <v>45685</v>
       </c>
       <c r="B349" t="s">
@@ -5667,10 +6250,9 @@
       <c r="D349" t="s">
         <v>7</v>
       </c>
-      <c r="E349"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
         <v>45685</v>
       </c>
       <c r="B350" t="s">
@@ -5682,10 +6264,9 @@
       <c r="D350" t="s">
         <v>7</v>
       </c>
-      <c r="E350"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
         <v>45692</v>
       </c>
       <c r="B351" t="s">
@@ -5697,10 +6278,9 @@
       <c r="D351" t="s">
         <v>7</v>
       </c>
-      <c r="E351"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
         <v>45692</v>
       </c>
       <c r="B352" t="s">
@@ -5712,10 +6292,9 @@
       <c r="D352" t="s">
         <v>7</v>
       </c>
-      <c r="E352"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
         <v>45692</v>
       </c>
       <c r="B353" t="s">
@@ -5727,10 +6306,9 @@
       <c r="D353" t="s">
         <v>7</v>
       </c>
-      <c r="E353"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
         <v>45692</v>
       </c>
       <c r="B354" t="s">
@@ -5742,10 +6320,9 @@
       <c r="D354" t="s">
         <v>7</v>
       </c>
-      <c r="E354"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
         <v>45692</v>
       </c>
       <c r="B355" t="s">
@@ -5757,10 +6334,9 @@
       <c r="D355" t="s">
         <v>7</v>
       </c>
-      <c r="E355"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
         <v>45692</v>
       </c>
       <c r="B356" t="s">
@@ -5772,10 +6348,9 @@
       <c r="D356" t="s">
         <v>7</v>
       </c>
-      <c r="E356"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
         <v>45692</v>
       </c>
       <c r="B357" t="s">
@@ -5787,10 +6362,9 @@
       <c r="D357" t="s">
         <v>7</v>
       </c>
-      <c r="E357"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
         <v>45692</v>
       </c>
       <c r="B358" t="s">
@@ -5802,10 +6376,9 @@
       <c r="D358" t="s">
         <v>7</v>
       </c>
-      <c r="E358"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
         <v>45692</v>
       </c>
       <c r="B359" t="s">
@@ -5817,10 +6390,9 @@
       <c r="D359" t="s">
         <v>7</v>
       </c>
-      <c r="E359"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
         <v>45692</v>
       </c>
       <c r="B360" t="s">
@@ -5832,10 +6404,9 @@
       <c r="D360" t="s">
         <v>7</v>
       </c>
-      <c r="E360"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
         <v>45692</v>
       </c>
       <c r="B361" t="s">
@@ -5847,10 +6418,9 @@
       <c r="D361" t="s">
         <v>7</v>
       </c>
-      <c r="E361"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
         <v>45692</v>
       </c>
       <c r="B362" t="s">
@@ -5862,10 +6432,9 @@
       <c r="D362" t="s">
         <v>7</v>
       </c>
-      <c r="E362"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
         <v>45698</v>
       </c>
       <c r="B363" t="s">
@@ -5877,10 +6446,9 @@
       <c r="D363" t="s">
         <v>7</v>
       </c>
-      <c r="E363"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
         <v>45698</v>
       </c>
       <c r="B364" t="s">
@@ -5892,10 +6460,9 @@
       <c r="D364" t="s">
         <v>7</v>
       </c>
-      <c r="E364"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
         <v>45698</v>
       </c>
       <c r="B365" t="s">
@@ -5907,10 +6474,9 @@
       <c r="D365" t="s">
         <v>7</v>
       </c>
-      <c r="E365"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
         <v>45698</v>
       </c>
       <c r="B366" t="s">
@@ -5922,10 +6488,9 @@
       <c r="D366" t="s">
         <v>7</v>
       </c>
-      <c r="E366"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
         <v>45698</v>
       </c>
       <c r="B367" t="s">
@@ -5937,10 +6502,9 @@
       <c r="D367" t="s">
         <v>7</v>
       </c>
-      <c r="E367"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
         <v>45698</v>
       </c>
       <c r="B368" t="s">
@@ -5952,10 +6516,9 @@
       <c r="D368" t="s">
         <v>7</v>
       </c>
-      <c r="E368"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
         <v>45698</v>
       </c>
       <c r="B369" t="s">
@@ -5967,10 +6530,9 @@
       <c r="D369" t="s">
         <v>7</v>
       </c>
-      <c r="E369"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
         <v>45698</v>
       </c>
       <c r="B370" t="s">
@@ -5982,10 +6544,9 @@
       <c r="D370" t="s">
         <v>7</v>
       </c>
-      <c r="E370"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
         <v>45698</v>
       </c>
       <c r="B371" t="s">
@@ -5997,10 +6558,9 @@
       <c r="D371" t="s">
         <v>7</v>
       </c>
-      <c r="E371"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
         <v>45698</v>
       </c>
       <c r="B372" t="s">
@@ -6012,10 +6572,9 @@
       <c r="D372" t="s">
         <v>7</v>
       </c>
-      <c r="E372"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
         <v>45698</v>
       </c>
       <c r="B373" t="s">
@@ -6027,10 +6586,9 @@
       <c r="D373" t="s">
         <v>7</v>
       </c>
-      <c r="E373"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
         <v>45698</v>
       </c>
       <c r="B374" t="s">
@@ -6042,10 +6600,9 @@
       <c r="D374" t="s">
         <v>7</v>
       </c>
-      <c r="E374"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
         <v>45713</v>
       </c>
       <c r="B375" t="s">
@@ -6057,10 +6614,9 @@
       <c r="D375" t="s">
         <v>7</v>
       </c>
-      <c r="E375"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
         <v>45713</v>
       </c>
       <c r="B376" t="s">
@@ -6072,10 +6628,9 @@
       <c r="D376" t="s">
         <v>7</v>
       </c>
-      <c r="E376"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
         <v>45713</v>
       </c>
       <c r="B377" t="s">
@@ -6087,10 +6642,9 @@
       <c r="D377" t="s">
         <v>7</v>
       </c>
-      <c r="E377"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
         <v>45713</v>
       </c>
       <c r="B378" t="s">
@@ -6102,10 +6656,9 @@
       <c r="D378" t="s">
         <v>7</v>
       </c>
-      <c r="E378"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
         <v>45713</v>
       </c>
       <c r="B379" t="s">
@@ -6117,10 +6670,9 @@
       <c r="D379" t="s">
         <v>7</v>
       </c>
-      <c r="E379"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
         <v>45713</v>
       </c>
       <c r="B380" t="s">
@@ -6132,10 +6684,9 @@
       <c r="D380" t="s">
         <v>7</v>
       </c>
-      <c r="E380"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
         <v>45713</v>
       </c>
       <c r="B381" t="s">
@@ -6147,10 +6698,9 @@
       <c r="D381" t="s">
         <v>7</v>
       </c>
-      <c r="E381"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
         <v>45713</v>
       </c>
       <c r="B382" t="s">
@@ -6162,10 +6712,9 @@
       <c r="D382" t="s">
         <v>7</v>
       </c>
-      <c r="E382"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
         <v>45713</v>
       </c>
       <c r="B383" t="s">
@@ -6177,10 +6726,9 @@
       <c r="D383" t="s">
         <v>7</v>
       </c>
-      <c r="E383"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
         <v>45713</v>
       </c>
       <c r="B384" t="s">
@@ -6192,10 +6740,9 @@
       <c r="D384" t="s">
         <v>7</v>
       </c>
-      <c r="E384"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
         <v>45713</v>
       </c>
       <c r="B385" t="s">
@@ -6207,10 +6754,9 @@
       <c r="D385" t="s">
         <v>7</v>
       </c>
-      <c r="E385"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
         <v>45713</v>
       </c>
       <c r="B386" t="s">
@@ -6222,10 +6768,9 @@
       <c r="D386" t="s">
         <v>7</v>
       </c>
-      <c r="E386"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
         <v>45722</v>
       </c>
       <c r="B387" t="s">
@@ -6237,10 +6782,9 @@
       <c r="D387" t="s">
         <v>7</v>
       </c>
-      <c r="E387"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
         <v>45722</v>
       </c>
       <c r="B388" t="s">
@@ -6252,10 +6796,9 @@
       <c r="D388" t="s">
         <v>7</v>
       </c>
-      <c r="E388"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
         <v>45722</v>
       </c>
       <c r="B389" t="s">
@@ -6267,10 +6810,9 @@
       <c r="D389" t="s">
         <v>7</v>
       </c>
-      <c r="E389"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
         <v>45722</v>
       </c>
       <c r="B390" t="s">
@@ -6282,10 +6824,9 @@
       <c r="D390" t="s">
         <v>7</v>
       </c>
-      <c r="E390"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
         <v>45722</v>
       </c>
       <c r="B391" t="s">
@@ -6297,10 +6838,9 @@
       <c r="D391" t="s">
         <v>7</v>
       </c>
-      <c r="E391"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
         <v>45722</v>
       </c>
       <c r="B392" t="s">
@@ -6312,10 +6852,9 @@
       <c r="D392" t="s">
         <v>7</v>
       </c>
-      <c r="E392"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
         <v>45722</v>
       </c>
       <c r="B393" t="s">
@@ -6327,10 +6866,9 @@
       <c r="D393" t="s">
         <v>7</v>
       </c>
-      <c r="E393"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
         <v>45722</v>
       </c>
       <c r="B394" t="s">
@@ -6342,10 +6880,9 @@
       <c r="D394" t="s">
         <v>7</v>
       </c>
-      <c r="E394"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
         <v>45722</v>
       </c>
       <c r="B395" t="s">
@@ -6357,10 +6894,9 @@
       <c r="D395" t="s">
         <v>7</v>
       </c>
-      <c r="E395"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
         <v>45722</v>
       </c>
       <c r="B396" t="s">
@@ -6372,10 +6908,9 @@
       <c r="D396" t="s">
         <v>7</v>
       </c>
-      <c r="E396"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
         <v>45722</v>
       </c>
       <c r="B397" t="s">
@@ -6387,10 +6922,9 @@
       <c r="D397" t="s">
         <v>7</v>
       </c>
-      <c r="E397"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
         <v>45722</v>
       </c>
       <c r="B398" t="s">
@@ -6402,10 +6936,9 @@
       <c r="D398" t="s">
         <v>7</v>
       </c>
-      <c r="E398"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
         <v>45729</v>
       </c>
       <c r="B399" t="s">
@@ -6417,10 +6950,9 @@
       <c r="D399" t="s">
         <v>7</v>
       </c>
-      <c r="E399"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
         <v>45729</v>
       </c>
       <c r="B400" t="s">
@@ -6432,10 +6964,9 @@
       <c r="D400" t="s">
         <v>7</v>
       </c>
-      <c r="E400"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
         <v>45729</v>
       </c>
       <c r="B401" t="s">
@@ -6447,10 +6978,9 @@
       <c r="D401" t="s">
         <v>7</v>
       </c>
-      <c r="E401"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
         <v>45729</v>
       </c>
       <c r="B402" t="s">
@@ -6462,10 +6992,9 @@
       <c r="D402" t="s">
         <v>7</v>
       </c>
-      <c r="E402"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
         <v>45729</v>
       </c>
       <c r="B403" t="s">
@@ -6477,10 +7006,9 @@
       <c r="D403" t="s">
         <v>7</v>
       </c>
-      <c r="E403"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
         <v>45729</v>
       </c>
       <c r="B404" t="s">
@@ -6492,10 +7020,9 @@
       <c r="D404" t="s">
         <v>7</v>
       </c>
-      <c r="E404"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
         <v>45729</v>
       </c>
       <c r="B405" t="s">
@@ -6507,10 +7034,9 @@
       <c r="D405" t="s">
         <v>7</v>
       </c>
-      <c r="E405"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
         <v>45729</v>
       </c>
       <c r="B406" t="s">
@@ -6522,10 +7048,9 @@
       <c r="D406" t="s">
         <v>7</v>
       </c>
-      <c r="E406"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
         <v>45729</v>
       </c>
       <c r="B407" t="s">
@@ -6537,10 +7062,9 @@
       <c r="D407" t="s">
         <v>7</v>
       </c>
-      <c r="E407"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
         <v>45729</v>
       </c>
       <c r="B408" t="s">
@@ -6552,10 +7076,9 @@
       <c r="D408" t="s">
         <v>7</v>
       </c>
-      <c r="E408"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
         <v>45729</v>
       </c>
       <c r="B409" t="s">
@@ -6567,10 +7090,9 @@
       <c r="D409" t="s">
         <v>7</v>
       </c>
-      <c r="E409"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
         <v>45729</v>
       </c>
       <c r="B410" t="s">
@@ -6582,10 +7104,9 @@
       <c r="D410" t="s">
         <v>7</v>
       </c>
-      <c r="E410"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
         <v>45735</v>
       </c>
       <c r="B411" t="s">
@@ -6597,10 +7118,9 @@
       <c r="D411" t="s">
         <v>7</v>
       </c>
-      <c r="E411"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
         <v>45735</v>
       </c>
       <c r="B412" t="s">
@@ -6612,10 +7132,9 @@
       <c r="D412" t="s">
         <v>7</v>
       </c>
-      <c r="E412"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1">
         <v>45735</v>
       </c>
       <c r="B413" t="s">
@@ -6627,10 +7146,9 @@
       <c r="D413" t="s">
         <v>7</v>
       </c>
-      <c r="E413"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>45735</v>
       </c>
       <c r="B414" t="s">
@@ -6642,10 +7160,9 @@
       <c r="D414" t="s">
         <v>7</v>
       </c>
-      <c r="E414"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="1">
         <v>45735</v>
       </c>
       <c r="B415" t="s">
@@ -6657,10 +7174,9 @@
       <c r="D415" t="s">
         <v>7</v>
       </c>
-      <c r="E415"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="1">
         <v>45735</v>
       </c>
       <c r="B416" t="s">
@@ -6672,10 +7188,9 @@
       <c r="D416" t="s">
         <v>7</v>
       </c>
-      <c r="E416"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="1">
         <v>45735</v>
       </c>
       <c r="B417" t="s">
@@ -6687,10 +7202,9 @@
       <c r="D417" t="s">
         <v>7</v>
       </c>
-      <c r="E417"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="1">
         <v>45735</v>
       </c>
       <c r="B418" t="s">
@@ -6702,10 +7216,9 @@
       <c r="D418" t="s">
         <v>7</v>
       </c>
-      <c r="E418"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="1">
         <v>45735</v>
       </c>
       <c r="B419" t="s">
@@ -6717,10 +7230,9 @@
       <c r="D419" t="s">
         <v>7</v>
       </c>
-      <c r="E419"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="1">
         <v>45735</v>
       </c>
       <c r="B420" t="s">
@@ -6732,10 +7244,9 @@
       <c r="D420" t="s">
         <v>7</v>
       </c>
-      <c r="E420"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>45735</v>
       </c>
       <c r="B421" t="s">
@@ -6747,10 +7258,9 @@
       <c r="D421" t="s">
         <v>7</v>
       </c>
-      <c r="E421"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
         <v>45735</v>
       </c>
       <c r="B422" t="s">
@@ -6762,10 +7272,9 @@
       <c r="D422" t="s">
         <v>7</v>
       </c>
-      <c r="E422"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="1">
         <v>45740</v>
       </c>
       <c r="B423" t="s">
@@ -6777,10 +7286,9 @@
       <c r="D423" t="s">
         <v>7</v>
       </c>
-      <c r="E423"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="1">
         <v>45740</v>
       </c>
       <c r="B424" t="s">
@@ -6792,10 +7300,9 @@
       <c r="D424" t="s">
         <v>7</v>
       </c>
-      <c r="E424"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
         <v>45740</v>
       </c>
       <c r="B425" t="s">
@@ -6807,10 +7314,9 @@
       <c r="D425" t="s">
         <v>7</v>
       </c>
-      <c r="E425"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="1">
         <v>45740</v>
       </c>
       <c r="B426" t="s">
@@ -6822,10 +7328,9 @@
       <c r="D426" t="s">
         <v>7</v>
       </c>
-      <c r="E426"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1">
         <v>45740</v>
       </c>
       <c r="B427" t="s">
@@ -6837,10 +7342,9 @@
       <c r="D427" t="s">
         <v>7</v>
       </c>
-      <c r="E427"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="1">
         <v>45740</v>
       </c>
       <c r="B428" t="s">
@@ -6852,10 +7356,9 @@
       <c r="D428" t="s">
         <v>7</v>
       </c>
-      <c r="E428"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1">
         <v>45740</v>
       </c>
       <c r="B429" t="s">
@@ -6867,10 +7370,9 @@
       <c r="D429" t="s">
         <v>7</v>
       </c>
-      <c r="E429"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1">
         <v>45740</v>
       </c>
       <c r="B430" t="s">
@@ -6882,10 +7384,9 @@
       <c r="D430" t="s">
         <v>7</v>
       </c>
-      <c r="E430"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="1">
         <v>45740</v>
       </c>
       <c r="B431" t="s">
@@ -6897,10 +7398,9 @@
       <c r="D431" t="s">
         <v>7</v>
       </c>
-      <c r="E431"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
         <v>45740</v>
       </c>
       <c r="B432" t="s">
@@ -6912,10 +7412,9 @@
       <c r="D432" t="s">
         <v>7</v>
       </c>
-      <c r="E432"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
         <v>45740</v>
       </c>
       <c r="B433" t="s">
@@ -6927,10 +7426,9 @@
       <c r="D433" t="s">
         <v>7</v>
       </c>
-      <c r="E433"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
         <v>45740</v>
       </c>
       <c r="B434" t="s">
@@ -6942,10 +7440,9 @@
       <c r="D434" t="s">
         <v>7</v>
       </c>
-      <c r="E434"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
         <v>45770</v>
       </c>
       <c r="B435" t="s">
@@ -6957,10 +7454,9 @@
       <c r="D435" t="s">
         <v>7</v>
       </c>
-      <c r="E435"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
         <v>45770</v>
       </c>
       <c r="B436" t="s">
@@ -6972,10 +7468,9 @@
       <c r="D436" t="s">
         <v>7</v>
       </c>
-      <c r="E436"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
         <v>45770</v>
       </c>
       <c r="B437" t="s">
@@ -6987,10 +7482,9 @@
       <c r="D437" t="s">
         <v>7</v>
       </c>
-      <c r="E437"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
         <v>45770</v>
       </c>
       <c r="B438" t="s">
@@ -7002,10 +7496,9 @@
       <c r="D438" t="s">
         <v>7</v>
       </c>
-      <c r="E438"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
         <v>45770</v>
       </c>
       <c r="B439" t="s">
@@ -7017,10 +7510,9 @@
       <c r="D439" t="s">
         <v>7</v>
       </c>
-      <c r="E439"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="1">
         <v>45770</v>
       </c>
       <c r="B440" t="s">
@@ -7032,10 +7524,9 @@
       <c r="D440" t="s">
         <v>7</v>
       </c>
-      <c r="E440"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="1">
         <v>45770</v>
       </c>
       <c r="B441" t="s">
@@ -7047,10 +7538,9 @@
       <c r="D441" t="s">
         <v>7</v>
       </c>
-      <c r="E441"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
         <v>45770</v>
       </c>
       <c r="B442" t="s">
@@ -7062,10 +7552,9 @@
       <c r="D442" t="s">
         <v>7</v>
       </c>
-      <c r="E442"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
         <v>45770</v>
       </c>
       <c r="B443" t="s">
@@ -7077,10 +7566,9 @@
       <c r="D443" t="s">
         <v>7</v>
       </c>
-      <c r="E443"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
         <v>45770</v>
       </c>
       <c r="B444" t="s">
@@ -7092,10 +7580,9 @@
       <c r="D444" t="s">
         <v>7</v>
       </c>
-      <c r="E444"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
         <v>45770</v>
       </c>
       <c r="B445" t="s">
@@ -7107,10 +7594,9 @@
       <c r="D445" t="s">
         <v>7</v>
       </c>
-      <c r="E445"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
         <v>45770</v>
       </c>
       <c r="B446" t="s">
@@ -7122,10 +7608,9 @@
       <c r="D446" t="s">
         <v>7</v>
       </c>
-      <c r="E446"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
         <v>45776</v>
       </c>
       <c r="B447" t="s">
@@ -7137,10 +7622,9 @@
       <c r="D447" t="s">
         <v>7</v>
       </c>
-      <c r="E447"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
         <v>45776</v>
       </c>
       <c r="B448" t="s">
@@ -7152,10 +7636,9 @@
       <c r="D448" t="s">
         <v>7</v>
       </c>
-      <c r="E448"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
         <v>45776</v>
       </c>
       <c r="B449" t="s">
@@ -7167,10 +7650,9 @@
       <c r="D449" t="s">
         <v>7</v>
       </c>
-      <c r="E449"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
         <v>45776</v>
       </c>
       <c r="B450" t="s">
@@ -7182,10 +7664,9 @@
       <c r="D450" t="s">
         <v>7</v>
       </c>
-      <c r="E450"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
         <v>45776</v>
       </c>
       <c r="B451" t="s">
@@ -7197,10 +7678,9 @@
       <c r="D451" t="s">
         <v>7</v>
       </c>
-      <c r="E451"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
         <v>45776</v>
       </c>
       <c r="B452" t="s">
@@ -7212,10 +7692,9 @@
       <c r="D452" t="s">
         <v>7</v>
       </c>
-      <c r="E452"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
         <v>45776</v>
       </c>
       <c r="B453" t="s">
@@ -7227,10 +7706,9 @@
       <c r="D453" t="s">
         <v>7</v>
       </c>
-      <c r="E453"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
         <v>45776</v>
       </c>
       <c r="B454" t="s">
@@ -7242,10 +7720,9 @@
       <c r="D454" t="s">
         <v>7</v>
       </c>
-      <c r="E454"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
         <v>45776</v>
       </c>
       <c r="B455" t="s">
@@ -7257,10 +7734,9 @@
       <c r="D455" t="s">
         <v>7</v>
       </c>
-      <c r="E455"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
         <v>45776</v>
       </c>
       <c r="B456" t="s">
@@ -7272,10 +7748,9 @@
       <c r="D456" t="s">
         <v>7</v>
       </c>
-      <c r="E456"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
         <v>45776</v>
       </c>
       <c r="B457" t="s">
@@ -7287,10 +7762,9 @@
       <c r="D457" t="s">
         <v>7</v>
       </c>
-      <c r="E457"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
         <v>45776</v>
       </c>
       <c r="B458" t="s">
@@ -7302,10 +7776,9 @@
       <c r="D458" t="s">
         <v>7</v>
       </c>
-      <c r="E458"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
         <v>45783</v>
       </c>
       <c r="B459" t="s">
@@ -7317,10 +7790,9 @@
       <c r="D459" t="s">
         <v>7</v>
       </c>
-      <c r="E459"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
         <v>45783</v>
       </c>
       <c r="B460" t="s">
@@ -7332,10 +7804,9 @@
       <c r="D460" t="s">
         <v>7</v>
       </c>
-      <c r="E460"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
         <v>45783</v>
       </c>
       <c r="B461" t="s">
@@ -7347,10 +7818,9 @@
       <c r="D461" t="s">
         <v>7</v>
       </c>
-      <c r="E461"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
         <v>45783</v>
       </c>
       <c r="B462" t="s">
@@ -7362,10 +7832,9 @@
       <c r="D462" t="s">
         <v>7</v>
       </c>
-      <c r="E462"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
         <v>45783</v>
       </c>
       <c r="B463" t="s">
@@ -7377,10 +7846,9 @@
       <c r="D463" t="s">
         <v>7</v>
       </c>
-      <c r="E463"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
         <v>45783</v>
       </c>
       <c r="B464" t="s">
@@ -7392,10 +7860,9 @@
       <c r="D464" t="s">
         <v>7</v>
       </c>
-      <c r="E464"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
         <v>45783</v>
       </c>
       <c r="B465" t="s">
@@ -7407,10 +7874,9 @@
       <c r="D465" t="s">
         <v>7</v>
       </c>
-      <c r="E465"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
         <v>45783</v>
       </c>
       <c r="B466" t="s">
@@ -7422,10 +7888,9 @@
       <c r="D466" t="s">
         <v>7</v>
       </c>
-      <c r="E466"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
         <v>45783</v>
       </c>
       <c r="B467" t="s">
@@ -7437,10 +7902,9 @@
       <c r="D467" t="s">
         <v>7</v>
       </c>
-      <c r="E467"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
         <v>45783</v>
       </c>
       <c r="B468" t="s">
@@ -7452,10 +7916,9 @@
       <c r="D468" t="s">
         <v>7</v>
       </c>
-      <c r="E468"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
         <v>45783</v>
       </c>
       <c r="B469" t="s">
@@ -7467,10 +7930,9 @@
       <c r="D469" t="s">
         <v>7</v>
       </c>
-      <c r="E469"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
         <v>45783</v>
       </c>
       <c r="B470" t="s">
@@ -7482,10 +7944,9 @@
       <c r="D470" t="s">
         <v>7</v>
       </c>
-      <c r="E470"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="1">
         <v>45783</v>
       </c>
       <c r="B471" t="s">
@@ -7497,10 +7958,9 @@
       <c r="D471" t="s">
         <v>7</v>
       </c>
-      <c r="E471"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1">
         <v>45783</v>
       </c>
       <c r="B472" t="s">
@@ -7512,10 +7972,9 @@
       <c r="D472" t="s">
         <v>7</v>
       </c>
-      <c r="E472"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1">
         <v>45783</v>
       </c>
       <c r="B473" t="s">
@@ -7527,10 +7986,9 @@
       <c r="D473" t="s">
         <v>7</v>
       </c>
-      <c r="E473"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="1">
         <v>45783</v>
       </c>
       <c r="B474" t="s">
@@ -7542,10 +8000,9 @@
       <c r="D474" t="s">
         <v>7</v>
       </c>
-      <c r="E474"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="1">
         <v>45783</v>
       </c>
       <c r="B475" t="s">
@@ -7557,10 +8014,9 @@
       <c r="D475" t="s">
         <v>7</v>
       </c>
-      <c r="E475"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1">
         <v>45783</v>
       </c>
       <c r="B476" t="s">
@@ -7572,10 +8028,9 @@
       <c r="D476" t="s">
         <v>7</v>
       </c>
-      <c r="E476"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1">
         <v>45790</v>
       </c>
       <c r="B477" t="s">
@@ -7587,10 +8042,9 @@
       <c r="D477" t="s">
         <v>7</v>
       </c>
-      <c r="E477"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
         <v>45790</v>
       </c>
       <c r="B478" t="s">
@@ -7602,10 +8056,9 @@
       <c r="D478" t="s">
         <v>7</v>
       </c>
-      <c r="E478"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
         <v>45790</v>
       </c>
       <c r="B479" t="s">
@@ -7617,10 +8070,9 @@
       <c r="D479" t="s">
         <v>7</v>
       </c>
-      <c r="E479"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
         <v>45790</v>
       </c>
       <c r="B480" t="s">
@@ -7632,10 +8084,9 @@
       <c r="D480" t="s">
         <v>7</v>
       </c>
-      <c r="E480"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
         <v>45790</v>
       </c>
       <c r="B481" t="s">
@@ -7647,10 +8098,9 @@
       <c r="D481" t="s">
         <v>7</v>
       </c>
-      <c r="E481"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
         <v>45790</v>
       </c>
       <c r="B482" t="s">
@@ -7662,10 +8112,9 @@
       <c r="D482" t="s">
         <v>7</v>
       </c>
-      <c r="E482"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
         <v>45790</v>
       </c>
       <c r="B483" t="s">
@@ -7677,10 +8126,9 @@
       <c r="D483" t="s">
         <v>7</v>
       </c>
-      <c r="E483"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
         <v>45790</v>
       </c>
       <c r="B484" t="s">
@@ -7692,10 +8140,9 @@
       <c r="D484" t="s">
         <v>7</v>
       </c>
-      <c r="E484"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
         <v>45790</v>
       </c>
       <c r="B485" t="s">
@@ -7707,10 +8154,9 @@
       <c r="D485" t="s">
         <v>7</v>
       </c>
-      <c r="E485"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
         <v>45790</v>
       </c>
       <c r="B486" t="s">
@@ -7722,10 +8168,9 @@
       <c r="D486" t="s">
         <v>7</v>
       </c>
-      <c r="E486"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
         <v>45790</v>
       </c>
       <c r="B487" t="s">
@@ -7737,10 +8182,9 @@
       <c r="D487" t="s">
         <v>7</v>
       </c>
-      <c r="E487"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
         <v>45790</v>
       </c>
       <c r="B488" t="s">
@@ -7752,10 +8196,9 @@
       <c r="D488" t="s">
         <v>7</v>
       </c>
-      <c r="E488"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
         <v>45790</v>
       </c>
       <c r="B489" t="s">
@@ -7767,10 +8210,9 @@
       <c r="D489" t="s">
         <v>7</v>
       </c>
-      <c r="E489"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
         <v>45790</v>
       </c>
       <c r="B490" t="s">
@@ -7782,10 +8224,9 @@
       <c r="D490" t="s">
         <v>7</v>
       </c>
-      <c r="E490"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
         <v>45790</v>
       </c>
       <c r="B491" t="s">
@@ -7797,10 +8238,9 @@
       <c r="D491" t="s">
         <v>7</v>
       </c>
-      <c r="E491"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
         <v>45790</v>
       </c>
       <c r="B492" t="s">
@@ -7812,10 +8252,9 @@
       <c r="D492" t="s">
         <v>7</v>
       </c>
-      <c r="E492"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
         <v>45790</v>
       </c>
       <c r="B493" t="s">
@@ -7827,10 +8266,9 @@
       <c r="D493" t="s">
         <v>7</v>
       </c>
-      <c r="E493"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
         <v>45790</v>
       </c>
       <c r="B494" t="s">
@@ -7842,10 +8280,9 @@
       <c r="D494" t="s">
         <v>7</v>
       </c>
-      <c r="E494"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
         <v>45791</v>
       </c>
       <c r="B495" t="s">
@@ -7857,10 +8294,9 @@
       <c r="D495" t="s">
         <v>7</v>
       </c>
-      <c r="E495"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
         <v>45791</v>
       </c>
       <c r="B496" t="s">
@@ -7872,10 +8308,9 @@
       <c r="D496" t="s">
         <v>7</v>
       </c>
-      <c r="E496"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
         <v>45791</v>
       </c>
       <c r="B497" t="s">
@@ -7887,10 +8322,9 @@
       <c r="D497" t="s">
         <v>7</v>
       </c>
-      <c r="E497"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
         <v>45791</v>
       </c>
       <c r="B498" t="s">
@@ -7902,10 +8336,9 @@
       <c r="D498" t="s">
         <v>7</v>
       </c>
-      <c r="E498"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
         <v>45791</v>
       </c>
       <c r="B499" t="s">
@@ -7917,10 +8350,9 @@
       <c r="D499" t="s">
         <v>7</v>
       </c>
-      <c r="E499"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
         <v>45797</v>
       </c>
       <c r="B500" t="s">
@@ -7932,10 +8364,9 @@
       <c r="D500" t="s">
         <v>7</v>
       </c>
-      <c r="E500"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
         <v>45797</v>
       </c>
       <c r="B501" t="s">
@@ -7947,10 +8378,9 @@
       <c r="D501" t="s">
         <v>7</v>
       </c>
-      <c r="E501"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
         <v>45797</v>
       </c>
       <c r="B502" t="s">
@@ -7962,10 +8392,9 @@
       <c r="D502" t="s">
         <v>7</v>
       </c>
-      <c r="E502"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
         <v>45797</v>
       </c>
       <c r="B503" t="s">
@@ -7977,10 +8406,9 @@
       <c r="D503" t="s">
         <v>7</v>
       </c>
-      <c r="E503"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
         <v>45797</v>
       </c>
       <c r="B504" t="s">
@@ -7992,10 +8420,9 @@
       <c r="D504" t="s">
         <v>7</v>
       </c>
-      <c r="E504"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
         <v>45797</v>
       </c>
       <c r="B505" t="s">
@@ -8007,10 +8434,9 @@
       <c r="D505" t="s">
         <v>7</v>
       </c>
-      <c r="E505"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
         <v>45797</v>
       </c>
       <c r="B506" t="s">
@@ -8022,10 +8448,9 @@
       <c r="D506" t="s">
         <v>7</v>
       </c>
-      <c r="E506"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
         <v>45797</v>
       </c>
       <c r="B507" t="s">
@@ -8037,10 +8462,9 @@
       <c r="D507" t="s">
         <v>7</v>
       </c>
-      <c r="E507"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
         <v>45797</v>
       </c>
       <c r="B508" t="s">
@@ -8052,10 +8476,9 @@
       <c r="D508" t="s">
         <v>7</v>
       </c>
-      <c r="E508"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
         <v>45797</v>
       </c>
       <c r="B509" t="s">
@@ -8067,10 +8490,9 @@
       <c r="D509" t="s">
         <v>7</v>
       </c>
-      <c r="E509"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
         <v>45797</v>
       </c>
       <c r="B510" t="s">
@@ -8082,10 +8504,9 @@
       <c r="D510" t="s">
         <v>7</v>
       </c>
-      <c r="E510"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
         <v>45797</v>
       </c>
       <c r="B511" t="s">
@@ -8097,10 +8518,9 @@
       <c r="D511" t="s">
         <v>7</v>
       </c>
-      <c r="E511"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
         <v>45798</v>
       </c>
       <c r="B512" t="s">
@@ -8112,10 +8532,9 @@
       <c r="D512" t="s">
         <v>7</v>
       </c>
-      <c r="E512"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
         <v>45798</v>
       </c>
       <c r="B513" t="s">
@@ -8127,10 +8546,9 @@
       <c r="D513" t="s">
         <v>7</v>
       </c>
-      <c r="E513"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
         <v>45798</v>
       </c>
       <c r="B514" t="s">
@@ -8142,10 +8560,9 @@
       <c r="D514" t="s">
         <v>7</v>
       </c>
-      <c r="E514"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
         <v>45798</v>
       </c>
       <c r="B515" t="s">
@@ -8157,10 +8574,9 @@
       <c r="D515" t="s">
         <v>7</v>
       </c>
-      <c r="E515"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
         <v>45798</v>
       </c>
       <c r="B516" t="s">
@@ -8172,10 +8588,9 @@
       <c r="D516" t="s">
         <v>7</v>
       </c>
-      <c r="E516"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
         <v>45798</v>
       </c>
       <c r="B517" t="s">
@@ -8187,10 +8602,9 @@
       <c r="D517" t="s">
         <v>7</v>
       </c>
-      <c r="E517"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
         <v>45798</v>
       </c>
       <c r="B518" t="s">
@@ -8202,10 +8616,9 @@
       <c r="D518" t="s">
         <v>7</v>
       </c>
-      <c r="E518"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
         <v>45798</v>
       </c>
       <c r="B519" t="s">
@@ -8217,10 +8630,9 @@
       <c r="D519" t="s">
         <v>7</v>
       </c>
-      <c r="E519"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
         <v>45798</v>
       </c>
       <c r="B520" t="s">
@@ -8232,10 +8644,9 @@
       <c r="D520" t="s">
         <v>7</v>
       </c>
-      <c r="E520"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
         <v>45798</v>
       </c>
       <c r="B521" t="s">
@@ -8247,10 +8658,9 @@
       <c r="D521" t="s">
         <v>7</v>
       </c>
-      <c r="E521"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="1">
         <v>45798</v>
       </c>
       <c r="B522" t="s">
@@ -8262,10 +8672,9 @@
       <c r="D522" t="s">
         <v>7</v>
       </c>
-      <c r="E522"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="1">
         <v>45798</v>
       </c>
       <c r="B523" t="s">
@@ -8277,10 +8686,9 @@
       <c r="D523" t="s">
         <v>7</v>
       </c>
-      <c r="E523"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="1">
         <v>45798</v>
       </c>
       <c r="B524" t="s">
@@ -8292,10 +8700,9 @@
       <c r="D524" t="s">
         <v>7</v>
       </c>
-      <c r="E524"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="1">
         <v>45798</v>
       </c>
       <c r="B525" t="s">
@@ -8307,10 +8714,9 @@
       <c r="D525" t="s">
         <v>7</v>
       </c>
-      <c r="E525"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="1">
         <v>45798</v>
       </c>
       <c r="B526" t="s">
@@ -8322,10 +8728,9 @@
       <c r="D526" t="s">
         <v>7</v>
       </c>
-      <c r="E526"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="1">
         <v>45798</v>
       </c>
       <c r="B527" t="s">
@@ -8337,10 +8742,9 @@
       <c r="D527" t="s">
         <v>7</v>
       </c>
-      <c r="E527"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A528" s="1">
         <v>45798</v>
       </c>
       <c r="B528" t="s">
@@ -8352,10 +8756,9 @@
       <c r="D528" t="s">
         <v>7</v>
       </c>
-      <c r="E528"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="1">
         <v>45804</v>
       </c>
       <c r="B529" t="s">
@@ -8367,10 +8770,9 @@
       <c r="D529" t="s">
         <v>7</v>
       </c>
-      <c r="E529"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="1">
         <v>45804</v>
       </c>
       <c r="B530" t="s">
@@ -8382,10 +8784,9 @@
       <c r="D530" t="s">
         <v>7</v>
       </c>
-      <c r="E530"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="1">
         <v>45804</v>
       </c>
       <c r="B531" t="s">
@@ -8397,10 +8798,9 @@
       <c r="D531" t="s">
         <v>7</v>
       </c>
-      <c r="E531"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="1">
         <v>45804</v>
       </c>
       <c r="B532" t="s">
@@ -8412,10 +8812,9 @@
       <c r="D532" t="s">
         <v>7</v>
       </c>
-      <c r="E532"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="1">
         <v>45804</v>
       </c>
       <c r="B533" t="s">
@@ -8427,10 +8826,9 @@
       <c r="D533" t="s">
         <v>7</v>
       </c>
-      <c r="E533"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="1">
         <v>45804</v>
       </c>
       <c r="B534" t="s">
@@ -8442,10 +8840,9 @@
       <c r="D534" t="s">
         <v>7</v>
       </c>
-      <c r="E534"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="1">
         <v>45804</v>
       </c>
       <c r="B535" t="s">
@@ -8457,10 +8854,9 @@
       <c r="D535" t="s">
         <v>7</v>
       </c>
-      <c r="E535"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="1">
         <v>45804</v>
       </c>
       <c r="B536" t="s">
@@ -8472,10 +8868,9 @@
       <c r="D536" t="s">
         <v>7</v>
       </c>
-      <c r="E536"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="1">
         <v>45804</v>
       </c>
       <c r="B537" t="s">
@@ -8487,10 +8882,9 @@
       <c r="D537" t="s">
         <v>7</v>
       </c>
-      <c r="E537"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="1">
         <v>45804</v>
       </c>
       <c r="B538" t="s">
@@ -8502,10 +8896,9 @@
       <c r="D538" t="s">
         <v>7</v>
       </c>
-      <c r="E538"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="1">
         <v>45804</v>
       </c>
       <c r="B539" t="s">
@@ -8517,10 +8910,9 @@
       <c r="D539" t="s">
         <v>7</v>
       </c>
-      <c r="E539"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="1">
         <v>45804</v>
       </c>
       <c r="B540" t="s">
@@ -8532,10 +8924,9 @@
       <c r="D540" t="s">
         <v>7</v>
       </c>
-      <c r="E540"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="1">
         <v>45804</v>
       </c>
       <c r="B541" t="s">
@@ -8547,10 +8938,9 @@
       <c r="D541" t="s">
         <v>7</v>
       </c>
-      <c r="E541"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="1">
         <v>45804</v>
       </c>
       <c r="B542" t="s">
@@ -8562,10 +8952,9 @@
       <c r="D542" t="s">
         <v>7</v>
       </c>
-      <c r="E542"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="1">
         <v>45804</v>
       </c>
       <c r="B543" t="s">
@@ -8577,10 +8966,9 @@
       <c r="D543" t="s">
         <v>7</v>
       </c>
-      <c r="E543"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="1">
         <v>45804</v>
       </c>
       <c r="B544" t="s">
@@ -8592,10 +8980,9 @@
       <c r="D544" t="s">
         <v>7</v>
       </c>
-      <c r="E544"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="1">
         <v>45804</v>
       </c>
       <c r="B545" t="s">
@@ -8607,10 +8994,9 @@
       <c r="D545" t="s">
         <v>7</v>
       </c>
-      <c r="E545"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="1">
         <v>45804</v>
       </c>
       <c r="B546" t="s">
@@ -8622,10 +9008,9 @@
       <c r="D546" t="s">
         <v>7</v>
       </c>
-      <c r="E546"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="1">
         <v>45805</v>
       </c>
       <c r="B547" t="s">
@@ -8637,10 +9022,9 @@
       <c r="D547" t="s">
         <v>7</v>
       </c>
-      <c r="E547"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="1">
         <v>45805</v>
       </c>
       <c r="B548" t="s">
@@ -8652,10 +9036,9 @@
       <c r="D548" t="s">
         <v>7</v>
       </c>
-      <c r="E548"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="1">
         <v>45805</v>
       </c>
       <c r="B549" t="s">
@@ -8667,10 +9050,9 @@
       <c r="D549" t="s">
         <v>7</v>
       </c>
-      <c r="E549"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="1">
         <v>45805</v>
       </c>
       <c r="B550" t="s">
@@ -8682,10 +9064,9 @@
       <c r="D550" t="s">
         <v>7</v>
       </c>
-      <c r="E550"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
         <v>45805</v>
       </c>
       <c r="B551" t="s">
@@ -8697,10 +9078,9 @@
       <c r="D551" t="s">
         <v>7</v>
       </c>
-      <c r="E551"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
         <v>45805</v>
       </c>
       <c r="B552" t="s">
@@ -8712,10 +9092,9 @@
       <c r="D552" t="s">
         <v>7</v>
       </c>
-      <c r="E552"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
         <v>45805</v>
       </c>
       <c r="B553" t="s">
@@ -8727,10 +9106,9 @@
       <c r="D553" t="s">
         <v>7</v>
       </c>
-      <c r="E553"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
         <v>45805</v>
       </c>
       <c r="B554" t="s">
@@ -8742,10 +9120,9 @@
       <c r="D554" t="s">
         <v>7</v>
       </c>
-      <c r="E554"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
         <v>45805</v>
       </c>
       <c r="B555" t="s">
@@ -8757,10 +9134,9 @@
       <c r="D555" t="s">
         <v>7</v>
       </c>
-      <c r="E555"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
         <v>45805</v>
       </c>
       <c r="B556" t="s">
@@ -8772,10 +9148,9 @@
       <c r="D556" t="s">
         <v>7</v>
       </c>
-      <c r="E556"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
         <v>45805</v>
       </c>
       <c r="B557" t="s">
@@ -8787,10 +9162,9 @@
       <c r="D557" t="s">
         <v>7</v>
       </c>
-      <c r="E557"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
         <v>45805</v>
       </c>
       <c r="B558" t="s">
@@ -8802,10 +9176,9 @@
       <c r="D558" t="s">
         <v>7</v>
       </c>
-      <c r="E558"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arkansas_Data/Data/All_MI_measurements_empty.xlsx
+++ b/Arkansas_Data/Data/All_MI_measurements_empty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\Methane_Insight\Arkansas_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AFD494-48B5-4877-9395-C3F2F90C5621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0269BF0-378F-4699-B2F7-764F7C267D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="227">
   <si>
     <t>Date</t>
   </si>
@@ -710,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -723,13 +723,25 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -744,9 +756,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,8 +1063,8 @@
   <dimension ref="A1:F558"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F301" sqref="F301:F312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,6 +1103,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2">
+        <v>37.69</v>
+      </c>
       <c r="F2" t="s">
         <v>204</v>
       </c>
@@ -1103,6 +1123,9 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="2">
+        <v>-2.39</v>
+      </c>
       <c r="F3" t="s">
         <v>205</v>
       </c>
@@ -1120,6 +1143,9 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="3">
+        <v>5.28</v>
+      </c>
       <c r="F4" t="s">
         <v>206</v>
       </c>
@@ -1137,6 +1163,9 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="3">
+        <v>2.6</v>
+      </c>
       <c r="F5" t="s">
         <v>207</v>
       </c>
@@ -1154,6 +1183,9 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="3">
+        <v>5.63</v>
+      </c>
       <c r="F6" t="s">
         <v>208</v>
       </c>
@@ -1171,6 +1203,9 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
+      <c r="E7" s="3">
+        <v>6.73</v>
+      </c>
       <c r="F7" t="s">
         <v>209</v>
       </c>
@@ -1188,6 +1223,9 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
+      <c r="E8" s="3">
+        <v>10.79</v>
+      </c>
       <c r="F8" t="s">
         <v>210</v>
       </c>
@@ -1205,6 +1243,9 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
+      <c r="E9" s="3">
+        <v>4.43</v>
+      </c>
       <c r="F9" t="s">
         <v>211</v>
       </c>
@@ -1222,6 +1263,9 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="E10" s="3">
+        <v>2.97</v>
+      </c>
       <c r="F10" t="s">
         <v>212</v>
       </c>
@@ -1239,6 +1283,9 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
+      <c r="E11" s="3">
+        <v>2.09</v>
+      </c>
       <c r="F11" t="s">
         <v>213</v>
       </c>
@@ -1256,6 +1303,9 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
+      <c r="E12" s="3">
+        <v>4.97</v>
+      </c>
       <c r="F12" t="s">
         <v>214</v>
       </c>
@@ -1273,6 +1323,9 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
+      <c r="E13" s="3">
+        <v>3.63</v>
+      </c>
       <c r="F13" t="s">
         <v>215</v>
       </c>
@@ -1290,6 +1343,9 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
+      <c r="E14" s="3">
+        <v>6.34</v>
+      </c>
       <c r="F14" t="s">
         <v>216</v>
       </c>
@@ -1307,6 +1363,9 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
+      <c r="E15" s="3">
+        <v>-0.88</v>
+      </c>
       <c r="F15" t="s">
         <v>217</v>
       </c>
@@ -1324,6 +1383,9 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
+      <c r="E16" s="3">
+        <v>28.59</v>
+      </c>
       <c r="F16" t="s">
         <v>218</v>
       </c>
@@ -1341,6 +1403,9 @@
       <c r="D17" t="s">
         <v>8</v>
       </c>
+      <c r="E17" s="3">
+        <v>4.84</v>
+      </c>
       <c r="F17" t="s">
         <v>219</v>
       </c>
@@ -1358,6 +1423,9 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
+      <c r="E18" s="3">
+        <v>29.07</v>
+      </c>
       <c r="F18" t="s">
         <v>220</v>
       </c>
@@ -1375,6 +1443,9 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
+      <c r="E19" s="3">
+        <v>6.43</v>
+      </c>
       <c r="F19" t="s">
         <v>221</v>
       </c>
@@ -1392,6 +1463,9 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
+      <c r="E20" s="3">
+        <v>6.88</v>
+      </c>
       <c r="F20" t="s">
         <v>222</v>
       </c>
@@ -1409,6 +1483,9 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
+      <c r="E21" s="3">
+        <v>6.19</v>
+      </c>
       <c r="F21" t="s">
         <v>223</v>
       </c>
@@ -1426,6 +1503,9 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
+      <c r="E22" s="3">
+        <v>17.73</v>
+      </c>
       <c r="F22" t="s">
         <v>224</v>
       </c>
@@ -1443,6 +1523,9 @@
       <c r="D23" t="s">
         <v>8</v>
       </c>
+      <c r="E23" s="3">
+        <v>8.36</v>
+      </c>
       <c r="F23" t="s">
         <v>196</v>
       </c>
@@ -1460,6 +1543,9 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
+      <c r="E24" s="3">
+        <v>25.64</v>
+      </c>
       <c r="F24" t="s">
         <v>225</v>
       </c>
@@ -1477,6 +1563,9 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
+      <c r="E25" s="3">
+        <v>3.87</v>
+      </c>
       <c r="F25" t="s">
         <v>226</v>
       </c>
@@ -1494,6 +1583,9 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
+      <c r="E26" s="3">
+        <v>8.56</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -1508,6 +1600,9 @@
       <c r="D27" t="s">
         <v>8</v>
       </c>
+      <c r="E27" s="3">
+        <v>7.47</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -1522,6 +1617,9 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
+      <c r="E28" s="3">
+        <v>10.130000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1536,6 +1634,9 @@
       <c r="D29" t="s">
         <v>8</v>
       </c>
+      <c r="E29" s="3">
+        <v>3.04</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -1550,6 +1651,9 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
+      <c r="E30" s="3">
+        <v>13.89</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1564,6 +1668,9 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
+      <c r="E31" s="3">
+        <v>4.8099999999999996</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1578,8 +1685,11 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="3">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45503</v>
       </c>
@@ -1592,8 +1702,11 @@
       <c r="D33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45503</v>
       </c>
@@ -1606,8 +1719,11 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="3">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45503</v>
       </c>
@@ -1620,8 +1736,11 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="3">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45503</v>
       </c>
@@ -1634,8 +1753,11 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="3">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45503</v>
       </c>
@@ -1648,8 +1770,11 @@
       <c r="D37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45504</v>
       </c>
@@ -1662,8 +1787,11 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45504</v>
       </c>
@@ -1676,8 +1804,11 @@
       <c r="D39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45504</v>
       </c>
@@ -1690,8 +1821,11 @@
       <c r="D40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45504</v>
       </c>
@@ -1704,8 +1838,11 @@
       <c r="D41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45504</v>
       </c>
@@ -1718,8 +1855,11 @@
       <c r="D42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45504</v>
       </c>
@@ -1732,8 +1872,11 @@
       <c r="D43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45504</v>
       </c>
@@ -1746,8 +1889,11 @@
       <c r="D44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45504</v>
       </c>
@@ -1760,8 +1906,11 @@
       <c r="D45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45504</v>
       </c>
@@ -1774,8 +1923,11 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45504</v>
       </c>
@@ -1788,8 +1940,11 @@
       <c r="D47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45504</v>
       </c>
@@ -1802,8 +1957,11 @@
       <c r="D48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45504</v>
       </c>
@@ -1816,8 +1974,11 @@
       <c r="D49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45505</v>
       </c>
@@ -1830,8 +1991,11 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45505</v>
       </c>
@@ -1844,8 +2008,11 @@
       <c r="D51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45505</v>
       </c>
@@ -1858,8 +2025,11 @@
       <c r="D52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45505</v>
       </c>
@@ -1872,8 +2042,11 @@
       <c r="D53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45505</v>
       </c>
@@ -1886,8 +2059,11 @@
       <c r="D54" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45505</v>
       </c>
@@ -1900,8 +2076,11 @@
       <c r="D55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45505</v>
       </c>
@@ -1914,8 +2093,11 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45505</v>
       </c>
@@ -1928,8 +2110,11 @@
       <c r="D57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45505</v>
       </c>
@@ -1942,8 +2127,11 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45505</v>
       </c>
@@ -1956,8 +2144,11 @@
       <c r="D59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45505</v>
       </c>
@@ -1970,8 +2161,11 @@
       <c r="D60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45505</v>
       </c>
@@ -1984,8 +2178,11 @@
       <c r="D61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45510</v>
       </c>
@@ -1998,8 +2195,11 @@
       <c r="D62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="3">
+        <v>-13.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45510</v>
       </c>
@@ -2012,8 +2212,11 @@
       <c r="D63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="3">
+        <v>-21.84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45510</v>
       </c>
@@ -2026,8 +2229,11 @@
       <c r="D64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="3">
+        <v>-22.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45510</v>
       </c>
@@ -2040,8 +2246,11 @@
       <c r="D65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="3">
+        <v>-32.200000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45510</v>
       </c>
@@ -2054,8 +2263,11 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="3">
+        <v>-46.55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45510</v>
       </c>
@@ -2068,8 +2280,11 @@
       <c r="D67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="3">
+        <v>-33.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45510</v>
       </c>
@@ -2082,8 +2297,11 @@
       <c r="D68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="3">
+        <v>-3.27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45510</v>
       </c>
@@ -2096,8 +2314,11 @@
       <c r="D69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45510</v>
       </c>
@@ -2110,8 +2331,11 @@
       <c r="D70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45510</v>
       </c>
@@ -2124,8 +2348,11 @@
       <c r="D71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="3">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45510</v>
       </c>
@@ -2138,8 +2365,11 @@
       <c r="D72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="3">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45510</v>
       </c>
@@ -2152,8 +2382,11 @@
       <c r="D73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="3">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45510</v>
       </c>
@@ -2166,8 +2399,11 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45510</v>
       </c>
@@ -2180,8 +2416,11 @@
       <c r="D75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="3">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45510</v>
       </c>
@@ -2194,8 +2433,11 @@
       <c r="D76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="3">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45510</v>
       </c>
@@ -2208,8 +2450,11 @@
       <c r="D77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="3">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45510</v>
       </c>
@@ -2222,8 +2467,11 @@
       <c r="D78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="3">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45510</v>
       </c>
@@ -2236,8 +2484,11 @@
       <c r="D79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="3">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45510</v>
       </c>
@@ -2250,8 +2501,11 @@
       <c r="D80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="3">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45510</v>
       </c>
@@ -2264,8 +2518,11 @@
       <c r="D81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45510</v>
       </c>
@@ -2278,8 +2535,11 @@
       <c r="D82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="3">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45510</v>
       </c>
@@ -2292,8 +2552,11 @@
       <c r="D83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="3">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45510</v>
       </c>
@@ -2306,8 +2569,11 @@
       <c r="D84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="3">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45510</v>
       </c>
@@ -2320,8 +2586,11 @@
       <c r="D85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="3">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45510</v>
       </c>
@@ -2334,8 +2603,11 @@
       <c r="D86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45510</v>
       </c>
@@ -2348,8 +2620,11 @@
       <c r="D87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="3">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45510</v>
       </c>
@@ -2362,8 +2637,11 @@
       <c r="D88" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="3">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45510</v>
       </c>
@@ -2376,8 +2654,11 @@
       <c r="D89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="3">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45510</v>
       </c>
@@ -2390,8 +2671,11 @@
       <c r="D90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="3">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45510</v>
       </c>
@@ -2404,8 +2688,11 @@
       <c r="D91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="3">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45510</v>
       </c>
@@ -2418,8 +2705,11 @@
       <c r="D92" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="3">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45510</v>
       </c>
@@ -2432,8 +2722,11 @@
       <c r="D93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="3">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45510</v>
       </c>
@@ -2446,8 +2739,11 @@
       <c r="D94" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="3">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45510</v>
       </c>
@@ -2460,8 +2756,11 @@
       <c r="D95" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="3">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45510</v>
       </c>
@@ -2474,8 +2773,11 @@
       <c r="D96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="3">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45510</v>
       </c>
@@ -2488,8 +2790,11 @@
       <c r="D97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="3">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45512</v>
       </c>
@@ -2502,8 +2807,11 @@
       <c r="D98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="3">
+        <v>-16.52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45512</v>
       </c>
@@ -2516,8 +2824,11 @@
       <c r="D99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="3">
+        <v>-9.83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45512</v>
       </c>
@@ -2530,8 +2841,11 @@
       <c r="D100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="3">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45512</v>
       </c>
@@ -2544,8 +2858,11 @@
       <c r="D101" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="3">
+        <v>-7.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45512</v>
       </c>
@@ -2558,8 +2875,11 @@
       <c r="D102" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="3">
+        <v>-13.37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45512</v>
       </c>
@@ -2572,8 +2892,11 @@
       <c r="D103" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="3">
+        <v>-17.93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45512</v>
       </c>
@@ -2586,8 +2909,11 @@
       <c r="D104" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="3">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45512</v>
       </c>
@@ -2600,8 +2926,11 @@
       <c r="D105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="3">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45512</v>
       </c>
@@ -2614,8 +2943,11 @@
       <c r="D106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="3">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45512</v>
       </c>
@@ -2628,8 +2960,11 @@
       <c r="D107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="2">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45512</v>
       </c>
@@ -2642,8 +2977,11 @@
       <c r="D108" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="3">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45512</v>
       </c>
@@ -2656,8 +2994,11 @@
       <c r="D109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45512</v>
       </c>
@@ -2670,8 +3011,11 @@
       <c r="D110" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="3">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45512</v>
       </c>
@@ -2684,8 +3028,11 @@
       <c r="D111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="3">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45512</v>
       </c>
@@ -2698,8 +3045,11 @@
       <c r="D112" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="3">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45512</v>
       </c>
@@ -2712,8 +3062,11 @@
       <c r="D113" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45512</v>
       </c>
@@ -2726,8 +3079,11 @@
       <c r="D114" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="3">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45512</v>
       </c>
@@ -2740,8 +3096,11 @@
       <c r="D115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="3">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45512</v>
       </c>
@@ -2754,8 +3113,11 @@
       <c r="D116" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="3">
+        <v>22.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45512</v>
       </c>
@@ -2768,8 +3130,11 @@
       <c r="D117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="3">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45512</v>
       </c>
@@ -2782,8 +3147,11 @@
       <c r="D118" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="3">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45512</v>
       </c>
@@ -2796,8 +3164,11 @@
       <c r="D119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="3">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45512</v>
       </c>
@@ -2810,8 +3181,11 @@
       <c r="D120" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45512</v>
       </c>
@@ -2824,8 +3198,11 @@
       <c r="D121" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="3">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45517</v>
       </c>
@@ -2838,8 +3215,11 @@
       <c r="D122" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="3">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45517</v>
       </c>
@@ -2852,8 +3232,11 @@
       <c r="D123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="3">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>45517</v>
       </c>
@@ -2866,8 +3249,11 @@
       <c r="D124" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="3">
+        <v>-1.52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45517</v>
       </c>
@@ -2880,8 +3266,11 @@
       <c r="D125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="3">
+        <v>-1.61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45517</v>
       </c>
@@ -2894,8 +3283,11 @@
       <c r="D126" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="3">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45517</v>
       </c>
@@ -2908,8 +3300,11 @@
       <c r="D127" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="3">
+        <v>-7.89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45517</v>
       </c>
@@ -2922,8 +3317,11 @@
       <c r="D128" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="3">
+        <v>-6.82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45517</v>
       </c>
@@ -2936,8 +3334,11 @@
       <c r="D129" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="3">
+        <v>-8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45517</v>
       </c>
@@ -2950,8 +3351,11 @@
       <c r="D130" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="3">
+        <v>-1.46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45517</v>
       </c>
@@ -2964,8 +3368,11 @@
       <c r="D131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45517</v>
       </c>
@@ -2978,8 +3385,11 @@
       <c r="D132" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="3">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45517</v>
       </c>
@@ -2992,8 +3402,11 @@
       <c r="D133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="3">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45517</v>
       </c>
@@ -3006,8 +3419,11 @@
       <c r="D134" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="3">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45517</v>
       </c>
@@ -3020,8 +3436,11 @@
       <c r="D135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="3">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45517</v>
       </c>
@@ -3034,8 +3453,11 @@
       <c r="D136" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="3">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45517</v>
       </c>
@@ -3048,8 +3470,11 @@
       <c r="D137" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="3">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45517</v>
       </c>
@@ -3062,8 +3487,11 @@
       <c r="D138" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="3">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45517</v>
       </c>
@@ -3076,8 +3504,11 @@
       <c r="D139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45517</v>
       </c>
@@ -3090,8 +3521,11 @@
       <c r="D140" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="3">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45517</v>
       </c>
@@ -3104,8 +3538,11 @@
       <c r="D141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="3">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45517</v>
       </c>
@@ -3118,8 +3555,11 @@
       <c r="D142" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45517</v>
       </c>
@@ -3132,8 +3572,11 @@
       <c r="D143" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="3">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45517</v>
       </c>
@@ -3146,8 +3589,11 @@
       <c r="D144" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="3">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45517</v>
       </c>
@@ -3160,8 +3606,11 @@
       <c r="D145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="3">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45524</v>
       </c>
@@ -3174,8 +3623,11 @@
       <c r="D146" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45524</v>
       </c>
@@ -3188,8 +3640,11 @@
       <c r="D147" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45524</v>
       </c>
@@ -3202,8 +3657,11 @@
       <c r="D148" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45524</v>
       </c>
@@ -3216,8 +3674,11 @@
       <c r="D149" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="3">
+        <v>5.23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45524</v>
       </c>
@@ -3230,8 +3691,11 @@
       <c r="D150" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="3">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45524</v>
       </c>
@@ -3244,8 +3708,11 @@
       <c r="D151" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="3">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45524</v>
       </c>
@@ -3258,8 +3725,11 @@
       <c r="D152" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="3">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45524</v>
       </c>
@@ -3272,8 +3742,11 @@
       <c r="D153" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="3">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45524</v>
       </c>
@@ -3286,8 +3759,11 @@
       <c r="D154" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="3">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45524</v>
       </c>
@@ -3300,8 +3776,11 @@
       <c r="D155" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="3">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45524</v>
       </c>
@@ -3314,8 +3793,11 @@
       <c r="D156" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="3">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45524</v>
       </c>
@@ -3328,8 +3810,11 @@
       <c r="D157" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="3">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45524</v>
       </c>
@@ -3342,8 +3827,11 @@
       <c r="D158" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="3">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45524</v>
       </c>
@@ -3356,8 +3844,11 @@
       <c r="D159" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="3">
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45524</v>
       </c>
@@ -3370,8 +3861,11 @@
       <c r="D160" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="3">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45524</v>
       </c>
@@ -3384,8 +3878,11 @@
       <c r="D161" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="3">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45524</v>
       </c>
@@ -3398,8 +3895,11 @@
       <c r="D162" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="3">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45524</v>
       </c>
@@ -3412,8 +3912,11 @@
       <c r="D163" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="3">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45524</v>
       </c>
@@ -3426,8 +3929,11 @@
       <c r="D164" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="3">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45524</v>
       </c>
@@ -3440,8 +3946,11 @@
       <c r="D165" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45524</v>
       </c>
@@ -3454,8 +3963,11 @@
       <c r="D166" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="3">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45524</v>
       </c>
@@ -3468,8 +3980,11 @@
       <c r="D167" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="3">
+        <v>-1.47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45524</v>
       </c>
@@ -3482,8 +3997,11 @@
       <c r="D168" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45524</v>
       </c>
@@ -3496,8 +4014,11 @@
       <c r="D169" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="3">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45526</v>
       </c>
@@ -3510,8 +4031,11 @@
       <c r="D170" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45526</v>
       </c>
@@ -3524,8 +4048,11 @@
       <c r="D171" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45526</v>
       </c>
@@ -3538,8 +4065,11 @@
       <c r="D172" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45526</v>
       </c>
@@ -3552,8 +4082,11 @@
       <c r="D173" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45526</v>
       </c>
@@ -3566,8 +4099,11 @@
       <c r="D174" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45526</v>
       </c>
@@ -3580,8 +4116,11 @@
       <c r="D175" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45526</v>
       </c>
@@ -3594,8 +4133,11 @@
       <c r="D176" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45526</v>
       </c>
@@ -3608,8 +4150,11 @@
       <c r="D177" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45526</v>
       </c>
@@ -3622,8 +4167,11 @@
       <c r="D178" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45526</v>
       </c>
@@ -3636,8 +4184,11 @@
       <c r="D179" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45526</v>
       </c>
@@ -3650,8 +4201,11 @@
       <c r="D180" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45526</v>
       </c>
@@ -3664,8 +4218,11 @@
       <c r="D181" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45531</v>
       </c>
@@ -3678,8 +4235,11 @@
       <c r="D182" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="3">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45531</v>
       </c>
@@ -3692,8 +4252,11 @@
       <c r="D183" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="3">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45531</v>
       </c>
@@ -3706,8 +4269,11 @@
       <c r="D184" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="3">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45531</v>
       </c>
@@ -3720,8 +4286,11 @@
       <c r="D185" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="3">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45531</v>
       </c>
@@ -3734,8 +4303,11 @@
       <c r="D186" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="3">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45531</v>
       </c>
@@ -3748,8 +4320,11 @@
       <c r="D187" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="3">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45531</v>
       </c>
@@ -3762,8 +4337,11 @@
       <c r="D188" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="3">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45531</v>
       </c>
@@ -3776,8 +4354,11 @@
       <c r="D189" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="3">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45531</v>
       </c>
@@ -3790,8 +4371,11 @@
       <c r="D190" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45531</v>
       </c>
@@ -3804,8 +4388,11 @@
       <c r="D191" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="3">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45531</v>
       </c>
@@ -3818,8 +4405,11 @@
       <c r="D192" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="3">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45531</v>
       </c>
@@ -3832,8 +4422,11 @@
       <c r="D193" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="3">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45538</v>
       </c>
@@ -3846,8 +4439,11 @@
       <c r="D194" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="3">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45538</v>
       </c>
@@ -3860,8 +4456,11 @@
       <c r="D195" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="5">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45538</v>
       </c>
@@ -3874,8 +4473,11 @@
       <c r="D196" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="3">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45538</v>
       </c>
@@ -3888,8 +4490,11 @@
       <c r="D197" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="5">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45538</v>
       </c>
@@ -3902,8 +4507,11 @@
       <c r="D198" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="3">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>45538</v>
       </c>
@@ -3916,8 +4524,11 @@
       <c r="D199" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>45538</v>
       </c>
@@ -3930,8 +4541,11 @@
       <c r="D200" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="3">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>45538</v>
       </c>
@@ -3944,8 +4558,11 @@
       <c r="D201" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="5">
+        <v>-4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>45538</v>
       </c>
@@ -3958,8 +4575,11 @@
       <c r="D202" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>45538</v>
       </c>
@@ -3972,8 +4592,11 @@
       <c r="D203" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="5">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>45538</v>
       </c>
@@ -3986,8 +4609,11 @@
       <c r="D204" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45538</v>
       </c>
@@ -4000,8 +4626,11 @@
       <c r="D205" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45587</v>
       </c>
@@ -4014,8 +4643,11 @@
       <c r="D206" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45587</v>
       </c>
@@ -4028,8 +4660,11 @@
       <c r="D207" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45587</v>
       </c>
@@ -4042,8 +4677,11 @@
       <c r="D208" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45587</v>
       </c>
@@ -4056,8 +4694,11 @@
       <c r="D209" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45587</v>
       </c>
@@ -4070,8 +4711,11 @@
       <c r="D210" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45587</v>
       </c>
@@ -4084,8 +4728,11 @@
       <c r="D211" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45587</v>
       </c>
@@ -4098,8 +4745,11 @@
       <c r="D212" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45587</v>
       </c>
@@ -4112,8 +4762,11 @@
       <c r="D213" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45587</v>
       </c>
@@ -4126,8 +4779,11 @@
       <c r="D214" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45587</v>
       </c>
@@ -4140,8 +4796,11 @@
       <c r="D215" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45587</v>
       </c>
@@ -4154,8 +4813,11 @@
       <c r="D216" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45587</v>
       </c>
@@ -4168,8 +4830,11 @@
       <c r="D217" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45587</v>
       </c>
@@ -4182,8 +4847,11 @@
       <c r="D218" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45587</v>
       </c>
@@ -4196,8 +4864,11 @@
       <c r="D219" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45587</v>
       </c>
@@ -4210,8 +4881,11 @@
       <c r="D220" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45587</v>
       </c>
@@ -4224,8 +4898,11 @@
       <c r="D221" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45587</v>
       </c>
@@ -4238,8 +4915,11 @@
       <c r="D222" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45587</v>
       </c>
@@ -4252,8 +4932,11 @@
       <c r="D223" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>45587</v>
       </c>
@@ -4266,8 +4949,11 @@
       <c r="D224" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>45587</v>
       </c>
@@ -4280,8 +4966,11 @@
       <c r="D225" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>45587</v>
       </c>
@@ -4294,8 +4983,11 @@
       <c r="D226" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45587</v>
       </c>
@@ -4308,8 +5000,11 @@
       <c r="D227" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45587</v>
       </c>
@@ -4322,8 +5017,11 @@
       <c r="D228" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45587</v>
       </c>
@@ -4336,8 +5034,11 @@
       <c r="D229" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45595</v>
       </c>
@@ -4350,8 +5051,11 @@
       <c r="D230" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45595</v>
       </c>
@@ -4364,8 +5068,11 @@
       <c r="D231" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45595</v>
       </c>
@@ -4378,8 +5085,11 @@
       <c r="D232" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45595</v>
       </c>
@@ -4392,8 +5102,11 @@
       <c r="D233" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45595</v>
       </c>
@@ -4406,8 +5119,11 @@
       <c r="D234" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45595</v>
       </c>
@@ -4420,8 +5136,11 @@
       <c r="D235" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45595</v>
       </c>
@@ -4434,8 +5153,11 @@
       <c r="D236" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>45595</v>
       </c>
@@ -4448,8 +5170,11 @@
       <c r="D237" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>45595</v>
       </c>
@@ -4462,8 +5187,11 @@
       <c r="D238" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>45595</v>
       </c>
@@ -4476,8 +5204,11 @@
       <c r="D239" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>45595</v>
       </c>
@@ -4490,8 +5221,11 @@
       <c r="D240" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>45595</v>
       </c>
@@ -4504,8 +5238,11 @@
       <c r="D241" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>45595</v>
       </c>
@@ -4518,8 +5255,11 @@
       <c r="D242" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>45595</v>
       </c>
@@ -4532,8 +5272,11 @@
       <c r="D243" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>45595</v>
       </c>
@@ -4546,8 +5289,11 @@
       <c r="D244" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>45595</v>
       </c>
@@ -4560,8 +5306,11 @@
       <c r="D245" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>45595</v>
       </c>
@@ -4574,8 +5323,11 @@
       <c r="D246" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>45595</v>
       </c>
@@ -4588,8 +5340,11 @@
       <c r="D247" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>45595</v>
       </c>
@@ -4602,8 +5357,11 @@
       <c r="D248" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>45595</v>
       </c>
@@ -4616,8 +5374,11 @@
       <c r="D249" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>45595</v>
       </c>
@@ -4630,8 +5391,11 @@
       <c r="D250" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>45595</v>
       </c>
@@ -4644,8 +5408,11 @@
       <c r="D251" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>45595</v>
       </c>
@@ -4658,8 +5425,11 @@
       <c r="D252" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>45595</v>
       </c>
@@ -4672,8 +5442,11 @@
       <c r="D253" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>45615</v>
       </c>
@@ -4686,8 +5459,11 @@
       <c r="D254" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>45615</v>
       </c>
@@ -4700,8 +5476,11 @@
       <c r="D255" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="3">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>45615</v>
       </c>
@@ -4714,8 +5493,11 @@
       <c r="D256" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="3">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>45615</v>
       </c>
@@ -4728,8 +5510,11 @@
       <c r="D257" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="3">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>45615</v>
       </c>
@@ -4742,8 +5527,11 @@
       <c r="D258" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="3">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>45615</v>
       </c>
@@ -4756,8 +5544,11 @@
       <c r="D259" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="3">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>45615</v>
       </c>
@@ -4770,8 +5561,11 @@
       <c r="D260" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="3">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>45615</v>
       </c>
@@ -4784,8 +5578,11 @@
       <c r="D261" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="3">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>45615</v>
       </c>
@@ -4798,8 +5595,11 @@
       <c r="D262" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>45615</v>
       </c>
@@ -4812,8 +5612,11 @@
       <c r="D263" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>45615</v>
       </c>
@@ -4826,8 +5629,11 @@
       <c r="D264" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="3">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>45621</v>
       </c>
@@ -4840,8 +5646,11 @@
       <c r="D265" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>45621</v>
       </c>
@@ -4854,8 +5663,11 @@
       <c r="D266" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>45621</v>
       </c>
@@ -4868,8 +5680,11 @@
       <c r="D267" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>45621</v>
       </c>
@@ -4882,8 +5697,11 @@
       <c r="D268" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>45621</v>
       </c>
@@ -4896,8 +5714,11 @@
       <c r="D269" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>45621</v>
       </c>
@@ -4910,8 +5731,11 @@
       <c r="D270" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>45621</v>
       </c>
@@ -4924,8 +5748,11 @@
       <c r="D271" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>45621</v>
       </c>
@@ -4937,6 +5764,9 @@
       </c>
       <c r="D272" t="s">
         <v>7</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -4952,6 +5782,9 @@
       <c r="D273" t="s">
         <v>7</v>
       </c>
+      <c r="E273" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
@@ -4966,6 +5799,9 @@
       <c r="D274" t="s">
         <v>7</v>
       </c>
+      <c r="E274" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
@@ -4980,6 +5816,9 @@
       <c r="D275" t="s">
         <v>7</v>
       </c>
+      <c r="E275" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
@@ -4994,6 +5833,9 @@
       <c r="D276" t="s">
         <v>7</v>
       </c>
+      <c r="E276" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
@@ -5008,7 +5850,7 @@
       <c r="D277" t="s">
         <v>7</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5025,7 +5867,7 @@
       <c r="D278" t="s">
         <v>7</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5042,7 +5884,7 @@
       <c r="D279" t="s">
         <v>7</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5059,7 +5901,7 @@
       <c r="D280" t="s">
         <v>7</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5076,7 +5918,7 @@
       <c r="D281" t="s">
         <v>7</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5093,7 +5935,7 @@
       <c r="D282" t="s">
         <v>7</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5110,7 +5952,7 @@
       <c r="D283" t="s">
         <v>7</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5127,7 +5969,7 @@
       <c r="D284" t="s">
         <v>7</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5144,7 +5986,7 @@
       <c r="D285" t="s">
         <v>7</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5161,7 +6003,7 @@
       <c r="D286" t="s">
         <v>7</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5178,7 +6020,7 @@
       <c r="D287" t="s">
         <v>7</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5195,11 +6037,11 @@
       <c r="D288" t="s">
         <v>7</v>
       </c>
-      <c r="E288" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>45649</v>
       </c>
@@ -5216,7 +6058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>45649</v>
       </c>
@@ -5233,7 +6075,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>45649</v>
       </c>
@@ -5250,7 +6092,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>45649</v>
       </c>
@@ -5267,7 +6109,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>45649</v>
       </c>
@@ -5284,7 +6126,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>45649</v>
       </c>
@@ -5301,7 +6143,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>45649</v>
       </c>
@@ -5318,7 +6160,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>45649</v>
       </c>
@@ -5335,7 +6177,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>45649</v>
       </c>
@@ -5352,7 +6194,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>45649</v>
       </c>
@@ -5369,7 +6211,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>45649</v>
       </c>
@@ -5386,7 +6228,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>45649</v>
       </c>
@@ -5403,7 +6245,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>45659</v>
       </c>
@@ -5419,8 +6261,11 @@
       <c r="E301">
         <v>15.31</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="6">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>45659</v>
       </c>
@@ -5436,8 +6281,11 @@
       <c r="E302">
         <v>12.98</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="6">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>45659</v>
       </c>
@@ -5453,8 +6301,11 @@
       <c r="E303">
         <v>18.920000000000002</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="6">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>45659</v>
       </c>
@@ -5470,8 +6321,11 @@
       <c r="E304" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="6">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>45659</v>
       </c>
@@ -5487,8 +6341,11 @@
       <c r="E305" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="6">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>45659</v>
       </c>
@@ -5504,8 +6361,11 @@
       <c r="E306">
         <v>11.92</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="6">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>45659</v>
       </c>
@@ -5521,8 +6381,11 @@
       <c r="E307">
         <v>13.77</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="6">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>45659</v>
       </c>
@@ -5538,8 +6401,11 @@
       <c r="E308">
         <v>12.77</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="6">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>45659</v>
       </c>
@@ -5555,8 +6421,11 @@
       <c r="E309">
         <v>11.13</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="6">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>45659</v>
       </c>
@@ -5572,8 +6441,11 @@
       <c r="E310">
         <v>17.309999999999999</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="6">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>45659</v>
       </c>
@@ -5589,8 +6461,11 @@
       <c r="E311">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="6">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>45659</v>
       </c>
@@ -5606,8 +6481,11 @@
       <c r="E312">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="6">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>45665</v>
       </c>
@@ -5624,7 +6502,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>45665</v>
       </c>
@@ -5641,7 +6519,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>45665</v>
       </c>
@@ -5658,7 +6536,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>45665</v>
       </c>
@@ -5675,7 +6553,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>45665</v>
       </c>
@@ -5692,7 +6570,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>45673</v>
       </c>
@@ -5709,7 +6587,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>45673</v>
       </c>
@@ -5726,7 +6604,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>45673</v>
       </c>
